--- a/Organizando dados.xlsx
+++ b/Organizando dados.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projeto - Analise de Dados (Saude Brasil)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projetos\Projeto-Analise-de-Dados-SRAG-2021---2024-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F250A8-6F71-41AB-85A5-1AC15298C1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27153A0-18ED-4564-A491-6093E43DF019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{ED5AD74C-555A-40DA-A62E-D3459C7593AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{ED5AD74C-555A-40DA-A62E-D3459C7593AC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dicionário de dados" sheetId="1" r:id="rId1"/>
+    <sheet name="Colunas 2021" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="437">
   <si>
     <t>Colunas</t>
   </si>
@@ -1391,6 +1392,81 @@
   <si>
     <t>PAC_COCBO OU
 PAC_DSCBO</t>
+  </si>
+  <si>
+    <t>Coluna</t>
+  </si>
+  <si>
+    <t>COD_IDADE</t>
+  </si>
+  <si>
+    <t>ID_RG_RESI</t>
+  </si>
+  <si>
+    <t>CO_RG_RESI</t>
+  </si>
+  <si>
+    <t>ID_MN_RESI</t>
+  </si>
+  <si>
+    <t>CO_MUN_RES</t>
+  </si>
+  <si>
+    <t>SURTO_SG</t>
+  </si>
+  <si>
+    <t>ID_RG_INTE</t>
+  </si>
+  <si>
+    <t>CO_RG_INTE</t>
+  </si>
+  <si>
+    <t>ID_MN_INTE</t>
+  </si>
+  <si>
+    <t>CO_MU_INTE</t>
+  </si>
+  <si>
+    <t>HISTO_VGM</t>
+  </si>
+  <si>
+    <t>PAIS_VGM</t>
+  </si>
+  <si>
+    <t>CO_PS_VGM</t>
+  </si>
+  <si>
+    <t>LO_PS_VGM</t>
+  </si>
+  <si>
+    <t>DT_VGM</t>
+  </si>
+  <si>
+    <t>DT_RT_VGM</t>
+  </si>
+  <si>
+    <t>PCR_SARS2</t>
+  </si>
+  <si>
+    <t>FAB_COV_1</t>
+  </si>
+  <si>
+    <t>FAB_COV_2</t>
+  </si>
+  <si>
+    <t>FAB_COVREF</t>
+  </si>
+  <si>
+    <t>LAB_PR_COV</t>
+  </si>
+  <si>
+    <t>Ambas as colunas existem</t>
+  </si>
+  <si>
+    <t>Esta com nome FAB_COV1 no dicionário</t>
+  </si>
+  <si>
+    <t>Esta com nome FAB_COV2 no dicionário</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1437,20 +1513,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1483,10 +1562,10 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1502,14 +1581,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{15A3C35E-69DB-49C3-8782-A477CA4F7916}" name="Tabela2" displayName="Tabela2" ref="A1:E180" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{15A3C35E-69DB-49C3-8782-A477CA4F7916}" name="Tabela2" displayName="Tabela2" ref="A1:E180" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A1:E180" xr:uid="{15A3C35E-69DB-49C3-8782-A477CA4F7916}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1CF15E86-3FDE-4FFA-9334-2AEBB16457FE}" name="Colunas" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0CEBB635-FD59-43DF-B13A-7590569F95EA}" name="Descrição" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{7AA778D0-3214-431F-8677-07FA74A3315A}" name="Colunas que serao desconsideradas" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{519AB8D9-E9F1-42C7-99BD-27E35607C102}" name="Comentarios" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{09C524F9-C1AA-4C82-8E7C-4791DD8BBFB7}" name="Porque sera desconsiderada" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1CF15E86-3FDE-4FFA-9334-2AEBB16457FE}" name="Colunas" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{0CEBB635-FD59-43DF-B13A-7590569F95EA}" name="Descrição" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{7AA778D0-3214-431F-8677-07FA74A3315A}" name="Colunas que serao desconsideradas" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{519AB8D9-E9F1-42C7-99BD-27E35607C102}" name="Comentarios" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{09C524F9-C1AA-4C82-8E7C-4791DD8BBFB7}" name="Porque sera desconsiderada" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F0710EE-F857-4ED5-AD97-1D4A264D9A60}" name="Tabela1" displayName="Tabela1" ref="A1:C132" totalsRowShown="0">
+  <autoFilter ref="A1:C132" xr:uid="{3F0710EE-F857-4ED5-AD97-1D4A264D9A60}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C689C462-CF9A-4A49-9651-2D11B10EBFDA}" name="Coluna" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{17816C4B-1900-4889-B6B8-D193E59A1621}" name="Descrição" dataDxfId="1">
+      <calculatedColumnFormula>VLOOKUP(A2,Tabela2[#All], 2, FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{BAFED104-51D5-4C6B-AEE2-A7443C1CD690}" name="Comentarios" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(A2,Tabela2[#All], 4, FALSE)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1834,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831FF6EA-A12F-46F3-B86A-ED578ABDB804}">
   <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,3062 +1943,3062 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="5" t="s">
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="5" t="s">
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="5" t="s">
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="5" t="s">
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="5" t="s">
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="5" t="s">
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="5" t="s">
+      <c r="D68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="5" t="s">
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="5" t="s">
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="5" t="s">
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="5" t="s">
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="5" t="s">
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="5" t="s">
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="5" t="s">
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="5" t="s">
+      <c r="C76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="5" t="s">
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="5" t="s">
+      <c r="C78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="5" t="s">
+      <c r="C79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="5" t="s">
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="5" t="s">
+      <c r="C81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="5" t="s">
+      <c r="C82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="5" t="s">
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="5" t="s">
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="5" t="s">
+      <c r="D86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="5" t="s">
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="5" t="s">
+      <c r="D88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="5" t="s">
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="5" t="s">
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="5" t="s">
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" s="5" t="s">
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="5" t="s">
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="5" t="s">
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" s="5" t="s">
+      <c r="D95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" s="5" t="s">
+      <c r="D96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="5" t="s">
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="5" t="s">
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" s="5" t="s">
+      <c r="D99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="5" t="s">
+      <c r="D100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="5" t="s">
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D102" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="5" t="s">
+      <c r="D102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="5" t="s">
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" s="5" t="s">
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" s="5" t="s">
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="5" t="s">
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="5" t="s">
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E107" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="5" t="s">
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" s="5" t="s">
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="5" t="s">
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E110" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="5" t="s">
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E111" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="5" t="s">
+      <c r="D112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" s="5" t="s">
+      <c r="D113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="5" t="s">
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E114" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E115" s="5" t="s">
+      <c r="D115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D116" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E116" s="5" t="s">
+      <c r="D116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="5" t="s">
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E117" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D118" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" s="5" t="s">
+      <c r="D118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C119" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="5" t="s">
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E119" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" s="5" t="s">
+      <c r="D120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" s="5" t="s">
+      <c r="D121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="5" t="s">
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E122" s="5" t="s">
+      <c r="E122" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" s="5" t="s">
+      <c r="D123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="5" t="s">
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E124" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" s="5" t="s">
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D126" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" s="5" t="s">
+      <c r="D126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C127" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="5" t="s">
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E127" s="5" t="s">
+      <c r="E127" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="5" t="s">
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E128" s="5" t="s">
+      <c r="E128" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="5" t="s">
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E129" s="5" t="s">
+      <c r="E129" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" s="5" t="s">
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" s="5" t="s">
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C132" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" s="5" t="s">
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E133" s="5" t="s">
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" s="5" t="s">
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C135" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" s="5" t="s">
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C136" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E136" s="5" t="s">
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C137" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E137" s="5" t="s">
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="5" t="s">
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E138" s="5" t="s">
+      <c r="E138" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E139" s="5" t="s">
+      <c r="D139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="5" t="s">
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E140" s="5" t="s">
+      <c r="E140" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="5" t="s">
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E141" s="5" t="s">
+      <c r="E141" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="5" t="s">
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E142" s="5" t="s">
+      <c r="E142" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D143" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E143" s="5" t="s">
+      <c r="D143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="5" t="s">
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E144" s="5" t="s">
+      <c r="E144" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D145" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E145" s="5" t="s">
+      <c r="D145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="5" t="s">
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E146" s="5" t="s">
+      <c r="E146" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C147" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E147" s="5" t="s">
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C148" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E148" s="5" t="s">
+      <c r="C148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C149" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E149" s="5" t="s">
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C150" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E150" s="5" t="s">
+      <c r="C150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C151" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E151" s="5" t="s">
+      <c r="C151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C152" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E152" s="5" t="s">
+      <c r="C152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C153" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E153" s="5" t="s">
+      <c r="C153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C154" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E154" s="5" t="s">
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C155" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E155" s="5" t="s">
+      <c r="C155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E156" s="5" t="s">
+      <c r="C156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C157" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E157" s="5" t="s">
+      <c r="C157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B158" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C158" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D158" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E158" s="5" t="s">
+      <c r="D158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C159" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E159" s="5" t="s">
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C160" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="5" t="s">
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E160" s="5" t="s">
+      <c r="E160" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
+      <c r="A161" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C161" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E161" s="5" t="s">
+      <c r="C161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C162" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D162" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E162" s="5" t="s">
+      <c r="D162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C163" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163" s="5" t="s">
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="E163" s="5" t="s">
+      <c r="E163" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C164" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D164" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E164" s="5" t="s">
+      <c r="D164" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C165" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E165" s="5" t="s">
+      <c r="D165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="5" t="s">
+      <c r="C166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E166" s="5" t="s">
+      <c r="E166" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167" s="5" t="s">
+      <c r="C167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="E167" s="5" t="s">
+      <c r="E167" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C168" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168" s="5" t="s">
+      <c r="C168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="E168" s="5" t="s">
+      <c r="E168" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C169" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D169" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E169" s="5" t="s">
+      <c r="D169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C170" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="5" t="s">
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E170" s="5" t="s">
+      <c r="E170" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C171" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D171" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E171" s="5" t="s">
+      <c r="D171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
+      <c r="A172" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C172" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172" s="5" t="s">
+      <c r="C172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="E172" s="5" t="s">
+      <c r="E172" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C173" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="5" t="s">
+      <c r="C173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="E173" s="5" t="s">
+      <c r="E173" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="5" t="s">
+      <c r="A174" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C174" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D174" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E174" s="5" t="s">
+      <c r="D174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E174" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C175" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D175" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E175" s="5" t="s">
+      <c r="D175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="5" t="s">
+      <c r="A176" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C176" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D176" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E176" s="5" t="s">
+      <c r="D176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E176" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="5" t="s">
+      <c r="A177" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C177" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D177" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E177" s="5" t="s">
+      <c r="D177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="5" t="s">
+      <c r="A178" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C178" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D178" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E178" s="5" t="s">
+      <c r="D178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
+      <c r="A179" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C179" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E179" s="5" t="s">
+      <c r="D179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="5" t="s">
+      <c r="A180" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="C180" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D180" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E180" s="5" t="s">
+      <c r="D180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4912,6 +5007,1904 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFEC88C-6AFE-43DD-B607-144D5438B390}">
+  <dimension ref="A1:C132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>VLOOKUP(A3,Tabela2[#All], 2, FALSE)</f>
+        <v>Semana Epidemiológica do preenchimento da ficha de notificação</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>VLOOKUP(A3,Tabela2[#All], 4, FALSE)</f>
+        <v>As Semanas Epidemiológicas (SE) são contadas de um Domingo até o Sábado.
+Se o ano começa em uma segunda-feira, a 1ª SE começará no domingo da mesma semana.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>VLOOKUP(A4,Tabela2[#All], 2, FALSE)</f>
+        <v>Semana Epidemiológica do início dos sintomas</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>VLOOKUP(A4,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>VLOOKUP(A5,Tabela2[#All], 2, FALSE)</f>
+        <v>Unidade Federativa</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>VLOOKUP(A5,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>VLOOKUP(A6,Tabela2[#All], 2, FALSE)</f>
+        <v>Regional de Saúde</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>VLOOKUP(A7,Tabela2[#All], 2, FALSE)</f>
+        <v>Município</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f>VLOOKUP(A8,Tabela2[#All], 2, FALSE)</f>
+        <v>Unidade que realizou o atendimento, coleta de amostra e registro do caso</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>VLOOKUP(A9,Tabela2[#All], 2, FALSE)</f>
+        <v>Sexo do paciente</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>VLOOKUP(A9,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Masculino
+2-Feminino
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>VLOOKUP(A10,Tabela2[#All], 2, FALSE)</f>
+        <v>Idade do paciente</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>VLOOKUP(A10,Tabela2[#All], 4, FALSE)</f>
+        <v>Caso tenha sido fornecida a data de nascimento esse campo é preenchido automaticamente (considerando o intervalo entre a data de nascimento e a data dos primeiros sintomas), caso não, é preenchido com a idade informada pelo paciente</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>VLOOKUP(A11,Tabela2[#All], 2, FALSE)</f>
+        <v>Tipo do campo idade</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>VLOOKUP(A11,Tabela2[#All], 4, FALSE)</f>
+        <v>Se a diferença entre a data de nascimento e a data dos primeiros sintomas for:
+Menor que 1 mês: o tipo é preenchido como 1-Dia
+De 1 a 11 meses: o tipo é preenchido como 2-Mês
+Maior ou igual a 12 meses: o tipo é preenchido como 3-Ano</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B12" s="1" t="e">
+        <f>VLOOKUP(A12,Tabela2[#All], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C12" s="1" t="e">
+        <f>VLOOKUP(A12,Tabela2[#All], 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>VLOOKUP(A13,Tabela2[#All], 2, FALSE)</f>
+        <v xml:space="preserve">Idade gestacional da paciente.
+</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>VLOOKUP(A13,Tabela2[#All], 4, FALSE)</f>
+        <v>1-1º Trimestre
+2-2º Trimestre
+3-3º Trimestre
+4-Idade Gestacional Ignorada
+5-Não
+6-Não se aplica
+9-Ignorado
+Se selecionado sexo igual a Masculino ou a idade for menor ou igual a 9 anos o campo é preenchido automaticamente com 6-Não se aplica</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f>VLOOKUP(A14,Tabela2[#All], 2, FALSE)</f>
+        <v>Cor ou raça declarada pelo paciente</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>VLOOKUP(A14,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Branca
+2-Preta
+3-Amarela
+4-Parda
+5-Indígena
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>VLOOKUP(A15,Tabela2[#All], 2, FALSE)</f>
+        <v>Nível de escolaridade do paciente</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>VLOOKUP(A15,Tabela2[#All], 4, FALSE)</f>
+        <v>0-Sem escolaridade/ Analfabeto
+1-Fundamental 1º ciclo (1ª a 5ª série)
+2-Fundamental 2º ciclo (6ª a 9ª série)
+3- Médio (1º ao 3º ano)
+4-Superior
+5-Não se aplica
+9-Ignorado
+Se o paciente tiver menos de 7 anos é automaticamente preenchido com a categoria “não se aplica”</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>VLOOKUP(A16,Tabela2[#All], 2, FALSE)</f>
+        <v>País de residência do paciente</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f>VLOOKUP(A17,Tabela2[#All], 2, FALSE)</f>
+        <v>UF da residência</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>VLOOKUP(A17,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B18" s="1" t="e">
+        <f>VLOOKUP(A18,Tabela2[#All], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C18" s="1" t="e">
+        <f>VLOOKUP(A18,Tabela2[#All], 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B19" s="1" t="e">
+        <f>VLOOKUP(A19,Tabela2[#All], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C19" s="1" t="e">
+        <f>VLOOKUP(A19,Tabela2[#All], 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B20" s="1" t="e">
+        <f>VLOOKUP(A20,Tabela2[#All], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C20" s="1" t="e">
+        <f>VLOOKUP(A20,Tabela2[#All], 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B21" s="1" t="e">
+        <f>VLOOKUP(A21,Tabela2[#All], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C21" s="1" t="e">
+        <f>VLOOKUP(A21,Tabela2[#All], 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>VLOOKUP(A22,Tabela2[#All], 2, FALSE)</f>
+        <v>Zona geográfica da residência</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f>VLOOKUP(A22,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Urbana
+2-Rural
+3-Periurbana
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B23" s="1" t="e">
+        <f>VLOOKUP(A23,Tabela2[#All], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C23" s="1" t="e">
+        <f>VLOOKUP(A23,Tabela2[#All], 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>VLOOKUP(A24,Tabela2[#All], 2, FALSE)</f>
+        <v>Caso de SRAG com infecção adquirida após internação</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f>VLOOKUP(A24,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>VLOOKUP(A25,Tabela2[#All], 2, FALSE)</f>
+        <v>Caso com contato direto com aves ou suínos</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f>VLOOKUP(A25,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>VLOOKUP(A26,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente apresentou febre</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f>VLOOKUP(A26,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>VLOOKUP(A27,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente apresentou tosse</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f>VLOOKUP(A27,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>VLOOKUP(A28,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente apresentou dor de garganta</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f>VLOOKUP(A28,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>VLOOKUP(A29,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente apresentou dispneia</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f>VLOOKUP(A29,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>VLOOKUP(A30,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente apresentou desconforto respiratório</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f>VLOOKUP(A30,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>VLOOKUP(A31,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente apresentou saturção O2 &lt; 95%</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f>VLOOKUP(A31,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>VLOOKUP(A32,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente apresentou diarreia</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f>VLOOKUP(A32,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f>VLOOKUP(A33,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente apresentou vômito</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f>VLOOKUP(A33,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f>VLOOKUP(A34,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente apresentou outros sintomas</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>VLOOKUP(A34,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f>VLOOKUP(A35,Tabela2[#All], 2, FALSE)</f>
+        <v>Lista outros sintomas</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f>VLOOKUP(A35,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f>VLOOKUP(A36,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente é puérpera ou parturiente (até 45 dias após o parto)</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f>VLOOKUP(A36,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f>VLOOKUP(A37,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente apresenta algum fator de risco</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f>VLOOKUP(A37,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f>VLOOKUP(A38,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente possui doença cardiovascular crônica</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f>VLOOKUP(A38,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f>VLOOKUP(A39,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente possui doença hematológica crônica</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f>VLOOKUP(A39,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f>VLOOKUP(A40,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente possui síndrome de down</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f>VLOOKUP(A40,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f>VLOOKUP(A41,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente possui doença hepática crônica</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f>VLOOKUP(A41,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <f>VLOOKUP(A42,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente possui asma</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f>VLOOKUP(A42,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="1" t="str">
+        <f>VLOOKUP(A43,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente possui diabetes mellitus</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f>VLOOKUP(A43,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="1" t="str">
+        <f>VLOOKUP(A44,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente possui doença neurológica</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f>VLOOKUP(A44,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="1" t="str">
+        <f>VLOOKUP(A45,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente possui pneumopatia crônica</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f>VLOOKUP(A45,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="1" t="str">
+        <f>VLOOKUP(A46,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente possui imunodeficiência ou imunodpressão</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f>VLOOKUP(A46,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" s="1" t="str">
+        <f>VLOOKUP(A47,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente possui doença renal crônica</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f>VLOOKUP(A47,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f>VLOOKUP(A48,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente possui obesidade</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f>VLOOKUP(A48,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <f>VLOOKUP(A49,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente possui outro fator de risco</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f>VLOOKUP(A49,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <f>VLOOKUP(A50,Tabela2[#All], 2, FALSE)</f>
+        <v>Lista outros fatores de risco do paciente</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f>VLOOKUP(A50,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <f>VLOOKUP(A51,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente foi vacinado contra a gripe na última campanha</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f>VLOOKUP(A51,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f>VLOOKUP(A52,Tabela2[#All], 2, FALSE)</f>
+        <v>Se o paciente tiver menos que 6 meses de vida, a mãe recebeu vacina</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f>VLOOKUP(A52,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f>VLOOKUP(A53,Tabela2[#All], 2, FALSE)</f>
+        <v>Se o paciente tiver menos que 6 meses, a mãe amamenta a criança</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f>VLOOKUP(A53,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f>VLOOKUP(A54,Tabela2[#All], 2, FALSE)</f>
+        <v>Se o paciente tiver entre 6 meses e 8 anos, data da dose única para crianças vacinadas em campanhas de anos anteriores</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f>VLOOKUP(A54,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f>VLOOKUP(A55,Tabela2[#All], 2, FALSE)</f>
+        <v>Se o paciente tiver entre 6 meses e 8 anos, data da 1a dose para crianças vacinadas pela primeira vez</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f>VLOOKUP(A55,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f>VLOOKUP(A56,Tabela2[#All], 2, FALSE)</f>
+        <v>Se o paciente tiver entre 6 meses e 8 anos, data da 2a dose para crianças vacinadas pela primeira vez</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f>VLOOKUP(A56,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57" s="1" t="str">
+        <f>VLOOKUP(A57,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente usou antiviral para gripe</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f>VLOOKUP(A57,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B58" s="1" t="str">
+        <f>VLOOKUP(A58,Tabela2[#All], 2, FALSE)</f>
+        <v>Qual antiviral</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f>VLOOKUP(A58,Tabela2[#All], 4, FALSE)</f>
+        <v>1- Oseltamivir
+2- Zanamivir
+3- Outro, especifique</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f>VLOOKUP(A59,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente foi internado</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f>VLOOKUP(A59,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B60" s="1" t="str">
+        <f>VLOOKUP(A60,Tabela2[#All], 2, FALSE)</f>
+        <v>UF onde o paciente foi internado</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f>VLOOKUP(A60,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B61" s="1" t="e">
+        <f>VLOOKUP(A61,Tabela2[#All], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C61" s="1" t="e">
+        <f>VLOOKUP(A61,Tabela2[#All], 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B62" s="1" t="e">
+        <f>VLOOKUP(A62,Tabela2[#All], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C62" s="1" t="e">
+        <f>VLOOKUP(A62,Tabela2[#All], 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B63" s="1" t="e">
+        <f>VLOOKUP(A63,Tabela2[#All], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C63" s="1" t="e">
+        <f>VLOOKUP(A63,Tabela2[#All], 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B64" s="1" t="e">
+        <f>VLOOKUP(A64,Tabela2[#All], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C64" s="1" t="e">
+        <f>VLOOKUP(A64,Tabela2[#All], 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B65" s="1" t="str">
+        <f>VLOOKUP(A65,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente foi internado na UTI</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f>VLOOKUP(A65,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B66" s="1" t="str">
+        <f>VLOOKUP(A66,Tabela2[#All], 2, FALSE)</f>
+        <v>Data de entrada na UTI</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f>VLOOKUP(A66,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B67" s="1" t="str">
+        <f>VLOOKUP(A67,Tabela2[#All], 2, FALSE)</f>
+        <v>Data de saída da UTI</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f>VLOOKUP(A67,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B68" s="1" t="str">
+        <f>VLOOKUP(A68,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente fez uso de suporte ventilatório</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f>VLOOKUP(A68,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim, invasivo
+2-Sim, não invasivo
+3-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B69" s="1" t="str">
+        <f>VLOOKUP(A69,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado Raio-X de tórax</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f>VLOOKUP(A69,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Normal_x000D_
+2-Infiltrado intersticial_x000D_
+3-Consolidação_x000D_
+4-Misto_x000D_
+5-Outro_x000D_
+6-Não realizado_x000D_
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B70" s="1" t="str">
+        <f>VLOOKUP(A70,Tabela2[#All], 2, FALSE)</f>
+        <v>Foi realizado coleta de amostra na realização do teste diagnóstico</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f>VLOOKUP(A70,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f>VLOOKUP(A71,Tabela2[#All], 2, FALSE)</f>
+        <v>Tipo da amostra</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f>VLOOKUP(A71,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Secreção de Nasoorofaringe_x000D_
+2-Lavado Broco-alveolar_x000D_
+3-Tecido post-mortem_x000D_
+4-Outra, qual?_x000D_
+5-LCR_x000D_
+9-Ignorado_x000D_</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f>VLOOKUP(A72,Tabela2[#All], 2, FALSE)</f>
+        <v>Se for colhida amostra, resultado do teste RT-PCR ou outro método</v>
+      </c>
+      <c r="C72" s="1" t="str">
+        <f>VLOOKUP(A72,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Detectável
+2-Não Detectável
+3-Inconclusivo
+4-Não Realizado
+5-Aguardando Resultado
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B73" s="1" t="str">
+        <f>VLOOKUP(A73,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado do RT-PCR foi positivo para influenza</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f>VLOOKUP(A73,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim_x000D_
+2-Não_x000D_
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B74" s="1" t="str">
+        <f>VLOOKUP(A74,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado do diagnóstico do RT-PCR para o tipo de influenza</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <f>VLOOKUP(A74,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Influenza A_x000D_
+2-Influenza B</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B75" s="1" t="str">
+        <f>VLOOKUP(A75,Tabela2[#All], 2, FALSE)</f>
+        <v>Subtipo para Influenza A</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f>VLOOKUP(A75,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Influenza A(H1N1)pdm09_x000D_
+2-Influenza A (H3N2)_x000D_
+3-Influenza A não subtipado_x000D_
+4-Influenza A não subtipável_x000D_
+5-Inconclusivo_x000D_
+6-Outro, especifique</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B76" s="1" t="str">
+        <f>VLOOKUP(A76,Tabela2[#All], 2, FALSE)</f>
+        <v>Linhagem da Influenza B</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f>VLOOKUP(A76,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Victoria
+2-Yamagatha
+3-Não realizado
+4-Inconclusivo
+5-Outro, especifique:</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B77" s="1" t="str">
+        <f>VLOOKUP(A77,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado do RT-PCR foi positivo para outro vírus respiratório</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f>VLOOKUP(A77,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B78" s="1" t="str">
+        <f>VLOOKUP(A78,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para VSR</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f>VLOOKUP(A78,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B79" s="1" t="str">
+        <f>VLOOKUP(A79,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 1</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f>VLOOKUP(A79,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B80" s="1" t="str">
+        <f>VLOOKUP(A80,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 2</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <f>VLOOKUP(A80,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B81" s="1" t="str">
+        <f>VLOOKUP(A81,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 3</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <f>VLOOKUP(A81,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B82" s="1" t="str">
+        <f>VLOOKUP(A82,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 4</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f>VLOOKUP(A82,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B83" s="1" t="str">
+        <f>VLOOKUP(A83,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Adenovírus</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f>VLOOKUP(A83,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B84" s="1" t="str">
+        <f>VLOOKUP(A84,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Metapneumovírus</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f>VLOOKUP(A84,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B85" s="1" t="str">
+        <f>VLOOKUP(A85,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Bocavírus</v>
+      </c>
+      <c r="C85" s="1" t="str">
+        <f>VLOOKUP(A85,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B86" s="1" t="str">
+        <f>VLOOKUP(A86,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Rinovírus</v>
+      </c>
+      <c r="C86" s="1" t="str">
+        <f>VLOOKUP(A86,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B87" s="1" t="str">
+        <f>VLOOKUP(A87,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para outro vírus respiratório</v>
+      </c>
+      <c r="C87" s="1" t="str">
+        <f>VLOOKUP(A87,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B88" s="1" t="str">
+        <f>VLOOKUP(A88,Tabela2[#All], 2, FALSE)</f>
+        <v>Diagnóstico final do caso</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <f>VLOOKUP(A88,Tabela2[#All], 4, FALSE)</f>
+        <v>1-SRAG por influenza
+2-SRAG por outro vírus respiratório
+3-SRAG por outro agente etiológico, qual:
+4-SRAG não especificado
+5-SRAG por covid-19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B89" s="1" t="str">
+        <f>VLOOKUP(A89,Tabela2[#All], 2, FALSE)</f>
+        <v>Critério de confirmação</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <f>VLOOKUP(A89,Tabela2[#All], 4, FALSE)</f>
+        <v>1. Laboratorial_x000D_
+2. Clínico Epidemiológico_x000D_
+3. Clínico_x000D_
+4. Clínico Imagem</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B90" s="1" t="str">
+        <f>VLOOKUP(A90,Tabela2[#All], 2, FALSE)</f>
+        <v>Evolução do caso</v>
+      </c>
+      <c r="C90" s="1" t="str">
+        <f>VLOOKUP(A90,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Cura
+2-Óbito
+3- Óbito por outras causas
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B91" s="1" t="e">
+        <f>VLOOKUP(A91,Tabela2[#All], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C91" s="1" t="e">
+        <f>VLOOKUP(A91,Tabela2[#All], 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B92" s="1" t="e">
+        <f>VLOOKUP(A92,Tabela2[#All], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C92" s="1" t="e">
+        <f>VLOOKUP(A92,Tabela2[#All], 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B93" s="1" t="e">
+        <f>VLOOKUP(A93,Tabela2[#All], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C93" s="1" t="e">
+        <f>VLOOKUP(A93,Tabela2[#All], 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B94" s="1" t="e">
+        <f>VLOOKUP(A94,Tabela2[#All], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C94" s="1" t="e">
+        <f>VLOOKUP(A94,Tabela2[#All], 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B95" s="1" t="e">
+        <f>VLOOKUP(A95,Tabela2[#All], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C95" s="1" t="e">
+        <f>VLOOKUP(A95,Tabela2[#All], 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B96" s="1" t="e">
+        <f>VLOOKUP(A96,Tabela2[#All], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C96" s="1" t="e">
+        <f>VLOOKUP(A96,Tabela2[#All], 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B97" s="1" t="e">
+        <f>VLOOKUP(A97,Tabela2[#All], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C97" s="1" t="e">
+        <f>VLOOKUP(A97,Tabela2[#All], 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="1" t="str">
+        <f>VLOOKUP(A98,Tabela2[#All], 2, FALSE)</f>
+        <v>Caso contato com outro animal, o mesmo deve ser especificado</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f>VLOOKUP(A98,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="1" t="str">
+        <f>VLOOKUP(A99,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente apresentou dor abdominal</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <f>VLOOKUP(A99,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" s="1" t="str">
+        <f>VLOOKUP(A100,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente apresentou fadiga</v>
+      </c>
+      <c r="C100" s="1" t="str">
+        <f>VLOOKUP(A100,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101" s="1" t="str">
+        <f>VLOOKUP(A101,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente apresentou perda do olfato</v>
+      </c>
+      <c r="C101" s="1" t="str">
+        <f>VLOOKUP(A101,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B102" s="1" t="str">
+        <f>VLOOKUP(A102,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente apresentou perda do paladar</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f>VLOOKUP(A102,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B103" s="1" t="str">
+        <f>VLOOKUP(A103,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado da tomografia</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <f>VLOOKUP(A103,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Tipico covid-19_x000D_
+2- Indeterminado covid-19_x000D_
+3- Atípico covid-19_x000D_
+4- Negativo para Pneumonia_x000D_
+5- Outro_x000D_
+6-Não realizado_x000D_
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B104" s="1" t="str">
+        <f>VLOOKUP(A104,Tabela2[#All], 2, FALSE)</f>
+        <v>Tipo de teste antigênico</v>
+      </c>
+      <c r="C104" s="1" t="str">
+        <f>VLOOKUP(A104,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Imunofluorescência (IF)_x000D_
+2- Teste rápido antigênico</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B105" s="1" t="str">
+        <f>VLOOKUP(A105,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado do teste antigênico</v>
+      </c>
+      <c r="C105" s="1" t="str">
+        <f>VLOOKUP(A105,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Positivo
+2-Negativo
+3- Inconclusivo
+4-Não realizado
+5-Aguardando resultado
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B106" s="1" t="str">
+        <f>VLOOKUP(A106,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado do teste foi positivo Influenza</v>
+      </c>
+      <c r="C106" s="1" t="str">
+        <f>VLOOKUP(A106,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim_x000D_
+2-Não_x000D_
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B107" s="1" t="str">
+        <f>VLOOKUP(A107,Tabela2[#All], 2, FALSE)</f>
+        <v>Se influenza, tipo</v>
+      </c>
+      <c r="C107" s="1" t="str">
+        <f>VLOOKUP(A107,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Influenza A
+2-Influenza B</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B108" s="1" t="str">
+        <f>VLOOKUP(A108,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado do teste positivo para outro vírus</v>
+      </c>
+      <c r="C108" s="1" t="str">
+        <f>VLOOKUP(A108,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim_x000D_
+2-Não_x000D_
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B109" s="1" t="str">
+        <f>VLOOKUP(A109,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado do teste para SARS-CoV-2</v>
+      </c>
+      <c r="C109" s="1" t="str">
+        <f>VLOOKUP(A109,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B110" s="1" t="str">
+        <f>VLOOKUP(A110,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado do teste para VSR</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f>VLOOKUP(A110,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B111" s="1" t="str">
+        <f>VLOOKUP(A111,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado do teste para Parainfluenza 1</v>
+      </c>
+      <c r="C111" s="1" t="str">
+        <f>VLOOKUP(A111,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B112" s="1" t="str">
+        <f>VLOOKUP(A112,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado do teste para Parainfluenza 2</v>
+      </c>
+      <c r="C112" s="1" t="str">
+        <f>VLOOKUP(A112,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B113" s="1" t="str">
+        <f>VLOOKUP(A113,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado do teste para Parainfluenza 3</v>
+      </c>
+      <c r="C113" s="1" t="str">
+        <f>VLOOKUP(A113,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B114" s="1" t="str">
+        <f>VLOOKUP(A114,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado do teste para Adenovírus</v>
+      </c>
+      <c r="C114" s="1" t="str">
+        <f>VLOOKUP(A114,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B115" s="1" t="str">
+        <f>VLOOKUP(A115,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado do teste para outro vírus respiratório</v>
+      </c>
+      <c r="C115" s="1" t="str">
+        <f>VLOOKUP(A115,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B116" s="1" t="str">
+        <f>VLOOKUP(A116,Tabela2[#All], 2, FALSE)</f>
+        <v>Nome do outro vírus identificado pelo teste</v>
+      </c>
+      <c r="C116" s="1" t="str">
+        <f>VLOOKUP(A116,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B117" s="1" t="str">
+        <f>VLOOKUP(A117,Tabela2[#All], 2, FALSE)</f>
+        <v>Tipo de amostra sorológica coletada</v>
+      </c>
+      <c r="C117" s="1" t="str">
+        <f>VLOOKUP(A117,Tabela2[#All], 4, FALSE)</f>
+        <v xml:space="preserve">1- Sangue/plasma/soro_x000D_
+2-Outra, qual?_x000D_
+9-Ignorado </v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B118" s="1" t="str">
+        <f>VLOOKUP(A118,Tabela2[#All], 2, FALSE)</f>
+        <v>Tipo do teste sorológico para SARS-CoV-2</v>
+      </c>
+      <c r="C118" s="1" t="str">
+        <f>VLOOKUP(A118,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Teste rápido_x000D_
+2-Elisa_x000D_
+3- Quimiluminescência_x000D_
+4- Outro, qual</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B119" s="1" t="str">
+        <f>VLOOKUP(A119,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado da Sorologia para SARS-CoV-2</v>
+      </c>
+      <c r="C119" s="1" t="str">
+        <f>VLOOKUP(A119,Tabela2[#All], 4, FALSE)</f>
+        <v>IgG (Imunoglobulina G)</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B120" s="1" t="str">
+        <f>VLOOKUP(A120,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado da Sorologia para SARS-CoV-2</v>
+      </c>
+      <c r="C120" s="1" t="str">
+        <f>VLOOKUP(A120,Tabela2[#All], 4, FALSE)</f>
+        <v>IgM (Imunoglobulina M)</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B121" s="1" t="str">
+        <f>VLOOKUP(A121,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado da Sorologia para SARS-CoV-2</v>
+      </c>
+      <c r="C121" s="1" t="str">
+        <f>VLOOKUP(A121,Tabela2[#All], 4, FALSE)</f>
+        <v>IgA (Imunoglobulina A)</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B122" s="1" t="str">
+        <f>VLOOKUP(A122,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente recebeu a vacina da COVID-19</v>
+      </c>
+      <c r="C122" s="1" t="str">
+        <f>VLOOKUP(A122,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B123" s="1" t="str">
+        <f>VLOOKUP(A123,Tabela2[#All], 2, FALSE)</f>
+        <v>Data que o paciente recebeu a 1a dose</v>
+      </c>
+      <c r="C123" s="1" t="str">
+        <f>VLOOKUP(A123,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B124" s="1" t="str">
+        <f>VLOOKUP(A124,Tabela2[#All], 2, FALSE)</f>
+        <v>Data que o paciente recebeu a 2a dose</v>
+      </c>
+      <c r="C124" s="1" t="str">
+        <f>VLOOKUP(A124,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B125" s="1" t="str">
+        <f>VLOOKUP(A125,Tabela2[#All], 2, FALSE)</f>
+        <v>Data que o paciente recebeu a dose de reforço</v>
+      </c>
+      <c r="C125" s="1" t="str">
+        <f>VLOOKUP(A125,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B126" s="1" t="str">
+        <f>VLOOKUP("FAB_COV1",Tabela2[#All], 2, FALSE)</f>
+        <v>Fabricante da vacina da 1a dose</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B127" s="1" t="str">
+        <f>VLOOKUP("FAB_COV2",Tabela2[#All], 2, FALSE)</f>
+        <v>Fabricante da vacina da 2a dose</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B128" s="1" t="str">
+        <f>VLOOKUP(A128,Tabela2[#All], 2, FALSE)</f>
+        <v>Fabricante da vacina da dose de reforço</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B129" s="1" t="str">
+        <f>VLOOKUP(A129,Tabela2[#All], 2, FALSE)</f>
+        <v>Lote da dose de reforço da vacina</v>
+      </c>
+      <c r="C129" s="1" t="str">
+        <f>VLOOKUP(A129,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B130" s="1" t="e">
+        <f>VLOOKUP(A130,Tabela2[#All], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C130" s="1" t="e">
+        <f>VLOOKUP(A130,Tabela2[#All], 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B131" s="1" t="str">
+        <f>VLOOKUP(A131,Tabela2[#All], 2, FALSE)</f>
+        <v>Lote da 1a dose da vacina</v>
+      </c>
+      <c r="C131" s="1" t="str">
+        <f>VLOOKUP(A131,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B132" s="1" t="str">
+        <f>VLOOKUP(A132,Tabela2[#All], 2, FALSE)</f>
+        <v>Lote da 2a dose da vacina</v>
+      </c>
+      <c r="C132" s="1" t="str">
+        <f>VLOOKUP(A132,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Organizando dados.xlsx
+++ b/Organizando dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projetos\Projeto-Analise-de-Dados-SRAG-2021---2024-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27153A0-18ED-4564-A491-6093E43DF019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C88CD3F-5B78-42B2-8F25-AB26240333BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{ED5AD74C-555A-40DA-A62E-D3459C7593AC}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="432">
   <si>
     <t>Colunas</t>
   </si>
@@ -1397,54 +1397,24 @@
     <t>Coluna</t>
   </si>
   <si>
-    <t>COD_IDADE</t>
-  </si>
-  <si>
     <t>ID_RG_RESI</t>
   </si>
   <si>
-    <t>CO_RG_RESI</t>
-  </si>
-  <si>
     <t>ID_MN_RESI</t>
   </si>
   <si>
-    <t>CO_MUN_RES</t>
-  </si>
-  <si>
-    <t>SURTO_SG</t>
-  </si>
-  <si>
     <t>ID_RG_INTE</t>
   </si>
   <si>
-    <t>CO_RG_INTE</t>
-  </si>
-  <si>
     <t>ID_MN_INTE</t>
   </si>
   <si>
-    <t>CO_MU_INTE</t>
-  </si>
-  <si>
     <t>HISTO_VGM</t>
   </si>
   <si>
     <t>PAIS_VGM</t>
   </si>
   <si>
-    <t>CO_PS_VGM</t>
-  </si>
-  <si>
-    <t>LO_PS_VGM</t>
-  </si>
-  <si>
-    <t>DT_VGM</t>
-  </si>
-  <si>
-    <t>DT_RT_VGM</t>
-  </si>
-  <si>
     <t>PCR_SARS2</t>
   </si>
   <si>
@@ -1454,27 +1424,50 @@
     <t>FAB_COV_2</t>
   </si>
   <si>
-    <t>FAB_COVREF</t>
-  </si>
-  <si>
-    <t>LAB_PR_COV</t>
-  </si>
-  <si>
-    <t>Ambas as colunas existem</t>
-  </si>
-  <si>
     <t>Esta com nome FAB_COV1 no dicionário</t>
   </si>
   <si>
     <t>Esta com nome FAB_COV2 no dicionário</t>
+  </si>
+  <si>
+    <t>ID_REGIONA</t>
+  </si>
+  <si>
+    <t>ID_MUNICIP</t>
+  </si>
+  <si>
+    <t>ID_UNIDADE</t>
+  </si>
+  <si>
+    <t>ID_PAIS</t>
+  </si>
+  <si>
+    <t>FAB_COVREF no dataframe</t>
+  </si>
+  <si>
+    <t>Resultado diagnóstico do RT-PCR para SARS2</t>
+  </si>
+  <si>
+    <t>Histórico de viagem do paciente</t>
+  </si>
+  <si>
+    <t>País de viagem do paciente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -1502,7 +1495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1516,6 +1509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1595,8 +1589,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F0710EE-F857-4ED5-AD97-1D4A264D9A60}" name="Tabela1" displayName="Tabela1" ref="A1:C132" totalsRowShown="0">
-  <autoFilter ref="A1:C132" xr:uid="{3F0710EE-F857-4ED5-AD97-1D4A264D9A60}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F0710EE-F857-4ED5-AD97-1D4A264D9A60}" name="Tabela1" displayName="Tabela1" ref="A1:C120" totalsRowShown="0">
+  <autoFilter ref="A1:C120" xr:uid="{3F0710EE-F857-4ED5-AD97-1D4A264D9A60}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C689C462-CF9A-4A49-9651-2D11B10EBFDA}" name="Coluna" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{17816C4B-1900-4889-B6B8-D193E59A1621}" name="Descrição" dataDxfId="1">
@@ -1929,8 +1923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831FF6EA-A12F-46F3-B86A-ED578ABDB804}">
   <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5013,10 +5007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFEC88C-6AFE-43DD-B607-144D5438B390}">
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5026,7 +5020,7 @@
     <col min="3" max="3" width="75.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>412</v>
       </c>
@@ -5037,161 +5031,126 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>VLOOKUP(A2,Tabela2[#All], 2, FALSE)</f>
+        <v>Semana Epidemiológica do preenchimento da ficha de notificação</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>VLOOKUP(A2,Tabela2[#All], 4, FALSE)</f>
+        <v>As Semanas Epidemiológicas (SE) são contadas de um Domingo até o Sábado.
+Se o ano começa em uma segunda-feira, a 1ª SE começará no domingo da mesma semana.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="str">
         <f>VLOOKUP(A3,Tabela2[#All], 2, FALSE)</f>
-        <v>Semana Epidemiológica do preenchimento da ficha de notificação</v>
+        <v>Semana Epidemiológica do início dos sintomas</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>VLOOKUP(A3,Tabela2[#All], 4, FALSE)</f>
-        <v>As Semanas Epidemiológicas (SE) são contadas de um Domingo até o Sábado.
-Se o ano começa em uma segunda-feira, a 1ª SE começará no domingo da mesma semana.</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>VLOOKUP(A4,Tabela2[#All], 2, FALSE)</f>
-        <v>Semana Epidemiológica do início dos sintomas</v>
+        <v>Unidade Federativa</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>VLOOKUP(A4,Tabela2[#All], 4, FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <f>VLOOKUP(A5,Tabela2[#All], 2, FALSE)</f>
-        <v>Unidade Federativa</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f>VLOOKUP(A5,Tabela2[#All], 4, FALSE)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <f>VLOOKUP(A6,Tabela2[#All], 2, FALSE)</f>
-        <v>Regional de Saúde</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <f>VLOOKUP(A7,Tabela2[#All], 2, FALSE)</f>
-        <v>Município</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>426</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="str">
         <f>VLOOKUP(A8,Tabela2[#All], 2, FALSE)</f>
-        <v>Unidade que realizou o atendimento, coleta de amostra e registro do caso</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <f>VLOOKUP(A9,Tabela2[#All], 2, FALSE)</f>
         <v>Sexo do paciente</v>
       </c>
-      <c r="C9" s="1" t="str">
-        <f>VLOOKUP(A9,Tabela2[#All], 4, FALSE)</f>
+      <c r="C8" s="1" t="str">
+        <f>VLOOKUP(A8,Tabela2[#All], 4, FALSE)</f>
         <v>1-Masculino
 2-Feminino
 9-Ignorado</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>VLOOKUP(A9,Tabela2[#All], 2, FALSE)</f>
+        <v>Idade do paciente</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>VLOOKUP(A9,Tabela2[#All], 4, FALSE)</f>
+        <v>Caso tenha sido fornecida a data de nascimento esse campo é preenchido automaticamente (considerando o intervalo entre a data de nascimento e a data dos primeiros sintomas), caso não, é preenchido com a idade informada pelo paciente</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="str">
         <f>VLOOKUP(A10,Tabela2[#All], 2, FALSE)</f>
-        <v>Idade do paciente</v>
+        <v>Tipo do campo idade</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>VLOOKUP(A10,Tabela2[#All], 4, FALSE)</f>
-        <v>Caso tenha sido fornecida a data de nascimento esse campo é preenchido automaticamente (considerando o intervalo entre a data de nascimento e a data dos primeiros sintomas), caso não, é preenchido com a idade informada pelo paciente</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <f>VLOOKUP(A11,Tabela2[#All], 2, FALSE)</f>
-        <v>Tipo do campo idade</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f>VLOOKUP(A11,Tabela2[#All], 4, FALSE)</f>
         <v>Se a diferença entre a data de nascimento e a data dos primeiros sintomas for:
 Menor que 1 mês: o tipo é preenchido como 1-Dia
 De 1 a 11 meses: o tipo é preenchido como 2-Mês
 Maior ou igual a 12 meses: o tipo é preenchido como 3-Ano</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="B12" s="1" t="e">
-        <f>VLOOKUP(A12,Tabela2[#All], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C12" s="1" t="e">
-        <f>VLOOKUP(A12,Tabela2[#All], 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="11" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="1" t="str">
-        <f>VLOOKUP(A13,Tabela2[#All], 2, FALSE)</f>
+      <c r="B11" s="1" t="str">
+        <f>VLOOKUP(A11,Tabela2[#All], 2, FALSE)</f>
         <v xml:space="preserve">Idade gestacional da paciente.
 </v>
       </c>
-      <c r="C13" s="1" t="str">
-        <f>VLOOKUP(A13,Tabela2[#All], 4, FALSE)</f>
+      <c r="C11" s="1" t="str">
+        <f>VLOOKUP(A11,Tabela2[#All], 4, FALSE)</f>
         <v>1-1º Trimestre
 2-2º Trimestre
 3-3º Trimestre
@@ -5202,16 +5161,16 @@
 Se selecionado sexo igual a Masculino ou a idade for menor ou igual a 9 anos o campo é preenchido automaticamente com 6-Não se aplica</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="1" t="str">
-        <f>VLOOKUP(A14,Tabela2[#All], 2, FALSE)</f>
+      <c r="B12" s="1" t="str">
+        <f>VLOOKUP(A12,Tabela2[#All], 2, FALSE)</f>
         <v>Cor ou raça declarada pelo paciente</v>
       </c>
-      <c r="C14" s="1" t="str">
-        <f>VLOOKUP(A14,Tabela2[#All], 4, FALSE)</f>
+      <c r="C12" s="1" t="str">
+        <f>VLOOKUP(A12,Tabela2[#All], 4, FALSE)</f>
         <v>1-Branca
 2-Preta
 3-Amarela
@@ -5220,16 +5179,16 @@
 9-Ignorado</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="13" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="1" t="str">
-        <f>VLOOKUP(A15,Tabela2[#All], 2, FALSE)</f>
+      <c r="B13" s="1" t="str">
+        <f>VLOOKUP(A13,Tabela2[#All], 2, FALSE)</f>
         <v>Nível de escolaridade do paciente</v>
       </c>
-      <c r="C15" s="1" t="str">
-        <f>VLOOKUP(A15,Tabela2[#All], 4, FALSE)</f>
+      <c r="C13" s="1" t="str">
+        <f>VLOOKUP(A13,Tabela2[#All], 4, FALSE)</f>
         <v>0-Sem escolaridade/ Analfabeto
 1-Fundamental 1º ciclo (1ª a 5ª série)
 2-Fundamental 2º ciclo (6ª a 9ª série)
@@ -5240,119 +5199,141 @@
 Se o paciente tiver menos de 7 anos é automaticamente preenchido com a categoria “não se aplica”</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>VLOOKUP(A15,Tabela2[#All], 2, FALSE)</f>
+        <v>UF da residência</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>VLOOKUP(A15,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <f>VLOOKUP(A16,Tabela2[#All], 2, FALSE)</f>
-        <v>País de residência do paciente</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>434</v>
+        <v>413</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="1" t="str">
-        <f>VLOOKUP(A17,Tabela2[#All], 2, FALSE)</f>
-        <v>UF da residência</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f>VLOOKUP(A17,Tabela2[#All], 4, FALSE)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B18" s="1" t="e">
+        <v>91</v>
+      </c>
+      <c r="B18" s="1" t="str">
         <f>VLOOKUP(A18,Tabela2[#All], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C18" s="1" t="e">
+        <v>Zona geográfica da residência</v>
+      </c>
+      <c r="C18" s="1" t="str">
         <f>VLOOKUP(A18,Tabela2[#All], 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="B19" s="1" t="e">
-        <f>VLOOKUP(A19,Tabela2[#All], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C19" s="1" t="e">
-        <f>VLOOKUP(A19,Tabela2[#All], 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="B20" s="1" t="e">
-        <f>VLOOKUP(A20,Tabela2[#All], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C20" s="1" t="e">
-        <f>VLOOKUP(A20,Tabela2[#All], 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="B21" s="1" t="e">
-        <f>VLOOKUP(A21,Tabela2[#All], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C21" s="1" t="e">
-        <f>VLOOKUP(A21,Tabela2[#All], 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="1" t="str">
-        <f>VLOOKUP(A22,Tabela2[#All], 2, FALSE)</f>
-        <v>Zona geográfica da residência</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <f>VLOOKUP(A22,Tabela2[#All], 4, FALSE)</f>
         <v>1-Urbana
 2-Rural
 3-Periurbana
 9-Ignorado</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>VLOOKUP(A19,Tabela2[#All], 2, FALSE)</f>
+        <v>Caso de SRAG com infecção adquirida após internação</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f>VLOOKUP(A19,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>VLOOKUP(A20,Tabela2[#All], 2, FALSE)</f>
+        <v>Caso com contato direto com aves ou suínos</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f>VLOOKUP(A20,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>VLOOKUP(A21,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente apresentou febre</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f>VLOOKUP(A21,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>VLOOKUP(A22,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente apresentou tosse</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f>VLOOKUP(A22,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B23" s="1" t="e">
+        <v>107</v>
+      </c>
+      <c r="B23" s="1" t="str">
         <f>VLOOKUP(A23,Tabela2[#All], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C23" s="1" t="e">
+        <v>Paciente apresentou dor de garganta</v>
+      </c>
+      <c r="C23" s="1" t="str">
         <f>VLOOKUP(A23,Tabela2[#All], 4, FALSE)</f>
-        <v>#N/A</v>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B24" s="1" t="str">
         <f>VLOOKUP(A24,Tabela2[#All], 2, FALSE)</f>
-        <v>Caso de SRAG com infecção adquirida após internação</v>
+        <v>Paciente apresentou dispneia</v>
       </c>
       <c r="C24" s="1" t="str">
         <f>VLOOKUP(A24,Tabela2[#All], 4, FALSE)</f>
@@ -5363,11 +5344,11 @@
     </row>
     <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B25" s="1" t="str">
         <f>VLOOKUP(A25,Tabela2[#All], 2, FALSE)</f>
-        <v>Caso com contato direto com aves ou suínos</v>
+        <v>Paciente apresentou desconforto respiratório</v>
       </c>
       <c r="C25" s="1" t="str">
         <f>VLOOKUP(A25,Tabela2[#All], 4, FALSE)</f>
@@ -5378,11 +5359,11 @@
     </row>
     <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B26" s="1" t="str">
         <f>VLOOKUP(A26,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente apresentou febre</v>
+        <v>Paciente apresentou saturção O2 &lt; 95%</v>
       </c>
       <c r="C26" s="1" t="str">
         <f>VLOOKUP(A26,Tabela2[#All], 4, FALSE)</f>
@@ -5393,11 +5374,11 @@
     </row>
     <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B27" s="1" t="str">
         <f>VLOOKUP(A27,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente apresentou tosse</v>
+        <v>Paciente apresentou diarreia</v>
       </c>
       <c r="C27" s="1" t="str">
         <f>VLOOKUP(A27,Tabela2[#All], 4, FALSE)</f>
@@ -5408,11 +5389,11 @@
     </row>
     <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B28" s="1" t="str">
         <f>VLOOKUP(A28,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente apresentou dor de garganta</v>
+        <v>Paciente apresentou vômito</v>
       </c>
       <c r="C28" s="1" t="str">
         <f>VLOOKUP(A28,Tabela2[#All], 4, FALSE)</f>
@@ -5423,11 +5404,11 @@
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B29" s="1" t="str">
         <f>VLOOKUP(A29,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente apresentou dispneia</v>
+        <v>Paciente apresentou outros sintomas</v>
       </c>
       <c r="C29" s="1" t="str">
         <f>VLOOKUP(A29,Tabela2[#All], 4, FALSE)</f>
@@ -5436,28 +5417,26 @@
 9-Ignorado</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B30" s="1" t="str">
         <f>VLOOKUP(A30,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente apresentou desconforto respiratório</v>
+        <v>Lista outros sintomas</v>
       </c>
       <c r="C30" s="1" t="str">
         <f>VLOOKUP(A30,Tabela2[#All], 4, FALSE)</f>
-        <v>1-Sim
-2-Não
-9-Ignorado</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B31" s="1" t="str">
         <f>VLOOKUP(A31,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente apresentou saturção O2 &lt; 95%</v>
+        <v>Paciente é puérpera ou parturiente (até 45 dias após o parto)</v>
       </c>
       <c r="C31" s="1" t="str">
         <f>VLOOKUP(A31,Tabela2[#All], 4, FALSE)</f>
@@ -5468,11 +5447,11 @@
     </row>
     <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B32" s="1" t="str">
         <f>VLOOKUP(A32,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente apresentou diarreia</v>
+        <v>Paciente apresenta algum fator de risco</v>
       </c>
       <c r="C32" s="1" t="str">
         <f>VLOOKUP(A32,Tabela2[#All], 4, FALSE)</f>
@@ -5483,11 +5462,11 @@
     </row>
     <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B33" s="1" t="str">
         <f>VLOOKUP(A33,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente apresentou vômito</v>
+        <v>Paciente possui doença cardiovascular crônica</v>
       </c>
       <c r="C33" s="1" t="str">
         <f>VLOOKUP(A33,Tabela2[#All], 4, FALSE)</f>
@@ -5498,11 +5477,11 @@
     </row>
     <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B34" s="1" t="str">
         <f>VLOOKUP(A34,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente apresentou outros sintomas</v>
+        <v>Paciente possui doença hematológica crônica</v>
       </c>
       <c r="C34" s="1" t="str">
         <f>VLOOKUP(A34,Tabela2[#All], 4, FALSE)</f>
@@ -5511,26 +5490,28 @@
 9-Ignorado</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B35" s="1" t="str">
         <f>VLOOKUP(A35,Tabela2[#All], 2, FALSE)</f>
-        <v>Lista outros sintomas</v>
+        <v>Paciente possui síndrome de down</v>
       </c>
       <c r="C35" s="1" t="str">
         <f>VLOOKUP(A35,Tabela2[#All], 4, FALSE)</f>
-        <v/>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B36" s="1" t="str">
         <f>VLOOKUP(A36,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente é puérpera ou parturiente (até 45 dias após o parto)</v>
+        <v>Paciente possui doença hepática crônica</v>
       </c>
       <c r="C36" s="1" t="str">
         <f>VLOOKUP(A36,Tabela2[#All], 4, FALSE)</f>
@@ -5541,11 +5522,11 @@
     </row>
     <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B37" s="1" t="str">
         <f>VLOOKUP(A37,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente apresenta algum fator de risco</v>
+        <v>Paciente possui asma</v>
       </c>
       <c r="C37" s="1" t="str">
         <f>VLOOKUP(A37,Tabela2[#All], 4, FALSE)</f>
@@ -5556,11 +5537,11 @@
     </row>
     <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B38" s="1" t="str">
         <f>VLOOKUP(A38,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente possui doença cardiovascular crônica</v>
+        <v>Paciente possui diabetes mellitus</v>
       </c>
       <c r="C38" s="1" t="str">
         <f>VLOOKUP(A38,Tabela2[#All], 4, FALSE)</f>
@@ -5571,11 +5552,11 @@
     </row>
     <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B39" s="1" t="str">
         <f>VLOOKUP(A39,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente possui doença hematológica crônica</v>
+        <v>Paciente possui doença neurológica</v>
       </c>
       <c r="C39" s="1" t="str">
         <f>VLOOKUP(A39,Tabela2[#All], 4, FALSE)</f>
@@ -5586,11 +5567,11 @@
     </row>
     <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B40" s="1" t="str">
         <f>VLOOKUP(A40,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente possui síndrome de down</v>
+        <v>Paciente possui pneumopatia crônica</v>
       </c>
       <c r="C40" s="1" t="str">
         <f>VLOOKUP(A40,Tabela2[#All], 4, FALSE)</f>
@@ -5601,11 +5582,11 @@
     </row>
     <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B41" s="1" t="str">
         <f>VLOOKUP(A41,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente possui doença hepática crônica</v>
+        <v>Paciente possui imunodeficiência ou imunodpressão</v>
       </c>
       <c r="C41" s="1" t="str">
         <f>VLOOKUP(A41,Tabela2[#All], 4, FALSE)</f>
@@ -5616,11 +5597,11 @@
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B42" s="1" t="str">
         <f>VLOOKUP(A42,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente possui asma</v>
+        <v>Paciente possui doença renal crônica</v>
       </c>
       <c r="C42" s="1" t="str">
         <f>VLOOKUP(A42,Tabela2[#All], 4, FALSE)</f>
@@ -5631,11 +5612,11 @@
     </row>
     <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B43" s="1" t="str">
         <f>VLOOKUP(A43,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente possui diabetes mellitus</v>
+        <v>Paciente possui obesidade</v>
       </c>
       <c r="C43" s="1" t="str">
         <f>VLOOKUP(A43,Tabela2[#All], 4, FALSE)</f>
@@ -5646,11 +5627,11 @@
     </row>
     <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B44" s="1" t="str">
         <f>VLOOKUP(A44,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente possui doença neurológica</v>
+        <v>Paciente possui outro fator de risco</v>
       </c>
       <c r="C44" s="1" t="str">
         <f>VLOOKUP(A44,Tabela2[#All], 4, FALSE)</f>
@@ -5659,28 +5640,26 @@
 9-Ignorado</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B45" s="1" t="str">
         <f>VLOOKUP(A45,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente possui pneumopatia crônica</v>
+        <v>Lista outros fatores de risco do paciente</v>
       </c>
       <c r="C45" s="1" t="str">
         <f>VLOOKUP(A45,Tabela2[#All], 4, FALSE)</f>
-        <v>1-Sim
-2-Não
-9-Ignorado</v>
+        <v/>
       </c>
     </row>
     <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="B46" s="1" t="str">
         <f>VLOOKUP(A46,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente possui imunodeficiência ou imunodpressão</v>
+        <v>Paciente foi vacinado contra a gripe na última campanha</v>
       </c>
       <c r="C46" s="1" t="str">
         <f>VLOOKUP(A46,Tabela2[#All], 4, FALSE)</f>
@@ -5691,11 +5670,11 @@
     </row>
     <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="B47" s="1" t="str">
         <f>VLOOKUP(A47,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente possui doença renal crônica</v>
+        <v>Se o paciente tiver menos que 6 meses de vida, a mãe recebeu vacina</v>
       </c>
       <c r="C47" s="1" t="str">
         <f>VLOOKUP(A47,Tabela2[#All], 4, FALSE)</f>
@@ -5706,11 +5685,11 @@
     </row>
     <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="B48" s="1" t="str">
         <f>VLOOKUP(A48,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente possui obesidade</v>
+        <v>Se o paciente tiver menos que 6 meses, a mãe amamenta a criança</v>
       </c>
       <c r="C48" s="1" t="str">
         <f>VLOOKUP(A48,Tabela2[#All], 4, FALSE)</f>
@@ -5721,54 +5700,50 @@
     </row>
     <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="B49" s="1" t="str">
         <f>VLOOKUP(A49,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente possui outro fator de risco</v>
+        <v>Se o paciente tiver entre 6 meses e 8 anos, data da dose única para crianças vacinadas em campanhas de anos anteriores</v>
       </c>
       <c r="C49" s="1" t="str">
         <f>VLOOKUP(A49,Tabela2[#All], 4, FALSE)</f>
-        <v>1-Sim
-2-Não
-9-Ignorado</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="B50" s="1" t="str">
         <f>VLOOKUP(A50,Tabela2[#All], 2, FALSE)</f>
-        <v>Lista outros fatores de risco do paciente</v>
+        <v>Se o paciente tiver entre 6 meses e 8 anos, data da 1a dose para crianças vacinadas pela primeira vez</v>
       </c>
       <c r="C50" s="1" t="str">
         <f>VLOOKUP(A50,Tabela2[#All], 4, FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="B51" s="1" t="str">
         <f>VLOOKUP(A51,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente foi vacinado contra a gripe na última campanha</v>
+        <v>Se o paciente tiver entre 6 meses e 8 anos, data da 2a dose para crianças vacinadas pela primeira vez</v>
       </c>
       <c r="C51" s="1" t="str">
         <f>VLOOKUP(A51,Tabela2[#All], 4, FALSE)</f>
-        <v>1-Sim
-2-Não
-9-Ignorado</v>
+        <v/>
       </c>
     </row>
     <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B52" s="1" t="str">
         <f>VLOOKUP(A52,Tabela2[#All], 2, FALSE)</f>
-        <v>Se o paciente tiver menos que 6 meses de vida, a mãe recebeu vacina</v>
+        <v>Paciente usou antiviral para gripe</v>
       </c>
       <c r="C52" s="1" t="str">
         <f>VLOOKUP(A52,Tabela2[#All], 4, FALSE)</f>
@@ -5779,235 +5754,130 @@
     </row>
     <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B53" s="1" t="str">
         <f>VLOOKUP(A53,Tabela2[#All], 2, FALSE)</f>
-        <v>Se o paciente tiver menos que 6 meses, a mãe amamenta a criança</v>
+        <v>Qual antiviral</v>
       </c>
       <c r="C53" s="1" t="str">
         <f>VLOOKUP(A53,Tabela2[#All], 4, FALSE)</f>
+        <v>1- Oseltamivir
+2- Zanamivir
+3- Outro, especifique</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f>VLOOKUP(A54,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente foi internado</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f>VLOOKUP(A54,Tabela2[#All], 4, FALSE)</f>
         <v>1-Sim
 2-Não
 9-Ignorado</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B54" s="1" t="str">
-        <f>VLOOKUP(A54,Tabela2[#All], 2, FALSE)</f>
-        <v>Se o paciente tiver entre 6 meses e 8 anos, data da dose única para crianças vacinadas em campanhas de anos anteriores</v>
-      </c>
-      <c r="C54" s="1" t="str">
-        <f>VLOOKUP(A54,Tabela2[#All], 4, FALSE)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="B55" s="1" t="str">
         <f>VLOOKUP(A55,Tabela2[#All], 2, FALSE)</f>
-        <v>Se o paciente tiver entre 6 meses e 8 anos, data da 1a dose para crianças vacinadas pela primeira vez</v>
+        <v>UF onde o paciente foi internado</v>
       </c>
       <c r="C55" s="1" t="str">
         <f>VLOOKUP(A55,Tabela2[#All], 4, FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B56" s="1" t="str">
-        <f>VLOOKUP(A56,Tabela2[#All], 2, FALSE)</f>
-        <v>Se o paciente tiver entre 6 meses e 8 anos, data da 2a dose para crianças vacinadas pela primeira vez</v>
-      </c>
-      <c r="C56" s="1" t="str">
-        <f>VLOOKUP(A56,Tabela2[#All], 4, FALSE)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B57" s="1" t="str">
-        <f>VLOOKUP(A57,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente usou antiviral para gripe</v>
-      </c>
-      <c r="C57" s="1" t="str">
-        <f>VLOOKUP(A57,Tabela2[#All], 4, FALSE)</f>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B58" s="1" t="str">
+        <f>VLOOKUP(A58,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente foi internado na UTI</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f>VLOOKUP(A58,Tabela2[#All], 4, FALSE)</f>
         <v>1-Sim
 2-Não
 9-Ignorado</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B58" s="1" t="str">
-        <f>VLOOKUP(A58,Tabela2[#All], 2, FALSE)</f>
-        <v>Qual antiviral</v>
-      </c>
-      <c r="C58" s="1" t="str">
-        <f>VLOOKUP(A58,Tabela2[#All], 4, FALSE)</f>
-        <v>1- Oseltamivir
-2- Zanamivir
-3- Outro, especifique</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B59" s="1" t="str">
         <f>VLOOKUP(A59,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente foi internado</v>
+        <v>Data de entrada na UTI</v>
       </c>
       <c r="C59" s="1" t="str">
         <f>VLOOKUP(A59,Tabela2[#All], 4, FALSE)</f>
-        <v>1-Sim
-2-Não
-9-Ignorado</v>
+        <v/>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B60" s="1" t="str">
         <f>VLOOKUP(A60,Tabela2[#All], 2, FALSE)</f>
-        <v>UF onde o paciente foi internado</v>
+        <v>Data de saída da UTI</v>
       </c>
       <c r="C60" s="1" t="str">
         <f>VLOOKUP(A60,Tabela2[#All], 4, FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="B61" s="1" t="e">
+        <v>249</v>
+      </c>
+      <c r="B61" s="1" t="str">
         <f>VLOOKUP(A61,Tabela2[#All], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C61" s="1" t="e">
+        <v>Paciente fez uso de suporte ventilatório</v>
+      </c>
+      <c r="C61" s="1" t="str">
         <f>VLOOKUP(A61,Tabela2[#All], 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="B62" s="1" t="e">
-        <f>VLOOKUP(A62,Tabela2[#All], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C62" s="1" t="e">
-        <f>VLOOKUP(A62,Tabela2[#All], 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B63" s="1" t="e">
-        <f>VLOOKUP(A63,Tabela2[#All], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C63" s="1" t="e">
-        <f>VLOOKUP(A63,Tabela2[#All], 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="B64" s="1" t="e">
-        <f>VLOOKUP(A64,Tabela2[#All], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C64" s="1" t="e">
-        <f>VLOOKUP(A64,Tabela2[#All], 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B65" s="1" t="str">
-        <f>VLOOKUP(A65,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente foi internado na UTI</v>
-      </c>
-      <c r="C65" s="1" t="str">
-        <f>VLOOKUP(A65,Tabela2[#All], 4, FALSE)</f>
-        <v>1-Sim
-2-Não
-9-Ignorado</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B66" s="1" t="str">
-        <f>VLOOKUP(A66,Tabela2[#All], 2, FALSE)</f>
-        <v>Data de entrada na UTI</v>
-      </c>
-      <c r="C66" s="1" t="str">
-        <f>VLOOKUP(A66,Tabela2[#All], 4, FALSE)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B67" s="1" t="str">
-        <f>VLOOKUP(A67,Tabela2[#All], 2, FALSE)</f>
-        <v>Data de saída da UTI</v>
-      </c>
-      <c r="C67" s="1" t="str">
-        <f>VLOOKUP(A67,Tabela2[#All], 4, FALSE)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B68" s="1" t="str">
-        <f>VLOOKUP(A68,Tabela2[#All], 2, FALSE)</f>
-        <v>Paciente fez uso de suporte ventilatório</v>
-      </c>
-      <c r="C68" s="1" t="str">
-        <f>VLOOKUP(A68,Tabela2[#All], 4, FALSE)</f>
         <v>1-Sim, invasivo
 2-Sim, não invasivo
 3-Não
 9-Ignorado</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+    <row r="62" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B69" s="1" t="str">
-        <f>VLOOKUP(A69,Tabela2[#All], 2, FALSE)</f>
+      <c r="B62" s="1" t="str">
+        <f>VLOOKUP(A62,Tabela2[#All], 2, FALSE)</f>
         <v>Resultado Raio-X de tórax</v>
       </c>
-      <c r="C69" s="1" t="str">
-        <f>VLOOKUP(A69,Tabela2[#All], 4, FALSE)</f>
+      <c r="C62" s="1" t="str">
+        <f>VLOOKUP(A62,Tabela2[#All], 4, FALSE)</f>
         <v>1-Normal_x000D_
 2-Infiltrado intersticial_x000D_
 3-Consolidação_x000D_
@@ -6017,31 +5887,31 @@
 9-Ignorado</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+    <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B70" s="1" t="str">
-        <f>VLOOKUP(A70,Tabela2[#All], 2, FALSE)</f>
+      <c r="B63" s="1" t="str">
+        <f>VLOOKUP(A63,Tabela2[#All], 2, FALSE)</f>
         <v>Foi realizado coleta de amostra na realização do teste diagnóstico</v>
       </c>
-      <c r="C70" s="1" t="str">
-        <f>VLOOKUP(A70,Tabela2[#All], 4, FALSE)</f>
+      <c r="C63" s="1" t="str">
+        <f>VLOOKUP(A63,Tabela2[#All], 4, FALSE)</f>
         <v>1-Sim
 2-Não
 9-Ignorado</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+    <row r="64" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B71" s="1" t="str">
-        <f>VLOOKUP(A71,Tabela2[#All], 2, FALSE)</f>
+      <c r="B64" s="1" t="str">
+        <f>VLOOKUP(A64,Tabela2[#All], 2, FALSE)</f>
         <v>Tipo da amostra</v>
       </c>
-      <c r="C71" s="1" t="str">
-        <f>VLOOKUP(A71,Tabela2[#All], 4, FALSE)</f>
+      <c r="C64" s="1" t="str">
+        <f>VLOOKUP(A64,Tabela2[#All], 4, FALSE)</f>
         <v>1-Secreção de Nasoorofaringe_x000D_
 2-Lavado Broco-alveolar_x000D_
 3-Tecido post-mortem_x000D_
@@ -6050,16 +5920,16 @@
 9-Ignorado_x000D_</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+    <row r="65" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B72" s="1" t="str">
-        <f>VLOOKUP(A72,Tabela2[#All], 2, FALSE)</f>
+      <c r="B65" s="1" t="str">
+        <f>VLOOKUP(A65,Tabela2[#All], 2, FALSE)</f>
         <v>Se for colhida amostra, resultado do teste RT-PCR ou outro método</v>
       </c>
-      <c r="C72" s="1" t="str">
-        <f>VLOOKUP(A72,Tabela2[#All], 4, FALSE)</f>
+      <c r="C65" s="1" t="str">
+        <f>VLOOKUP(A65,Tabela2[#All], 4, FALSE)</f>
         <v>1-Detectável
 2-Não Detectável
 3-Inconclusivo
@@ -6068,45 +5938,45 @@
 9-Ignorado</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+    <row r="66" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B73" s="1" t="str">
-        <f>VLOOKUP(A73,Tabela2[#All], 2, FALSE)</f>
+      <c r="B66" s="1" t="str">
+        <f>VLOOKUP(A66,Tabela2[#All], 2, FALSE)</f>
         <v>Resultado do RT-PCR foi positivo para influenza</v>
       </c>
-      <c r="C73" s="1" t="str">
-        <f>VLOOKUP(A73,Tabela2[#All], 4, FALSE)</f>
+      <c r="C66" s="1" t="str">
+        <f>VLOOKUP(A66,Tabela2[#All], 4, FALSE)</f>
         <v>1-Sim_x000D_
 2-Não_x000D_
 9-Ignorado</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B74" s="1" t="str">
-        <f>VLOOKUP(A74,Tabela2[#All], 2, FALSE)</f>
+      <c r="B67" s="1" t="str">
+        <f>VLOOKUP(A67,Tabela2[#All], 2, FALSE)</f>
         <v>Resultado do diagnóstico do RT-PCR para o tipo de influenza</v>
       </c>
-      <c r="C74" s="1" t="str">
-        <f>VLOOKUP(A74,Tabela2[#All], 4, FALSE)</f>
+      <c r="C67" s="1" t="str">
+        <f>VLOOKUP(A67,Tabela2[#All], 4, FALSE)</f>
         <v>1-Influenza A_x000D_
 2-Influenza B</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+    <row r="68" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B75" s="1" t="str">
-        <f>VLOOKUP(A75,Tabela2[#All], 2, FALSE)</f>
+      <c r="B68" s="1" t="str">
+        <f>VLOOKUP(A68,Tabela2[#All], 2, FALSE)</f>
         <v>Subtipo para Influenza A</v>
       </c>
-      <c r="C75" s="1" t="str">
-        <f>VLOOKUP(A75,Tabela2[#All], 4, FALSE)</f>
+      <c r="C68" s="1" t="str">
+        <f>VLOOKUP(A68,Tabela2[#All], 4, FALSE)</f>
         <v>1-Influenza A(H1N1)pdm09_x000D_
 2-Influenza A (H3N2)_x000D_
 3-Influenza A não subtipado_x000D_
@@ -6115,16 +5985,16 @@
 6-Outro, especifique</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+    <row r="69" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B76" s="1" t="str">
-        <f>VLOOKUP(A76,Tabela2[#All], 2, FALSE)</f>
+      <c r="B69" s="1" t="str">
+        <f>VLOOKUP(A69,Tabela2[#All], 2, FALSE)</f>
         <v>Linhagem da Influenza B</v>
       </c>
-      <c r="C76" s="1" t="str">
-        <f>VLOOKUP(A76,Tabela2[#All], 4, FALSE)</f>
+      <c r="C69" s="1" t="str">
+        <f>VLOOKUP(A69,Tabela2[#All], 4, FALSE)</f>
         <v>1-Victoria
 2-Yamagatha
 3-Não realizado
@@ -6132,41 +6002,132 @@
 5-Outro, especifique:</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B77" s="1" t="str">
-        <f>VLOOKUP(A77,Tabela2[#All], 2, FALSE)</f>
+      <c r="B70" s="1" t="str">
+        <f>VLOOKUP(A70,Tabela2[#All], 2, FALSE)</f>
         <v>Resultado do RT-PCR foi positivo para outro vírus respiratório</v>
       </c>
-      <c r="C77" s="1" t="str">
-        <f>VLOOKUP(A77,Tabela2[#All], 4, FALSE)</f>
+      <c r="C70" s="1" t="str">
+        <f>VLOOKUP(A70,Tabela2[#All], 4, FALSE)</f>
         <v>1-Sim
 2-Não
 9-Ignorado</v>
       </c>
     </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f>VLOOKUP(A71,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para VSR</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f>VLOOKUP(A71,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f>VLOOKUP(A72,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 1</v>
+      </c>
+      <c r="C72" s="1" t="str">
+        <f>VLOOKUP(A72,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B73" s="1" t="str">
+        <f>VLOOKUP(A73,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 2</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f>VLOOKUP(A73,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B74" s="1" t="str">
+        <f>VLOOKUP(A74,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 3</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <f>VLOOKUP(A74,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B75" s="1" t="str">
+        <f>VLOOKUP(A75,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 4</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f>VLOOKUP(A75,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B76" s="1" t="str">
+        <f>VLOOKUP(A76,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Adenovírus</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f>VLOOKUP(A76,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B77" s="1" t="str">
+        <f>VLOOKUP(A77,Tabela2[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Metapneumovírus</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f>VLOOKUP(A77,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="B78" s="1" t="str">
         <f>VLOOKUP(A78,Tabela2[#All], 2, FALSE)</f>
-        <v>Resultado diagnóstico do RT-PCR para VSR</v>
+        <v>Resultado diagnóstico do RT-PCR para Bocavírus</v>
       </c>
       <c r="C78" s="1" t="str">
         <f>VLOOKUP(A78,Tabela2[#All], 4, FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="B79" s="1" t="str">
         <f>VLOOKUP(A79,Tabela2[#All], 2, FALSE)</f>
-        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 1</v>
+        <v>Resultado diagnóstico do RT-PCR para Rinovírus</v>
       </c>
       <c r="C79" s="1" t="str">
         <f>VLOOKUP(A79,Tabela2[#All], 4, FALSE)</f>
@@ -6175,118 +6136,27 @@
     </row>
     <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="B80" s="1" t="str">
         <f>VLOOKUP(A80,Tabela2[#All], 2, FALSE)</f>
-        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 2</v>
+        <v>Resultado diagnóstico do RT-PCR para outro vírus respiratório</v>
       </c>
       <c r="C80" s="1" t="str">
         <f>VLOOKUP(A80,Tabela2[#All], 4, FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="B81" s="1" t="str">
         <f>VLOOKUP(A81,Tabela2[#All], 2, FALSE)</f>
-        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 3</v>
+        <v>Diagnóstico final do caso</v>
       </c>
       <c r="C81" s="1" t="str">
         <f>VLOOKUP(A81,Tabela2[#All], 4, FALSE)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B82" s="1" t="str">
-        <f>VLOOKUP(A82,Tabela2[#All], 2, FALSE)</f>
-        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 4</v>
-      </c>
-      <c r="C82" s="1" t="str">
-        <f>VLOOKUP(A82,Tabela2[#All], 4, FALSE)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B83" s="1" t="str">
-        <f>VLOOKUP(A83,Tabela2[#All], 2, FALSE)</f>
-        <v>Resultado diagnóstico do RT-PCR para Adenovírus</v>
-      </c>
-      <c r="C83" s="1" t="str">
-        <f>VLOOKUP(A83,Tabela2[#All], 4, FALSE)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B84" s="1" t="str">
-        <f>VLOOKUP(A84,Tabela2[#All], 2, FALSE)</f>
-        <v>Resultado diagnóstico do RT-PCR para Metapneumovírus</v>
-      </c>
-      <c r="C84" s="1" t="str">
-        <f>VLOOKUP(A84,Tabela2[#All], 4, FALSE)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="B85" s="1" t="str">
-        <f>VLOOKUP(A85,Tabela2[#All], 2, FALSE)</f>
-        <v>Resultado diagnóstico do RT-PCR para Bocavírus</v>
-      </c>
-      <c r="C85" s="1" t="str">
-        <f>VLOOKUP(A85,Tabela2[#All], 4, FALSE)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B86" s="1" t="str">
-        <f>VLOOKUP(A86,Tabela2[#All], 2, FALSE)</f>
-        <v>Resultado diagnóstico do RT-PCR para Rinovírus</v>
-      </c>
-      <c r="C86" s="1" t="str">
-        <f>VLOOKUP(A86,Tabela2[#All], 4, FALSE)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="B87" s="1" t="str">
-        <f>VLOOKUP(A87,Tabela2[#All], 2, FALSE)</f>
-        <v>Resultado diagnóstico do RT-PCR para outro vírus respiratório</v>
-      </c>
-      <c r="C87" s="1" t="str">
-        <f>VLOOKUP(A87,Tabela2[#All], 4, FALSE)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="B88" s="1" t="str">
-        <f>VLOOKUP(A88,Tabela2[#All], 2, FALSE)</f>
-        <v>Diagnóstico final do caso</v>
-      </c>
-      <c r="C88" s="1" t="str">
-        <f>VLOOKUP(A88,Tabela2[#All], 4, FALSE)</f>
         <v>1-SRAG por influenza
 2-SRAG por outro vírus respiratório
 3-SRAG por outro agente etiológico, qual:
@@ -6294,212 +6164,148 @@
 5-SRAG por covid-19</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+    <row r="82" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B89" s="1" t="str">
-        <f>VLOOKUP(A89,Tabela2[#All], 2, FALSE)</f>
+      <c r="B82" s="1" t="str">
+        <f>VLOOKUP(A82,Tabela2[#All], 2, FALSE)</f>
         <v>Critério de confirmação</v>
       </c>
-      <c r="C89" s="1" t="str">
-        <f>VLOOKUP(A89,Tabela2[#All], 4, FALSE)</f>
+      <c r="C82" s="1" t="str">
+        <f>VLOOKUP(A82,Tabela2[#All], 4, FALSE)</f>
         <v>1. Laboratorial_x000D_
 2. Clínico Epidemiológico_x000D_
 3. Clínico_x000D_
 4. Clínico Imagem</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+    <row r="83" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B90" s="1" t="str">
-        <f>VLOOKUP(A90,Tabela2[#All], 2, FALSE)</f>
+      <c r="B83" s="1" t="str">
+        <f>VLOOKUP(A83,Tabela2[#All], 2, FALSE)</f>
         <v>Evolução do caso</v>
       </c>
-      <c r="C90" s="1" t="str">
-        <f>VLOOKUP(A90,Tabela2[#All], 4, FALSE)</f>
+      <c r="C83" s="1" t="str">
+        <f>VLOOKUP(A83,Tabela2[#All], 4, FALSE)</f>
         <v>1-Cura
 2-Óbito
 3- Óbito por outras causas
 9-Ignorado</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="B91" s="1" t="e">
-        <f>VLOOKUP(A91,Tabela2[#All], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C91" s="1" t="e">
-        <f>VLOOKUP(A91,Tabela2[#All], 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="B92" s="1" t="e">
-        <f>VLOOKUP(A92,Tabela2[#All], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C92" s="1" t="e">
-        <f>VLOOKUP(A92,Tabela2[#All], 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B93" s="1" t="e">
-        <f>VLOOKUP(A93,Tabela2[#All], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C93" s="1" t="e">
-        <f>VLOOKUP(A93,Tabela2[#All], 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="B94" s="1" t="e">
-        <f>VLOOKUP(A94,Tabela2[#All], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C94" s="1" t="e">
-        <f>VLOOKUP(A94,Tabela2[#All], 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="B95" s="1" t="e">
-        <f>VLOOKUP(A95,Tabela2[#All], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C95" s="1" t="e">
-        <f>VLOOKUP(A95,Tabela2[#All], 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="B96" s="1" t="e">
-        <f>VLOOKUP(A96,Tabela2[#All], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C96" s="1" t="e">
-        <f>VLOOKUP(A96,Tabela2[#All], 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+    <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B97" s="1" t="e">
-        <f>VLOOKUP(A97,Tabela2[#All], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C97" s="1" t="e">
-        <f>VLOOKUP(A97,Tabela2[#All], 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+    </row>
+    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B98" s="1" t="str">
-        <f>VLOOKUP(A98,Tabela2[#All], 2, FALSE)</f>
+      <c r="B87" s="1" t="str">
+        <f>VLOOKUP(A87,Tabela2[#All], 2, FALSE)</f>
         <v>Caso contato com outro animal, o mesmo deve ser especificado</v>
       </c>
-      <c r="C98" s="1" t="str">
-        <f>VLOOKUP(A98,Tabela2[#All], 4, FALSE)</f>
+      <c r="C87" s="1" t="str">
+        <f>VLOOKUP(A87,Tabela2[#All], 4, FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+    <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="1" t="str">
-        <f>VLOOKUP(A99,Tabela2[#All], 2, FALSE)</f>
+      <c r="B88" s="1" t="str">
+        <f>VLOOKUP(A88,Tabela2[#All], 2, FALSE)</f>
         <v>Paciente apresentou dor abdominal</v>
       </c>
-      <c r="C99" s="1" t="str">
-        <f>VLOOKUP(A99,Tabela2[#All], 4, FALSE)</f>
+      <c r="C88" s="1" t="str">
+        <f>VLOOKUP(A88,Tabela2[#All], 4, FALSE)</f>
         <v>1-Sim
 2-Não
 9-Ignorado</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+    <row r="89" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B100" s="1" t="str">
-        <f>VLOOKUP(A100,Tabela2[#All], 2, FALSE)</f>
+      <c r="B89" s="1" t="str">
+        <f>VLOOKUP(A89,Tabela2[#All], 2, FALSE)</f>
         <v>Paciente apresentou fadiga</v>
       </c>
-      <c r="C100" s="1" t="str">
-        <f>VLOOKUP(A100,Tabela2[#All], 4, FALSE)</f>
+      <c r="C89" s="1" t="str">
+        <f>VLOOKUP(A89,Tabela2[#All], 4, FALSE)</f>
         <v>1-Sim
 2-Não
 9-Ignorado</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+    <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B101" s="1" t="str">
-        <f>VLOOKUP(A101,Tabela2[#All], 2, FALSE)</f>
+      <c r="B90" s="1" t="str">
+        <f>VLOOKUP(A90,Tabela2[#All], 2, FALSE)</f>
         <v>Paciente apresentou perda do olfato</v>
       </c>
-      <c r="C101" s="1" t="str">
-        <f>VLOOKUP(A101,Tabela2[#All], 4, FALSE)</f>
+      <c r="C90" s="1" t="str">
+        <f>VLOOKUP(A90,Tabela2[#All], 4, FALSE)</f>
         <v>1-Sim
 2-Não
 9-Ignorado</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+    <row r="91" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B102" s="1" t="str">
-        <f>VLOOKUP(A102,Tabela2[#All], 2, FALSE)</f>
+      <c r="B91" s="1" t="str">
+        <f>VLOOKUP(A91,Tabela2[#All], 2, FALSE)</f>
         <v>Paciente apresentou perda do paladar</v>
       </c>
-      <c r="C102" s="1" t="str">
-        <f>VLOOKUP(A102,Tabela2[#All], 4, FALSE)</f>
+      <c r="C91" s="1" t="str">
+        <f>VLOOKUP(A91,Tabela2[#All], 4, FALSE)</f>
         <v>1-Sim
 2-Não
 9-Ignorado</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+    <row r="92" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B103" s="1" t="str">
-        <f>VLOOKUP(A103,Tabela2[#All], 2, FALSE)</f>
+      <c r="B92" s="1" t="str">
+        <f>VLOOKUP(A92,Tabela2[#All], 2, FALSE)</f>
         <v>Resultado da tomografia</v>
       </c>
-      <c r="C103" s="1" t="str">
-        <f>VLOOKUP(A103,Tabela2[#All], 4, FALSE)</f>
+      <c r="C92" s="1" t="str">
+        <f>VLOOKUP(A92,Tabela2[#All], 4, FALSE)</f>
         <v>1-Tipico covid-19_x000D_
 2- Indeterminado covid-19_x000D_
 3- Atípico covid-19_x000D_
@@ -6509,30 +6315,30 @@
 9-Ignorado</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B104" s="1" t="str">
-        <f>VLOOKUP(A104,Tabela2[#All], 2, FALSE)</f>
+      <c r="B93" s="1" t="str">
+        <f>VLOOKUP(A93,Tabela2[#All], 2, FALSE)</f>
         <v>Tipo de teste antigênico</v>
       </c>
-      <c r="C104" s="1" t="str">
-        <f>VLOOKUP(A104,Tabela2[#All], 4, FALSE)</f>
+      <c r="C93" s="1" t="str">
+        <f>VLOOKUP(A93,Tabela2[#All], 4, FALSE)</f>
         <v>1-Imunofluorescência (IF)_x000D_
 2- Teste rápido antigênico</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+    <row r="94" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B105" s="1" t="str">
-        <f>VLOOKUP(A105,Tabela2[#All], 2, FALSE)</f>
+      <c r="B94" s="1" t="str">
+        <f>VLOOKUP(A94,Tabela2[#All], 2, FALSE)</f>
         <v>Resultado do teste antigênico</v>
       </c>
-      <c r="C105" s="1" t="str">
-        <f>VLOOKUP(A105,Tabela2[#All], 4, FALSE)</f>
+      <c r="C94" s="1" t="str">
+        <f>VLOOKUP(A94,Tabela2[#All], 4, FALSE)</f>
         <v>1-Positivo
 2-Negativo
 3- Inconclusivo
@@ -6541,370 +6347,358 @@
 9-Ignorado</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
+    <row r="95" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B106" s="1" t="str">
-        <f>VLOOKUP(A106,Tabela2[#All], 2, FALSE)</f>
+      <c r="B95" s="1" t="str">
+        <f>VLOOKUP(A95,Tabela2[#All], 2, FALSE)</f>
         <v>Resultado do teste foi positivo Influenza</v>
       </c>
-      <c r="C106" s="1" t="str">
-        <f>VLOOKUP(A106,Tabela2[#All], 4, FALSE)</f>
+      <c r="C95" s="1" t="str">
+        <f>VLOOKUP(A95,Tabela2[#All], 4, FALSE)</f>
         <v>1-Sim_x000D_
 2-Não_x000D_
 9-Ignorado</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B107" s="1" t="str">
-        <f>VLOOKUP(A107,Tabela2[#All], 2, FALSE)</f>
+      <c r="B96" s="1" t="str">
+        <f>VLOOKUP(A96,Tabela2[#All], 2, FALSE)</f>
         <v>Se influenza, tipo</v>
       </c>
-      <c r="C107" s="1" t="str">
-        <f>VLOOKUP(A107,Tabela2[#All], 4, FALSE)</f>
+      <c r="C96" s="1" t="str">
+        <f>VLOOKUP(A96,Tabela2[#All], 4, FALSE)</f>
         <v>1-Influenza A
 2-Influenza B</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
+    <row r="97" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B108" s="1" t="str">
-        <f>VLOOKUP(A108,Tabela2[#All], 2, FALSE)</f>
+      <c r="B97" s="1" t="str">
+        <f>VLOOKUP(A97,Tabela2[#All], 2, FALSE)</f>
         <v>Resultado do teste positivo para outro vírus</v>
       </c>
-      <c r="C108" s="1" t="str">
-        <f>VLOOKUP(A108,Tabela2[#All], 4, FALSE)</f>
+      <c r="C97" s="1" t="str">
+        <f>VLOOKUP(A97,Tabela2[#All], 4, FALSE)</f>
         <v>1-Sim_x000D_
 2-Não_x000D_
 9-Ignorado</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B109" s="1" t="str">
-        <f>VLOOKUP(A109,Tabela2[#All], 2, FALSE)</f>
+      <c r="B98" s="1" t="str">
+        <f>VLOOKUP(A98,Tabela2[#All], 2, FALSE)</f>
         <v>Resultado do teste para SARS-CoV-2</v>
       </c>
-      <c r="C109" s="1" t="str">
-        <f>VLOOKUP(A109,Tabela2[#All], 4, FALSE)</f>
+      <c r="C98" s="1" t="str">
+        <f>VLOOKUP(A98,Tabela2[#All], 4, FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B110" s="1" t="str">
-        <f>VLOOKUP(A110,Tabela2[#All], 2, FALSE)</f>
+      <c r="B99" s="1" t="str">
+        <f>VLOOKUP(A99,Tabela2[#All], 2, FALSE)</f>
         <v>Resultado do teste para VSR</v>
       </c>
-      <c r="C110" s="1" t="str">
-        <f>VLOOKUP(A110,Tabela2[#All], 4, FALSE)</f>
+      <c r="C99" s="1" t="str">
+        <f>VLOOKUP(A99,Tabela2[#All], 4, FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B111" s="1" t="str">
-        <f>VLOOKUP(A111,Tabela2[#All], 2, FALSE)</f>
+      <c r="B100" s="1" t="str">
+        <f>VLOOKUP(A100,Tabela2[#All], 2, FALSE)</f>
         <v>Resultado do teste para Parainfluenza 1</v>
       </c>
-      <c r="C111" s="1" t="str">
-        <f>VLOOKUP(A111,Tabela2[#All], 4, FALSE)</f>
+      <c r="C100" s="1" t="str">
+        <f>VLOOKUP(A100,Tabela2[#All], 4, FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B112" s="1" t="str">
-        <f>VLOOKUP(A112,Tabela2[#All], 2, FALSE)</f>
+      <c r="B101" s="1" t="str">
+        <f>VLOOKUP(A101,Tabela2[#All], 2, FALSE)</f>
         <v>Resultado do teste para Parainfluenza 2</v>
       </c>
-      <c r="C112" s="1" t="str">
-        <f>VLOOKUP(A112,Tabela2[#All], 4, FALSE)</f>
+      <c r="C101" s="1" t="str">
+        <f>VLOOKUP(A101,Tabela2[#All], 4, FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B113" s="1" t="str">
-        <f>VLOOKUP(A113,Tabela2[#All], 2, FALSE)</f>
+      <c r="B102" s="1" t="str">
+        <f>VLOOKUP(A102,Tabela2[#All], 2, FALSE)</f>
         <v>Resultado do teste para Parainfluenza 3</v>
       </c>
-      <c r="C113" s="1" t="str">
-        <f>VLOOKUP(A113,Tabela2[#All], 4, FALSE)</f>
+      <c r="C102" s="1" t="str">
+        <f>VLOOKUP(A102,Tabela2[#All], 4, FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B114" s="1" t="str">
-        <f>VLOOKUP(A114,Tabela2[#All], 2, FALSE)</f>
+      <c r="B103" s="1" t="str">
+        <f>VLOOKUP(A103,Tabela2[#All], 2, FALSE)</f>
         <v>Resultado do teste para Adenovírus</v>
       </c>
-      <c r="C114" s="1" t="str">
-        <f>VLOOKUP(A114,Tabela2[#All], 4, FALSE)</f>
+      <c r="C103" s="1" t="str">
+        <f>VLOOKUP(A103,Tabela2[#All], 4, FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B115" s="1" t="str">
-        <f>VLOOKUP(A115,Tabela2[#All], 2, FALSE)</f>
+      <c r="B104" s="1" t="str">
+        <f>VLOOKUP(A104,Tabela2[#All], 2, FALSE)</f>
         <v>Resultado do teste para outro vírus respiratório</v>
       </c>
-      <c r="C115" s="1" t="str">
-        <f>VLOOKUP(A115,Tabela2[#All], 4, FALSE)</f>
+      <c r="C104" s="1" t="str">
+        <f>VLOOKUP(A104,Tabela2[#All], 4, FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B116" s="1" t="str">
-        <f>VLOOKUP(A116,Tabela2[#All], 2, FALSE)</f>
+      <c r="B105" s="1" t="str">
+        <f>VLOOKUP(A105,Tabela2[#All], 2, FALSE)</f>
         <v>Nome do outro vírus identificado pelo teste</v>
       </c>
-      <c r="C116" s="1" t="str">
-        <f>VLOOKUP(A116,Tabela2[#All], 4, FALSE)</f>
+      <c r="C105" s="1" t="str">
+        <f>VLOOKUP(A105,Tabela2[#All], 4, FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+    <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B117" s="1" t="str">
-        <f>VLOOKUP(A117,Tabela2[#All], 2, FALSE)</f>
+      <c r="B106" s="1" t="str">
+        <f>VLOOKUP(A106,Tabela2[#All], 2, FALSE)</f>
         <v>Tipo de amostra sorológica coletada</v>
       </c>
-      <c r="C117" s="1" t="str">
-        <f>VLOOKUP(A117,Tabela2[#All], 4, FALSE)</f>
+      <c r="C106" s="1" t="str">
+        <f>VLOOKUP(A106,Tabela2[#All], 4, FALSE)</f>
         <v xml:space="preserve">1- Sangue/plasma/soro_x000D_
 2-Outra, qual?_x000D_
 9-Ignorado </v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
+    <row r="107" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B118" s="1" t="str">
-        <f>VLOOKUP(A118,Tabela2[#All], 2, FALSE)</f>
+      <c r="B107" s="1" t="str">
+        <f>VLOOKUP(A107,Tabela2[#All], 2, FALSE)</f>
         <v>Tipo do teste sorológico para SARS-CoV-2</v>
       </c>
-      <c r="C118" s="1" t="str">
-        <f>VLOOKUP(A118,Tabela2[#All], 4, FALSE)</f>
+      <c r="C107" s="1" t="str">
+        <f>VLOOKUP(A107,Tabela2[#All], 4, FALSE)</f>
         <v>1-Teste rápido_x000D_
 2-Elisa_x000D_
 3- Quimiluminescência_x000D_
 4- Outro, qual</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B119" s="1" t="str">
-        <f>VLOOKUP(A119,Tabela2[#All], 2, FALSE)</f>
+      <c r="B108" s="1" t="str">
+        <f>VLOOKUP(A108,Tabela2[#All], 2, FALSE)</f>
         <v>Resultado da Sorologia para SARS-CoV-2</v>
       </c>
-      <c r="C119" s="1" t="str">
-        <f>VLOOKUP(A119,Tabela2[#All], 4, FALSE)</f>
+      <c r="C108" s="1" t="str">
+        <f>VLOOKUP(A108,Tabela2[#All], 4, FALSE)</f>
         <v>IgG (Imunoglobulina G)</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B120" s="1" t="str">
-        <f>VLOOKUP(A120,Tabela2[#All], 2, FALSE)</f>
+      <c r="B109" s="1" t="str">
+        <f>VLOOKUP(A109,Tabela2[#All], 2, FALSE)</f>
         <v>Resultado da Sorologia para SARS-CoV-2</v>
       </c>
-      <c r="C120" s="1" t="str">
-        <f>VLOOKUP(A120,Tabela2[#All], 4, FALSE)</f>
+      <c r="C109" s="1" t="str">
+        <f>VLOOKUP(A109,Tabela2[#All], 4, FALSE)</f>
         <v>IgM (Imunoglobulina M)</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B121" s="1" t="str">
-        <f>VLOOKUP(A121,Tabela2[#All], 2, FALSE)</f>
+      <c r="B110" s="1" t="str">
+        <f>VLOOKUP(A110,Tabela2[#All], 2, FALSE)</f>
         <v>Resultado da Sorologia para SARS-CoV-2</v>
       </c>
-      <c r="C121" s="1" t="str">
-        <f>VLOOKUP(A121,Tabela2[#All], 4, FALSE)</f>
+      <c r="C110" s="1" t="str">
+        <f>VLOOKUP(A110,Tabela2[#All], 4, FALSE)</f>
         <v>IgA (Imunoglobulina A)</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
+    <row r="111" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B122" s="1" t="str">
-        <f>VLOOKUP(A122,Tabela2[#All], 2, FALSE)</f>
+      <c r="B111" s="1" t="str">
+        <f>VLOOKUP(A111,Tabela2[#All], 2, FALSE)</f>
         <v>Paciente recebeu a vacina da COVID-19</v>
       </c>
-      <c r="C122" s="1" t="str">
-        <f>VLOOKUP(A122,Tabela2[#All], 4, FALSE)</f>
+      <c r="C111" s="1" t="str">
+        <f>VLOOKUP(A111,Tabela2[#All], 4, FALSE)</f>
         <v>1-Sim
 2-Não
 9-Ignorado</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B123" s="1" t="str">
-        <f>VLOOKUP(A123,Tabela2[#All], 2, FALSE)</f>
+      <c r="B112" s="1" t="str">
+        <f>VLOOKUP(A112,Tabela2[#All], 2, FALSE)</f>
         <v>Data que o paciente recebeu a 1a dose</v>
       </c>
-      <c r="C123" s="1" t="str">
-        <f>VLOOKUP(A123,Tabela2[#All], 4, FALSE)</f>
+      <c r="C112" s="1" t="str">
+        <f>VLOOKUP(A112,Tabela2[#All], 4, FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B124" s="1" t="str">
-        <f>VLOOKUP(A124,Tabela2[#All], 2, FALSE)</f>
+      <c r="B113" s="1" t="str">
+        <f>VLOOKUP(A113,Tabela2[#All], 2, FALSE)</f>
         <v>Data que o paciente recebeu a 2a dose</v>
       </c>
-      <c r="C124" s="1" t="str">
-        <f>VLOOKUP(A124,Tabela2[#All], 4, FALSE)</f>
+      <c r="C113" s="1" t="str">
+        <f>VLOOKUP(A113,Tabela2[#All], 4, FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B125" s="1" t="str">
-        <f>VLOOKUP(A125,Tabela2[#All], 2, FALSE)</f>
+      <c r="B114" s="1" t="str">
+        <f>VLOOKUP(A114,Tabela2[#All], 2, FALSE)</f>
         <v>Data que o paciente recebeu a dose de reforço</v>
       </c>
-      <c r="C125" s="1" t="str">
-        <f>VLOOKUP(A125,Tabela2[#All], 4, FALSE)</f>
+      <c r="C114" s="1" t="str">
+        <f>VLOOKUP(A114,Tabela2[#All], 4, FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="B126" s="1" t="str">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B115" s="1" t="str">
         <f>VLOOKUP("FAB_COV1",Tabela2[#All], 2, FALSE)</f>
         <v>Fabricante da vacina da 1a dose</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="B127" s="1" t="str">
+      <c r="C115" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B116" s="1" t="str">
         <f>VLOOKUP("FAB_COV2",Tabela2[#All], 2, FALSE)</f>
         <v>Fabricante da vacina da 2a dose</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
+      <c r="C116" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B128" s="1" t="str">
-        <f>VLOOKUP(A128,Tabela2[#All], 2, FALSE)</f>
+      <c r="B117" s="1" t="str">
+        <f>VLOOKUP(A117,Tabela2[#All], 2, FALSE)</f>
         <v>Fabricante da vacina da dose de reforço</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
+      <c r="C117" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B129" s="1" t="str">
-        <f>VLOOKUP(A129,Tabela2[#All], 2, FALSE)</f>
+      <c r="B118" s="1" t="str">
+        <f>VLOOKUP(A118,Tabela2[#All], 2, FALSE)</f>
         <v>Lote da dose de reforço da vacina</v>
       </c>
-      <c r="C129" s="1" t="str">
-        <f>VLOOKUP(A129,Tabela2[#All], 4, FALSE)</f>
+      <c r="C118" s="1" t="str">
+        <f>VLOOKUP(A118,Tabela2[#All], 4, FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="B130" s="1" t="e">
-        <f>VLOOKUP(A130,Tabela2[#All], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C130" s="1" t="e">
-        <f>VLOOKUP(A130,Tabela2[#All], 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B131" s="1" t="str">
-        <f>VLOOKUP(A131,Tabela2[#All], 2, FALSE)</f>
+      <c r="B119" s="1" t="str">
+        <f>VLOOKUP(A119,Tabela2[#All], 2, FALSE)</f>
         <v>Lote da 1a dose da vacina</v>
       </c>
-      <c r="C131" s="1" t="str">
-        <f>VLOOKUP(A131,Tabela2[#All], 4, FALSE)</f>
+      <c r="C119" s="1" t="str">
+        <f>VLOOKUP(A119,Tabela2[#All], 4, FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B132" s="1" t="str">
-        <f>VLOOKUP(A132,Tabela2[#All], 2, FALSE)</f>
+      <c r="B120" s="1" t="str">
+        <f>VLOOKUP(A120,Tabela2[#All], 2, FALSE)</f>
         <v>Lote da 2a dose da vacina</v>
       </c>
-      <c r="C132" s="1" t="str">
-        <f>VLOOKUP(A132,Tabela2[#All], 4, FALSE)</f>
+      <c r="C120" s="1" t="str">
+        <f>VLOOKUP(A120,Tabela2[#All], 4, FALSE)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Organizando dados.xlsx
+++ b/Organizando dados.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projetos\Projeto-Analise-de-Dados-SRAG-2021---2024-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C88CD3F-5B78-42B2-8F25-AB26240333BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEED2F8E-D6C3-4229-87F2-DA79CF5D97DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{ED5AD74C-555A-40DA-A62E-D3459C7593AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{ED5AD74C-555A-40DA-A62E-D3459C7593AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Dicionário de dados" sheetId="1" r:id="rId1"/>
     <sheet name="Colunas 2021" sheetId="2" r:id="rId2"/>
+    <sheet name="Colunas 2022" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="434">
   <si>
     <t>Colunas</t>
   </si>
@@ -765,13 +766,6 @@
     <t>Se TRAT_COV == 1, qual antiviral</t>
   </si>
   <si>
-    <t>1-Nirmatrevir/ritonavir
-(Paxlovid ®)
-2- Molnupiravir(Lagevrio®)
-3- Baricitinibe (Olumiant®)
-4- Outro, especifique</t>
-  </si>
-  <si>
     <t>OUT_TRAT</t>
   </si>
   <si>
@@ -1452,6 +1446,18 @@
   </si>
   <si>
     <t>País de viagem do paciente</t>
+  </si>
+  <si>
+    <t>FAB_COVREF</t>
+  </si>
+  <si>
+    <t>1-Nirmatrevir/ritonavir(Paxlovid ®)
+2- Molnupiravir(Lagevrio®)
+3- Baricitinibe (Olumiant®)
+4- Outro, especifique</t>
+  </si>
+  <si>
+    <t>Esta com nome FAB_COVRF no dicionário</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1520,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1575,14 +1590,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{15A3C35E-69DB-49C3-8782-A477CA4F7916}" name="Tabela2" displayName="Tabela2" ref="A1:E180" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{15A3C35E-69DB-49C3-8782-A477CA4F7916}" name="Tabela2" displayName="Tabela2" ref="A1:E180" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:E180" xr:uid="{15A3C35E-69DB-49C3-8782-A477CA4F7916}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1CF15E86-3FDE-4FFA-9334-2AEBB16457FE}" name="Colunas" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{0CEBB635-FD59-43DF-B13A-7590569F95EA}" name="Descrição" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{7AA778D0-3214-431F-8677-07FA74A3315A}" name="Colunas que serao desconsideradas" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{519AB8D9-E9F1-42C7-99BD-27E35607C102}" name="Comentarios" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{09C524F9-C1AA-4C82-8E7C-4791DD8BBFB7}" name="Porque sera desconsiderada" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{1CF15E86-3FDE-4FFA-9334-2AEBB16457FE}" name="Colunas" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{0CEBB635-FD59-43DF-B13A-7590569F95EA}" name="Descrição" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{7AA778D0-3214-431F-8677-07FA74A3315A}" name="Colunas que serao desconsideradas" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{519AB8D9-E9F1-42C7-99BD-27E35607C102}" name="Comentarios" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{09C524F9-C1AA-4C82-8E7C-4791DD8BBFB7}" name="Porque sera desconsiderada" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1592,11 +1607,27 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F0710EE-F857-4ED5-AD97-1D4A264D9A60}" name="Tabela1" displayName="Tabela1" ref="A1:C120" totalsRowShown="0">
   <autoFilter ref="A1:C120" xr:uid="{3F0710EE-F857-4ED5-AD97-1D4A264D9A60}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C689C462-CF9A-4A49-9651-2D11B10EBFDA}" name="Coluna" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{17816C4B-1900-4889-B6B8-D193E59A1621}" name="Descrição" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{C689C462-CF9A-4A49-9651-2D11B10EBFDA}" name="Coluna" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{17816C4B-1900-4889-B6B8-D193E59A1621}" name="Descrição" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP(A2,Tabela2[#All], 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BAFED104-51D5-4C6B-AEE2-A7443C1CD690}" name="Comentarios" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{BAFED104-51D5-4C6B-AEE2-A7443C1CD690}" name="Comentarios" dataDxfId="3">
+      <calculatedColumnFormula>VLOOKUP(A2,Tabela2[#All], 4, FALSE)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{22DCAE45-34F3-43DA-ABB2-A390DE9C0B09}" name="Tabela5" displayName="Tabela5" ref="A1:C125" totalsRowShown="0">
+  <autoFilter ref="A1:C125" xr:uid="{22DCAE45-34F3-43DA-ABB2-A390DE9C0B09}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C12E8AFF-7332-431B-B8AB-E18936ED34F4}" name="Coluna" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{C5A45C42-4987-4EBE-8150-FAD68D1402CA}" name="Descrição" dataDxfId="1">
+      <calculatedColumnFormula>VLOOKUP(A2,Tabela2[#All], 2, FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{AFDD444F-E3D6-46B1-A5BB-F2EB0B5AA68A}" name="Comentarios" dataDxfId="0">
       <calculatedColumnFormula>VLOOKUP(A2,Tabela2[#All], 4, FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1923,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831FF6EA-A12F-46F3-B86A-ED578ABDB804}">
   <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2346,7 +2377,7 @@
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>69</v>
@@ -3585,7 +3616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>223</v>
       </c>
@@ -3596,7 +3627,7 @@
         <v>12</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>225</v>
+        <v>432</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>8</v>
@@ -3604,10 +3635,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>7</v>
@@ -3621,10 +3652,10 @@
     </row>
     <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>7</v>
@@ -3638,10 +3669,10 @@
     </row>
     <row r="101" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
@@ -3655,10 +3686,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>7</v>
@@ -3667,15 +3698,15 @@
         <v>8</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
@@ -3689,10 +3720,10 @@
     </row>
     <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
@@ -3706,10 +3737,10 @@
     </row>
     <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
@@ -3723,10 +3754,10 @@
     </row>
     <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
@@ -3740,10 +3771,10 @@
     </row>
     <row r="107" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
@@ -3757,10 +3788,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
@@ -3774,10 +3805,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
@@ -3791,16 +3822,16 @@
     </row>
     <row r="110" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>8</v>
@@ -3808,16 +3839,16 @@
     </row>
     <row r="111" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>8</v>
@@ -3825,10 +3856,10 @@
     </row>
     <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>7</v>
@@ -3837,15 +3868,15 @@
         <v>8</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>7</v>
@@ -3859,16 +3890,16 @@
     </row>
     <row r="114" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>8</v>
@@ -3876,10 +3907,10 @@
     </row>
     <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>7</v>
@@ -3888,15 +3919,15 @@
         <v>8</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>7</v>
@@ -3910,10 +3941,10 @@
     </row>
     <row r="117" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
@@ -3927,10 +3958,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>7</v>
@@ -3944,16 +3975,16 @@
     </row>
     <row r="119" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>8</v>
@@ -3961,10 +3992,10 @@
     </row>
     <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>7</v>
@@ -3973,15 +4004,15 @@
         <v>8</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>7</v>
@@ -3995,16 +4026,16 @@
     </row>
     <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>8</v>
@@ -4012,10 +4043,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>7</v>
@@ -4029,16 +4060,16 @@
     </row>
     <row r="124" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>8</v>
@@ -4046,10 +4077,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
@@ -4063,10 +4094,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>7</v>
@@ -4080,16 +4111,16 @@
     </row>
     <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>8</v>
@@ -4097,16 +4128,16 @@
     </row>
     <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>8</v>
@@ -4114,16 +4145,16 @@
     </row>
     <row r="129" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>8</v>
@@ -4131,10 +4162,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
@@ -4148,10 +4179,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
@@ -4165,10 +4196,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
@@ -4182,10 +4213,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
@@ -4199,10 +4230,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
@@ -4216,10 +4247,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
@@ -4233,10 +4264,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
@@ -4250,10 +4281,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
@@ -4267,16 +4298,16 @@
     </row>
     <row r="138" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>8</v>
@@ -4284,10 +4315,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>7</v>
@@ -4301,16 +4332,16 @@
     </row>
     <row r="140" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>8</v>
@@ -4318,16 +4349,16 @@
     </row>
     <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>8</v>
@@ -4335,16 +4366,16 @@
     </row>
     <row r="142" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>8</v>
@@ -4352,10 +4383,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>7</v>
@@ -4364,21 +4395,21 @@
         <v>8</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>8</v>
@@ -4386,10 +4417,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>7</v>
@@ -4398,15 +4429,15 @@
         <v>8</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
@@ -4420,10 +4451,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
@@ -4437,10 +4468,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
@@ -4454,10 +4485,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
@@ -4471,10 +4502,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
@@ -4488,10 +4519,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
@@ -4505,10 +4536,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
@@ -4522,10 +4553,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
@@ -4539,10 +4570,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
@@ -4556,10 +4587,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
@@ -4573,10 +4604,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
@@ -4590,10 +4621,10 @@
     </row>
     <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
@@ -4607,10 +4638,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>7</v>
@@ -4619,15 +4650,15 @@
         <v>8</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
@@ -4641,16 +4672,16 @@
     </row>
     <row r="160" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>8</v>
@@ -4658,10 +4689,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
@@ -4675,10 +4706,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>7</v>
@@ -4692,16 +4723,16 @@
     </row>
     <row r="163" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>8</v>
@@ -4709,10 +4740,10 @@
     </row>
     <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>7</v>
@@ -4721,15 +4752,15 @@
         <v>8</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>7</v>
@@ -4738,21 +4769,21 @@
         <v>8</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>8</v>
@@ -4760,16 +4791,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>8</v>
@@ -4777,16 +4808,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>8</v>
@@ -4794,10 +4825,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>7</v>
@@ -4811,16 +4842,16 @@
     </row>
     <row r="170" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>8</v>
@@ -4828,10 +4859,10 @@
     </row>
     <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>7</v>
@@ -4840,21 +4871,21 @@
         <v>8</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>8</v>
@@ -4862,16 +4893,16 @@
     </row>
     <row r="173" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>8</v>
@@ -4879,10 +4910,10 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>7</v>
@@ -4896,10 +4927,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>7</v>
@@ -4913,10 +4944,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>7</v>
@@ -4930,10 +4961,10 @@
     </row>
     <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>7</v>
@@ -4942,15 +4973,15 @@
         <v>8</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>7</v>
@@ -4964,10 +4995,10 @@
     </row>
     <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>7</v>
@@ -4981,10 +5012,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>7</v>
@@ -5009,8 +5040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFEC88C-6AFE-43DD-B607-144D5438B390}">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5022,7 +5053,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5073,7 +5104,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
@@ -5081,7 +5112,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
@@ -5089,7 +5120,7 @@
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>25</v>
@@ -5201,7 +5232,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>95</v>
@@ -5222,7 +5253,7 @@
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>78</v>
@@ -5230,7 +5261,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>80</v>
@@ -5769,7 +5800,7 @@
     </row>
     <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B54" s="1" t="str">
         <f>VLOOKUP(A54,Tabela2[#All], 2, FALSE)</f>
@@ -5784,7 +5815,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B55" s="1" t="str">
         <f>VLOOKUP(A55,Tabela2[#All], 2, FALSE)</f>
@@ -5797,23 +5828,23 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B58" s="1" t="str">
         <f>VLOOKUP(A58,Tabela2[#All], 2, FALSE)</f>
@@ -5828,7 +5859,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B59" s="1" t="str">
         <f>VLOOKUP(A59,Tabela2[#All], 2, FALSE)</f>
@@ -5841,7 +5872,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B60" s="1" t="str">
         <f>VLOOKUP(A60,Tabela2[#All], 2, FALSE)</f>
@@ -5854,7 +5885,7 @@
     </row>
     <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B61" s="1" t="str">
         <f>VLOOKUP(A61,Tabela2[#All], 2, FALSE)</f>
@@ -5870,7 +5901,7 @@
     </row>
     <row r="62" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B62" s="1" t="str">
         <f>VLOOKUP(A62,Tabela2[#All], 2, FALSE)</f>
@@ -5889,7 +5920,7 @@
     </row>
     <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B63" s="1" t="str">
         <f>VLOOKUP(A63,Tabela2[#All], 2, FALSE)</f>
@@ -5904,7 +5935,7 @@
     </row>
     <row r="64" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B64" s="1" t="str">
         <f>VLOOKUP(A64,Tabela2[#All], 2, FALSE)</f>
@@ -5922,7 +5953,7 @@
     </row>
     <row r="65" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B65" s="1" t="str">
         <f>VLOOKUP(A65,Tabela2[#All], 2, FALSE)</f>
@@ -5940,7 +5971,7 @@
     </row>
     <row r="66" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B66" s="1" t="str">
         <f>VLOOKUP(A66,Tabela2[#All], 2, FALSE)</f>
@@ -5955,7 +5986,7 @@
     </row>
     <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B67" s="1" t="str">
         <f>VLOOKUP(A67,Tabela2[#All], 2, FALSE)</f>
@@ -5969,7 +6000,7 @@
     </row>
     <row r="68" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B68" s="1" t="str">
         <f>VLOOKUP(A68,Tabela2[#All], 2, FALSE)</f>
@@ -5987,7 +6018,7 @@
     </row>
     <row r="69" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B69" s="1" t="str">
         <f>VLOOKUP(A69,Tabela2[#All], 2, FALSE)</f>
@@ -6004,7 +6035,7 @@
     </row>
     <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B70" s="1" t="str">
         <f>VLOOKUP(A70,Tabela2[#All], 2, FALSE)</f>
@@ -6019,7 +6050,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B71" s="1" t="str">
         <f>VLOOKUP(A71,Tabela2[#All], 2, FALSE)</f>
@@ -6032,7 +6063,7 @@
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B72" s="1" t="str">
         <f>VLOOKUP(A72,Tabela2[#All], 2, FALSE)</f>
@@ -6045,7 +6076,7 @@
     </row>
     <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B73" s="1" t="str">
         <f>VLOOKUP(A73,Tabela2[#All], 2, FALSE)</f>
@@ -6058,7 +6089,7 @@
     </row>
     <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B74" s="1" t="str">
         <f>VLOOKUP(A74,Tabela2[#All], 2, FALSE)</f>
@@ -6071,7 +6102,7 @@
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B75" s="1" t="str">
         <f>VLOOKUP(A75,Tabela2[#All], 2, FALSE)</f>
@@ -6084,7 +6115,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B76" s="1" t="str">
         <f>VLOOKUP(A76,Tabela2[#All], 2, FALSE)</f>
@@ -6097,7 +6128,7 @@
     </row>
     <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B77" s="1" t="str">
         <f>VLOOKUP(A77,Tabela2[#All], 2, FALSE)</f>
@@ -6110,7 +6141,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B78" s="1" t="str">
         <f>VLOOKUP(A78,Tabela2[#All], 2, FALSE)</f>
@@ -6123,7 +6154,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B79" s="1" t="str">
         <f>VLOOKUP(A79,Tabela2[#All], 2, FALSE)</f>
@@ -6136,7 +6167,7 @@
     </row>
     <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B80" s="1" t="str">
         <f>VLOOKUP(A80,Tabela2[#All], 2, FALSE)</f>
@@ -6149,7 +6180,7 @@
     </row>
     <row r="81" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B81" s="1" t="str">
         <f>VLOOKUP(A81,Tabela2[#All], 2, FALSE)</f>
@@ -6166,7 +6197,7 @@
     </row>
     <row r="82" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B82" s="1" t="str">
         <f>VLOOKUP(A82,Tabela2[#All], 2, FALSE)</f>
@@ -6182,7 +6213,7 @@
     </row>
     <row r="83" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B83" s="1" t="str">
         <f>VLOOKUP(A83,Tabela2[#All], 2, FALSE)</f>
@@ -6198,10 +6229,10 @@
     </row>
     <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>98</v>
@@ -6209,18 +6240,18 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6298,7 +6329,7 @@
     </row>
     <row r="92" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B92" s="1" t="str">
         <f>VLOOKUP(A92,Tabela2[#All], 2, FALSE)</f>
@@ -6317,7 +6348,7 @@
     </row>
     <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B93" s="1" t="str">
         <f>VLOOKUP(A93,Tabela2[#All], 2, FALSE)</f>
@@ -6331,7 +6362,7 @@
     </row>
     <row r="94" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B94" s="1" t="str">
         <f>VLOOKUP(A94,Tabela2[#All], 2, FALSE)</f>
@@ -6349,7 +6380,7 @@
     </row>
     <row r="95" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B95" s="1" t="str">
         <f>VLOOKUP(A95,Tabela2[#All], 2, FALSE)</f>
@@ -6364,7 +6395,7 @@
     </row>
     <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B96" s="1" t="str">
         <f>VLOOKUP(A96,Tabela2[#All], 2, FALSE)</f>
@@ -6378,7 +6409,7 @@
     </row>
     <row r="97" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B97" s="1" t="str">
         <f>VLOOKUP(A97,Tabela2[#All], 2, FALSE)</f>
@@ -6393,7 +6424,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B98" s="1" t="str">
         <f>VLOOKUP(A98,Tabela2[#All], 2, FALSE)</f>
@@ -6406,7 +6437,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B99" s="1" t="str">
         <f>VLOOKUP(A99,Tabela2[#All], 2, FALSE)</f>
@@ -6419,7 +6450,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B100" s="1" t="str">
         <f>VLOOKUP(A100,Tabela2[#All], 2, FALSE)</f>
@@ -6432,7 +6463,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B101" s="1" t="str">
         <f>VLOOKUP(A101,Tabela2[#All], 2, FALSE)</f>
@@ -6445,7 +6476,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B102" s="1" t="str">
         <f>VLOOKUP(A102,Tabela2[#All], 2, FALSE)</f>
@@ -6458,7 +6489,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B103" s="1" t="str">
         <f>VLOOKUP(A103,Tabela2[#All], 2, FALSE)</f>
@@ -6471,7 +6502,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B104" s="1" t="str">
         <f>VLOOKUP(A104,Tabela2[#All], 2, FALSE)</f>
@@ -6484,7 +6515,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B105" s="1" t="str">
         <f>VLOOKUP(A105,Tabela2[#All], 2, FALSE)</f>
@@ -6497,7 +6528,7 @@
     </row>
     <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B106" s="1" t="str">
         <f>VLOOKUP(A106,Tabela2[#All], 2, FALSE)</f>
@@ -6512,7 +6543,7 @@
     </row>
     <row r="107" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B107" s="1" t="str">
         <f>VLOOKUP(A107,Tabela2[#All], 2, FALSE)</f>
@@ -6528,7 +6559,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B108" s="1" t="str">
         <f>VLOOKUP(A108,Tabela2[#All], 2, FALSE)</f>
@@ -6541,7 +6572,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B109" s="1" t="str">
         <f>VLOOKUP(A109,Tabela2[#All], 2, FALSE)</f>
@@ -6554,7 +6585,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B110" s="1" t="str">
         <f>VLOOKUP(A110,Tabela2[#All], 2, FALSE)</f>
@@ -6621,26 +6652,26 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B115" s="1" t="str">
         <f>VLOOKUP("FAB_COV1",Tabela2[#All], 2, FALSE)</f>
         <v>Fabricante da vacina da 1a dose</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B116" s="1" t="str">
         <f>VLOOKUP("FAB_COV2",Tabela2[#All], 2, FALSE)</f>
         <v>Fabricante da vacina da 2a dose</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -6652,7 +6683,7 @@
         <v>Fabricante da vacina da dose de reforço</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -6699,6 +6730,1784 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF9289B-A554-48A1-A389-CBF5BD58907C}">
+  <dimension ref="A1:C125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="74.5703125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>VLOOKUP(A2,Tabela1[#All], 2, FALSE)</f>
+        <v>Semana Epidemiológica do preenchimento da ficha de notificação</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>VLOOKUP(A2,Tabela1[#All], 3, FALSE)</f>
+        <v>As Semanas Epidemiológicas (SE) são contadas de um Domingo até o Sábado.
+Se o ano começa em uma segunda-feira, a 1ª SE começará no domingo da mesma semana.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>VLOOKUP(A3,Tabela1[#All], 2, FALSE)</f>
+        <v>Semana Epidemiológica do início dos sintomas</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>VLOOKUP(A3,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>VLOOKUP(A4,Tabela1[#All], 2, FALSE)</f>
+        <v>Unidade Federativa</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>VLOOKUP(A4,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>VLOOKUP(A5,Tabela1[#All], 2, FALSE)</f>
+        <v>Regional de Saúde</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>VLOOKUP(A6,Tabela1[#All], 2, FALSE)</f>
+        <v>Município</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>VLOOKUP(A7,Tabela1[#All], 2, FALSE)</f>
+        <v>Unidade que realizou o atendimento, coleta de amostra e registro do caso</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f>VLOOKUP(A8,Tabela1[#All], 2, FALSE)</f>
+        <v>Sexo do paciente</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>VLOOKUP(A8,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Masculino
+2-Feminino
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>VLOOKUP(A9,Tabela1[#All], 2, FALSE)</f>
+        <v>Idade do paciente</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>VLOOKUP(A9,Tabela1[#All], 3, FALSE)</f>
+        <v>Caso tenha sido fornecida a data de nascimento esse campo é preenchido automaticamente (considerando o intervalo entre a data de nascimento e a data dos primeiros sintomas), caso não, é preenchido com a idade informada pelo paciente</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>VLOOKUP(A10,Tabela1[#All], 2, FALSE)</f>
+        <v>Tipo do campo idade</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>VLOOKUP(A10,Tabela1[#All], 3, FALSE)</f>
+        <v>Se a diferença entre a data de nascimento e a data dos primeiros sintomas for:
+Menor que 1 mês: o tipo é preenchido como 1-Dia
+De 1 a 11 meses: o tipo é preenchido como 2-Mês
+Maior ou igual a 12 meses: o tipo é preenchido como 3-Ano</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>VLOOKUP(A11,Tabela1[#All], 2, FALSE)</f>
+        <v xml:space="preserve">Idade gestacional da paciente.
+</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>VLOOKUP(A11,Tabela1[#All], 3, FALSE)</f>
+        <v>1-1º Trimestre
+2-2º Trimestre
+3-3º Trimestre
+4-Idade Gestacional Ignorada
+5-Não
+6-Não se aplica
+9-Ignorado
+Se selecionado sexo igual a Masculino ou a idade for menor ou igual a 9 anos o campo é preenchido automaticamente com 6-Não se aplica</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>VLOOKUP(A12,Tabela1[#All], 2, FALSE)</f>
+        <v>Cor ou raça declarada pelo paciente</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>VLOOKUP(A12,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Branca
+2-Preta
+3-Amarela
+4-Parda
+5-Indígena
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>VLOOKUP(A13,Tabela1[#All], 2, FALSE)</f>
+        <v>Nível de escolaridade do paciente</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>VLOOKUP(A13,Tabela1[#All], 3, FALSE)</f>
+        <v>0-Sem escolaridade/ Analfabeto
+1-Fundamental 1º ciclo (1ª a 5ª série)
+2-Fundamental 2º ciclo (6ª a 9ª série)
+3- Médio (1º ao 3º ano)
+4-Superior
+5-Não se aplica
+9-Ignorado
+Se o paciente tiver menos de 7 anos é automaticamente preenchido com a categoria “não se aplica”</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f>VLOOKUP(A14,Tabela1[#All], 2, FALSE)</f>
+        <v>País de residência do paciente</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>VLOOKUP(A15,Tabela1[#All], 2, FALSE)</f>
+        <v>UF da residência</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>VLOOKUP(A16,Tabela1[#All], 2, FALSE)</f>
+        <v>Regional de Saúde onde está localizado o Município de residência do paciente</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f>VLOOKUP(A17,Tabela1[#All], 2, FALSE)</f>
+        <v>Município de residência do paciente</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>VLOOKUP(A18,Tabela1[#All], 2, FALSE)</f>
+        <v>Zona geográfica da residência</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>VLOOKUP(A18,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Urbana
+2-Rural
+3-Periurbana
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>VLOOKUP(A19,Tabela1[#All], 2, FALSE)</f>
+        <v>Caso de SRAG com infecção adquirida após internação</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f>VLOOKUP(A19,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>VLOOKUP(A20,Tabela1[#All], 2, FALSE)</f>
+        <v>Caso com contato direto com aves ou suínos</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f>VLOOKUP(A20,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>VLOOKUP(A21,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente apresentou febre</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f>VLOOKUP(A21,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>VLOOKUP(A22,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente apresentou tosse</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f>VLOOKUP(A22,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>VLOOKUP(A23,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente apresentou dor de garganta</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f>VLOOKUP(A23,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>VLOOKUP(A24,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente apresentou dispneia</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f>VLOOKUP(A24,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>VLOOKUP(A25,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente apresentou desconforto respiratório</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f>VLOOKUP(A25,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>VLOOKUP(A26,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente apresentou saturção O2 &lt; 95%</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f>VLOOKUP(A26,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>VLOOKUP(A27,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente apresentou diarreia</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f>VLOOKUP(A27,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>VLOOKUP(A28,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente apresentou vômito</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f>VLOOKUP(A28,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>VLOOKUP(A29,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente apresentou outros sintomas</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f>VLOOKUP(A29,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>VLOOKUP(A30,Tabela1[#All], 2, FALSE)</f>
+        <v>Lista outros sintomas</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f>VLOOKUP(A30,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>VLOOKUP(A31,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente é puérpera ou parturiente (até 45 dias após o parto)</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f>VLOOKUP(A31,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>VLOOKUP(A32,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente apresenta algum fator de risco</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f>VLOOKUP(A32,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f>VLOOKUP(A33,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente possui doença cardiovascular crônica</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f>VLOOKUP(A33,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f>VLOOKUP(A34,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente possui doença hematológica crônica</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>VLOOKUP(A34,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f>VLOOKUP(A35,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente possui síndrome de down</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f>VLOOKUP(A35,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f>VLOOKUP(A36,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente possui doença hepática crônica</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f>VLOOKUP(A36,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f>VLOOKUP(A37,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente possui asma</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f>VLOOKUP(A37,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f>VLOOKUP(A38,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente possui diabetes mellitus</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f>VLOOKUP(A38,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f>VLOOKUP(A39,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente possui doença neurológica</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f>VLOOKUP(A39,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f>VLOOKUP(A40,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente possui pneumopatia crônica</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f>VLOOKUP(A40,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f>VLOOKUP(A41,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente possui imunodeficiência ou imunodpressão</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f>VLOOKUP(A41,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <f>VLOOKUP(A42,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente possui doença renal crônica</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f>VLOOKUP(A42,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="1" t="str">
+        <f>VLOOKUP(A43,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente possui obesidade</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f>VLOOKUP(A43,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="1" t="str">
+        <f>VLOOKUP(A44,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente possui outro fator de risco</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f>VLOOKUP(A44,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="1" t="str">
+        <f>VLOOKUP(A45,Tabela1[#All], 2, FALSE)</f>
+        <v>Lista outros fatores de risco do paciente</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f>VLOOKUP(A45,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" s="1" t="str">
+        <f>VLOOKUP(A46,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente foi vacinado contra a gripe na última campanha</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f>VLOOKUP(A46,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" s="1" t="str">
+        <f>VLOOKUP(A47,Tabela1[#All], 2, FALSE)</f>
+        <v>Se o paciente tiver menos que 6 meses de vida, a mãe recebeu vacina</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f>VLOOKUP(A47,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f>VLOOKUP(A48,Tabela1[#All], 2, FALSE)</f>
+        <v>Se o paciente tiver menos que 6 meses, a mãe amamenta a criança</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f>VLOOKUP(A48,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <f>VLOOKUP(A49,Tabela1[#All], 2, FALSE)</f>
+        <v>Se o paciente tiver entre 6 meses e 8 anos, data da dose única para crianças vacinadas em campanhas de anos anteriores</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f>VLOOKUP(A49,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <f>VLOOKUP(A50,Tabela1[#All], 2, FALSE)</f>
+        <v>Se o paciente tiver entre 6 meses e 8 anos, data da 1a dose para crianças vacinadas pela primeira vez</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f>VLOOKUP(A50,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <f>VLOOKUP(A51,Tabela1[#All], 2, FALSE)</f>
+        <v>Se o paciente tiver entre 6 meses e 8 anos, data da 2a dose para crianças vacinadas pela primeira vez</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f>VLOOKUP(A51,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f>VLOOKUP(A52,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente usou antiviral para gripe</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f>VLOOKUP(A52,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f>VLOOKUP(A53,Tabela1[#All], 2, FALSE)</f>
+        <v>Qual antiviral</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f>VLOOKUP(A53,Tabela1[#All], 3, FALSE)</f>
+        <v>1- Oseltamivir
+2- Zanamivir
+3- Outro, especifique</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f>VLOOKUP(A54,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente foi internado</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f>VLOOKUP(A54,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f>VLOOKUP(A55,Tabela1[#All], 2, FALSE)</f>
+        <v>UF onde o paciente foi internado</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f>VLOOKUP(A55,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f>VLOOKUP(A56,Tabela1[#All], 2, FALSE)</f>
+        <v>Regional de Saúde onde o paciente foi internado</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B57" s="1" t="str">
+        <f>VLOOKUP(A57,Tabela1[#All], 2, FALSE)</f>
+        <v>Município onde o paciente foi internado</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B58" s="1" t="str">
+        <f>VLOOKUP(A58,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente foi internado na UTI</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f>VLOOKUP(A58,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f>VLOOKUP(A59,Tabela1[#All], 2, FALSE)</f>
+        <v>Data de entrada na UTI</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f>VLOOKUP(A59,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B60" s="1" t="str">
+        <f>VLOOKUP(A60,Tabela1[#All], 2, FALSE)</f>
+        <v>Data de saída da UTI</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f>VLOOKUP(A60,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <f>VLOOKUP(A61,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente fez uso de suporte ventilatório</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f>VLOOKUP(A61,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim, invasivo
+2-Sim, não invasivo
+3-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B62" s="1" t="str">
+        <f>VLOOKUP(A62,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado Raio-X de tórax</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f>VLOOKUP(A62,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Normal_x000D_
+2-Infiltrado intersticial_x000D_
+3-Consolidação_x000D_
+4-Misto_x000D_
+5-Outro_x000D_
+6-Não realizado_x000D_
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <f>VLOOKUP(A63,Tabela1[#All], 2, FALSE)</f>
+        <v>Foi realizado coleta de amostra na realização do teste diagnóstico</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f>VLOOKUP(A63,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B64" s="1" t="str">
+        <f>VLOOKUP(A64,Tabela1[#All], 2, FALSE)</f>
+        <v>Tipo da amostra</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f>VLOOKUP(A64,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Secreção de Nasoorofaringe_x000D_
+2-Lavado Broco-alveolar_x000D_
+3-Tecido post-mortem_x000D_
+4-Outra, qual?_x000D_
+5-LCR_x000D_
+9-Ignorado_x000D_</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B65" s="1" t="str">
+        <f>VLOOKUP(A65,Tabela1[#All], 2, FALSE)</f>
+        <v>Se for colhida amostra, resultado do teste RT-PCR ou outro método</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f>VLOOKUP(A65,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Detectável
+2-Não Detectável
+3-Inconclusivo
+4-Não Realizado
+5-Aguardando Resultado
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B66" s="1" t="str">
+        <f>VLOOKUP(A66,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado do RT-PCR foi positivo para influenza</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f>VLOOKUP(A66,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim_x000D_
+2-Não_x000D_
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B67" s="1" t="str">
+        <f>VLOOKUP(A67,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado do diagnóstico do RT-PCR para o tipo de influenza</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f>VLOOKUP(A67,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Influenza A_x000D_
+2-Influenza B</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B68" s="1" t="str">
+        <f>VLOOKUP(A68,Tabela1[#All], 2, FALSE)</f>
+        <v>Subtipo para Influenza A</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f>VLOOKUP(A68,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Influenza A(H1N1)pdm09_x000D_
+2-Influenza A (H3N2)_x000D_
+3-Influenza A não subtipado_x000D_
+4-Influenza A não subtipável_x000D_
+5-Inconclusivo_x000D_
+6-Outro, especifique</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B69" s="1" t="str">
+        <f>VLOOKUP(A69,Tabela1[#All], 2, FALSE)</f>
+        <v>Linhagem da Influenza B</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f>VLOOKUP(A69,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Victoria
+2-Yamagatha
+3-Não realizado
+4-Inconclusivo
+5-Outro, especifique:</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B70" s="1" t="str">
+        <f>VLOOKUP(A70,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado do RT-PCR foi positivo para outro vírus respiratório</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f>VLOOKUP(A70,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f>VLOOKUP(A71,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para VSR</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f>VLOOKUP(A71,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f>VLOOKUP(A72,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 1</v>
+      </c>
+      <c r="C72" s="1" t="str">
+        <f>VLOOKUP(A72,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B73" s="1" t="str">
+        <f>VLOOKUP(A73,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 2</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f>VLOOKUP(A73,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B74" s="1" t="str">
+        <f>VLOOKUP(A74,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 3</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <f>VLOOKUP(A74,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B75" s="1" t="str">
+        <f>VLOOKUP(A75,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 4</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f>VLOOKUP(A75,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B76" s="1" t="str">
+        <f>VLOOKUP(A76,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Adenovírus</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f>VLOOKUP(A76,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B77" s="1" t="str">
+        <f>VLOOKUP(A77,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Metapneumovírus</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f>VLOOKUP(A77,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B78" s="1" t="str">
+        <f>VLOOKUP(A78,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Bocavírus</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f>VLOOKUP(A78,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B79" s="1" t="str">
+        <f>VLOOKUP(A79,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Rinovírus</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f>VLOOKUP(A79,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B80" s="1" t="str">
+        <f>VLOOKUP(A80,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para outro vírus respiratório</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <f>VLOOKUP(A80,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B81" s="1" t="str">
+        <f>VLOOKUP(A81,Tabela1[#All], 2, FALSE)</f>
+        <v>Diagnóstico final do caso</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <f>VLOOKUP(A81,Tabela1[#All], 3, FALSE)</f>
+        <v>1-SRAG por influenza
+2-SRAG por outro vírus respiratório
+3-SRAG por outro agente etiológico, qual:
+4-SRAG não especificado
+5-SRAG por covid-19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B82" s="1" t="str">
+        <f>VLOOKUP(A82,Tabela1[#All], 2, FALSE)</f>
+        <v>Critério de confirmação</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f>VLOOKUP(A82,Tabela1[#All], 3, FALSE)</f>
+        <v>1. Laboratorial_x000D_
+2. Clínico Epidemiológico_x000D_
+3. Clínico_x000D_
+4. Clínico Imagem</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B83" s="1" t="str">
+        <f>VLOOKUP(A83,Tabela1[#All], 2, FALSE)</f>
+        <v>Evolução do caso</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f>VLOOKUP(A83,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Cura
+2-Óbito
+3- Óbito por outras causas
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B84" s="1" t="str">
+        <f>VLOOKUP(A84,Tabela1[#All], 2, FALSE)</f>
+        <v>Histórico de viagem do paciente</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f>VLOOKUP(A84,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B85" s="1" t="str">
+        <f>VLOOKUP(A85,Tabela1[#All], 2, FALSE)</f>
+        <v>País de viagem do paciente</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B86" s="1" t="str">
+        <f>VLOOKUP(A86,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para SARS2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="1" t="str">
+        <f>VLOOKUP(A87,Tabela1[#All], 2, FALSE)</f>
+        <v>Caso contato com outro animal, o mesmo deve ser especificado</v>
+      </c>
+      <c r="C87" s="1" t="str">
+        <f>VLOOKUP(A87,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B88" s="1" t="str">
+        <f>VLOOKUP(A88,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente apresentou dor abdominal</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <f>VLOOKUP(A88,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" s="1" t="str">
+        <f>VLOOKUP(A89,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente apresentou fadiga</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <f>VLOOKUP(A89,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="1" t="str">
+        <f>VLOOKUP(A90,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente apresentou perda do olfato</v>
+      </c>
+      <c r="C90" s="1" t="str">
+        <f>VLOOKUP(A90,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="1" t="str">
+        <f>VLOOKUP(A91,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente apresentou perda do paladar</v>
+      </c>
+      <c r="C91" s="1" t="str">
+        <f>VLOOKUP(A91,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B92" s="1" t="str">
+        <f>VLOOKUP(A92,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado da tomografia</v>
+      </c>
+      <c r="C92" s="1" t="str">
+        <f>VLOOKUP(A92,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Tipico covid-19_x000D_
+2- Indeterminado covid-19_x000D_
+3- Atípico covid-19_x000D_
+4- Negativo para Pneumonia_x000D_
+5- Outro_x000D_
+6-Não realizado_x000D_
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B93" s="1" t="str">
+        <f>VLOOKUP(A93,Tabela1[#All], 2, FALSE)</f>
+        <v>Tipo de teste antigênico</v>
+      </c>
+      <c r="C93" s="1" t="str">
+        <f>VLOOKUP(A93,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Imunofluorescência (IF)_x000D_
+2- Teste rápido antigênico</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B94" s="1" t="str">
+        <f>VLOOKUP(A94,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado do teste antigênico</v>
+      </c>
+      <c r="C94" s="1" t="str">
+        <f>VLOOKUP(A94,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Positivo
+2-Negativo
+3- Inconclusivo
+4-Não realizado
+5-Aguardando resultado
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B95" s="1" t="str">
+        <f>VLOOKUP(A95,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado do teste foi positivo Influenza</v>
+      </c>
+      <c r="C95" s="1" t="str">
+        <f>VLOOKUP(A95,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim_x000D_
+2-Não_x000D_
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B96" s="1" t="str">
+        <f>VLOOKUP(A96,Tabela1[#All], 2, FALSE)</f>
+        <v>Se influenza, tipo</v>
+      </c>
+      <c r="C96" s="1" t="str">
+        <f>VLOOKUP(A96,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Influenza A
+2-Influenza B</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B97" s="1" t="str">
+        <f>VLOOKUP(A97,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado do teste positivo para outro vírus</v>
+      </c>
+      <c r="C97" s="1" t="str">
+        <f>VLOOKUP(A97,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim_x000D_
+2-Não_x000D_
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B98" s="1" t="str">
+        <f>VLOOKUP(A98,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado do teste para SARS-CoV-2</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f>VLOOKUP(A98,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B99" s="1" t="str">
+        <f>VLOOKUP(A99,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado do teste para VSR</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <f>VLOOKUP(A99,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B100" s="1" t="str">
+        <f>VLOOKUP(A100,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado do teste para Parainfluenza 1</v>
+      </c>
+      <c r="C100" s="1" t="str">
+        <f>VLOOKUP(A100,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B101" s="1" t="str">
+        <f>VLOOKUP(A101,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado do teste para Parainfluenza 2</v>
+      </c>
+      <c r="C101" s="1" t="str">
+        <f>VLOOKUP(A101,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B102" s="1" t="str">
+        <f>VLOOKUP(A102,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado do teste para Parainfluenza 3</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f>VLOOKUP(A102,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B103" s="1" t="str">
+        <f>VLOOKUP(A103,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado do teste para Adenovírus</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <f>VLOOKUP(A103,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B104" s="1" t="str">
+        <f>VLOOKUP(A104,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado do teste para outro vírus respiratório</v>
+      </c>
+      <c r="C104" s="1" t="str">
+        <f>VLOOKUP(A104,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B105" s="1" t="str">
+        <f>VLOOKUP(A105,Tabela1[#All], 2, FALSE)</f>
+        <v>Nome do outro vírus identificado pelo teste</v>
+      </c>
+      <c r="C105" s="1" t="str">
+        <f>VLOOKUP(A105,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B106" s="1" t="str">
+        <f>VLOOKUP(A106,Tabela1[#All], 2, FALSE)</f>
+        <v>Tipo de amostra sorológica coletada</v>
+      </c>
+      <c r="C106" s="1" t="str">
+        <f>VLOOKUP(A106,Tabela1[#All], 3, FALSE)</f>
+        <v xml:space="preserve">1- Sangue/plasma/soro_x000D_
+2-Outra, qual?_x000D_
+9-Ignorado </v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B107" s="1" t="str">
+        <f>VLOOKUP(A107,Tabela1[#All], 2, FALSE)</f>
+        <v>Tipo do teste sorológico para SARS-CoV-2</v>
+      </c>
+      <c r="C107" s="1" t="str">
+        <f>VLOOKUP(A107,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Teste rápido_x000D_
+2-Elisa_x000D_
+3- Quimiluminescência_x000D_
+4- Outro, qual</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B108" s="1" t="str">
+        <f>VLOOKUP(A108,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado da Sorologia para SARS-CoV-2</v>
+      </c>
+      <c r="C108" s="1" t="str">
+        <f>VLOOKUP(A108,Tabela1[#All], 3, FALSE)</f>
+        <v>IgG (Imunoglobulina G)</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B109" s="1" t="str">
+        <f>VLOOKUP(A109,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado da Sorologia para SARS-CoV-2</v>
+      </c>
+      <c r="C109" s="1" t="str">
+        <f>VLOOKUP(A109,Tabela1[#All], 3, FALSE)</f>
+        <v>IgM (Imunoglobulina M)</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B110" s="1" t="str">
+        <f>VLOOKUP(A110,Tabela1[#All], 2, FALSE)</f>
+        <v>Resultado da Sorologia para SARS-CoV-2</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f>VLOOKUP(A110,Tabela1[#All], 3, FALSE)</f>
+        <v>IgA (Imunoglobulina A)</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B111" s="1" t="str">
+        <f>VLOOKUP(A111,Tabela1[#All], 2, FALSE)</f>
+        <v>Paciente recebeu a vacina da COVID-19</v>
+      </c>
+      <c r="C111" s="1" t="str">
+        <f>VLOOKUP(A111,Tabela1[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B112" s="1" t="str">
+        <f>VLOOKUP(A112,Tabela1[#All], 2, FALSE)</f>
+        <v>Data que o paciente recebeu a 1a dose</v>
+      </c>
+      <c r="C112" s="1" t="str">
+        <f>VLOOKUP(A112,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B113" s="1" t="str">
+        <f>VLOOKUP(A113,Tabela1[#All], 2, FALSE)</f>
+        <v>Data que o paciente recebeu a 2a dose</v>
+      </c>
+      <c r="C113" s="1" t="str">
+        <f>VLOOKUP(A113,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B114" s="1" t="str">
+        <f>VLOOKUP(A114,Tabela1[#All], 2, FALSE)</f>
+        <v>Data que o paciente recebeu a dose de reforço</v>
+      </c>
+      <c r="C114" s="1" t="str">
+        <f>VLOOKUP(A114,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B115" s="1" t="str">
+        <f>VLOOKUP(A115,Tabela1[#All], 2, FALSE)</f>
+        <v>Fabricante da vacina da 1a dose</v>
+      </c>
+      <c r="C115" s="1" t="str">
+        <f>VLOOKUP(A115,Tabela1[#All], 3, FALSE)</f>
+        <v>Esta com nome FAB_COV1 no dicionário</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B116" s="1" t="str">
+        <f>VLOOKUP(A116,Tabela1[#All], 2, FALSE)</f>
+        <v>Fabricante da vacina da 2a dose</v>
+      </c>
+      <c r="C116" s="1" t="str">
+        <f>VLOOKUP(A116,Tabela1[#All], 3, FALSE)</f>
+        <v>Esta com nome FAB_COV2 no dicionário</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B117" s="1" t="str">
+        <f>VLOOKUP("FAB_COVRF",Tabela2[#All], 2, FALSE)</f>
+        <v>Fabricante da vacina da dose de reforço</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B118" s="1" t="str">
+        <f>VLOOKUP(A118,Tabela1[#All], 2, FALSE)</f>
+        <v>Lote da 1a dose da vacina</v>
+      </c>
+      <c r="C118" s="1" t="str">
+        <f>VLOOKUP(A118,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B119" s="1" t="str">
+        <f>VLOOKUP(A119,Tabela1[#All], 2, FALSE)</f>
+        <v>Lote da 2a dose da vacina</v>
+      </c>
+      <c r="C119" s="1" t="str">
+        <f>VLOOKUP(A119,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B120" s="1" t="str">
+        <f>VLOOKUP(A120,Tabela1[#All], 2, FALSE)</f>
+        <v>Lote da dose de reforço da vacina</v>
+      </c>
+      <c r="C120" s="1" t="str">
+        <f>VLOOKUP(A120,Tabela1[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B121" s="1" t="str">
+        <f>VLOOKUP(A121,Tabela2[#All], 2, FALSE)</f>
+        <v>Data que o paciente recebeu a 2a dose de reforço</v>
+      </c>
+      <c r="C121" s="1" t="str">
+        <f>VLOOKUP(A121,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B122" s="1" t="str">
+        <f>VLOOKUP(A122,Tabela2[#All], 2, FALSE)</f>
+        <v>Fabricante da vacina da 2a dose de reforço</v>
+      </c>
+      <c r="C122" s="1" t="str">
+        <f>VLOOKUP(A122,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B123" s="1" t="str">
+        <f>VLOOKUP(A123,Tabela2[#All], 2, FALSE)</f>
+        <v>Lote da 2a dose de reforço da vacina</v>
+      </c>
+      <c r="C123" s="1" t="str">
+        <f>VLOOKUP(A123,Tabela2[#All], 4, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B124" s="1" t="str">
+        <f>VLOOKUP(A124,Tabela2[#All], 2, FALSE)</f>
+        <v>Paciente fez uso de antiviral para tratamento de COVID-19</v>
+      </c>
+      <c r="C124" s="1" t="str">
+        <f>VLOOKUP(A124,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B125" s="1" t="str">
+        <f>VLOOKUP(A125,Tabela2[#All], 2, FALSE)</f>
+        <v>Se TRAT_COV == 1, qual antiviral</v>
+      </c>
+      <c r="C125" s="1" t="str">
+        <f>VLOOKUP(A125,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Nirmatrevir/ritonavir(Paxlovid ®)
+2- Molnupiravir(Lagevrio®)
+3- Baricitinibe (Olumiant®)
+4- Outro, especifique</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Organizando dados.xlsx
+++ b/Organizando dados.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projetos\Projeto-Analise-de-Dados-SRAG-2021---2024-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEED2F8E-D6C3-4229-87F2-DA79CF5D97DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C430A57-9F60-4123-9E69-C0CC48E33608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{ED5AD74C-555A-40DA-A62E-D3459C7593AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{ED5AD74C-555A-40DA-A62E-D3459C7593AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Dicionário de dados" sheetId="1" r:id="rId1"/>
     <sheet name="Colunas 2021" sheetId="2" r:id="rId2"/>
     <sheet name="Colunas 2022" sheetId="3" r:id="rId3"/>
+    <sheet name="Colunas 2023" sheetId="4" r:id="rId4"/>
+    <sheet name="Colunas 2024" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="434">
   <si>
     <t>Colunas</t>
   </si>
@@ -1520,7 +1522,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="20">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1590,14 +1610,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{15A3C35E-69DB-49C3-8782-A477CA4F7916}" name="Tabela2" displayName="Tabela2" ref="A1:E180" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{15A3C35E-69DB-49C3-8782-A477CA4F7916}" name="Tabela2" displayName="Tabela2" ref="A1:E180" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A1:E180" xr:uid="{15A3C35E-69DB-49C3-8782-A477CA4F7916}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1CF15E86-3FDE-4FFA-9334-2AEBB16457FE}" name="Colunas" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{0CEBB635-FD59-43DF-B13A-7590569F95EA}" name="Descrição" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{7AA778D0-3214-431F-8677-07FA74A3315A}" name="Colunas que serao desconsideradas" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{519AB8D9-E9F1-42C7-99BD-27E35607C102}" name="Comentarios" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{09C524F9-C1AA-4C82-8E7C-4791DD8BBFB7}" name="Porque sera desconsiderada" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{1CF15E86-3FDE-4FFA-9334-2AEBB16457FE}" name="Colunas" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{0CEBB635-FD59-43DF-B13A-7590569F95EA}" name="Descrição" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{7AA778D0-3214-431F-8677-07FA74A3315A}" name="Colunas que serao desconsideradas" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{519AB8D9-E9F1-42C7-99BD-27E35607C102}" name="Comentarios" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{09C524F9-C1AA-4C82-8E7C-4791DD8BBFB7}" name="Porque sera desconsiderada" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1607,11 +1627,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F0710EE-F857-4ED5-AD97-1D4A264D9A60}" name="Tabela1" displayName="Tabela1" ref="A1:C120" totalsRowShown="0">
   <autoFilter ref="A1:C120" xr:uid="{3F0710EE-F857-4ED5-AD97-1D4A264D9A60}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C689C462-CF9A-4A49-9651-2D11B10EBFDA}" name="Coluna" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{17816C4B-1900-4889-B6B8-D193E59A1621}" name="Descrição" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{C689C462-CF9A-4A49-9651-2D11B10EBFDA}" name="Coluna" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{17816C4B-1900-4889-B6B8-D193E59A1621}" name="Descrição" dataDxfId="10">
       <calculatedColumnFormula>VLOOKUP(A2,Tabela2[#All], 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BAFED104-51D5-4C6B-AEE2-A7443C1CD690}" name="Comentarios" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{BAFED104-51D5-4C6B-AEE2-A7443C1CD690}" name="Comentarios" dataDxfId="9">
       <calculatedColumnFormula>VLOOKUP(A2,Tabela2[#All], 4, FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1623,12 +1643,42 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{22DCAE45-34F3-43DA-ABB2-A390DE9C0B09}" name="Tabela5" displayName="Tabela5" ref="A1:C125" totalsRowShown="0">
   <autoFilter ref="A1:C125" xr:uid="{22DCAE45-34F3-43DA-ABB2-A390DE9C0B09}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C12E8AFF-7332-431B-B8AB-E18936ED34F4}" name="Coluna" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{C5A45C42-4987-4EBE-8150-FAD68D1402CA}" name="Descrição" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{C12E8AFF-7332-431B-B8AB-E18936ED34F4}" name="Coluna" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{C5A45C42-4987-4EBE-8150-FAD68D1402CA}" name="Descrição" dataDxfId="7">
       <calculatedColumnFormula>VLOOKUP(A2,Tabela2[#All], 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AFDD444F-E3D6-46B1-A5BB-F2EB0B5AA68A}" name="Comentarios" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{AFDD444F-E3D6-46B1-A5BB-F2EB0B5AA68A}" name="Comentarios" dataDxfId="6">
       <calculatedColumnFormula>VLOOKUP(A2,Tabela2[#All], 4, FALSE)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9CDAEF83-3897-421C-B19E-79F681C89CAB}" name="Tabela6" displayName="Tabela6" ref="A1:C125" totalsRowShown="0">
+  <autoFilter ref="A1:C125" xr:uid="{9CDAEF83-3897-421C-B19E-79F681C89CAB}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6E824EEE-4D3E-4A4C-ACD4-C34FDF2222D5}" name="Coluna" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8AAE18F0-819B-4B63-8472-85486D0525E0}" name="Descrição" dataDxfId="4">
+      <calculatedColumnFormula>VLOOKUP(A2,Tabela5[#All], 2, FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{9FD068A1-84AC-4310-AB9F-BC9543236C1A}" name="Comentarios" dataDxfId="3">
+      <calculatedColumnFormula>VLOOKUP(A2,Tabela5[#All], 3, FALSE)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{561FAB62-AB79-4AB3-8EEC-365C678C2793}" name="Tabela7" displayName="Tabela7" ref="A1:C125" totalsRowShown="0">
+  <autoFilter ref="A1:C125" xr:uid="{561FAB62-AB79-4AB3-8EEC-365C678C2793}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{29DDBFA6-7126-42C5-9764-54F2BDC4C510}" name="Coluna" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{14196F86-282F-4B24-A4A8-A40447E3C3AD}" name="Descrição" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{236846AE-49F3-497C-846E-1659994C4E5A}" name="Comentarios" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(A2,Tabela6[#All], 3, FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1954,8 +2004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831FF6EA-A12F-46F3-B86A-ED578ABDB804}">
   <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E180"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5040,8 +5090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFEC88C-6AFE-43DD-B607-144D5438B390}">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C120"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6738,8 +6788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF9289B-A554-48A1-A389-CBF5BD58907C}">
   <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8498,6 +8548,3556 @@
       </c>
       <c r="C125" s="1" t="str">
         <f>VLOOKUP(A125,Tabela2[#All], 4, FALSE)</f>
+        <v>1-Nirmatrevir/ritonavir(Paxlovid ®)
+2- Molnupiravir(Lagevrio®)
+3- Baricitinibe (Olumiant®)
+4- Outro, especifique</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3D6F48-7B87-431C-9BFE-39E88310097E}">
+  <dimension ref="A1:C125"/>
+  <sheetViews>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>VLOOKUP(A2,Tabela5[#All], 2, FALSE)</f>
+        <v>Semana Epidemiológica do preenchimento da ficha de notificação</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>VLOOKUP(A2,Tabela5[#All], 3, FALSE)</f>
+        <v>As Semanas Epidemiológicas (SE) são contadas de um Domingo até o Sábado.
+Se o ano começa em uma segunda-feira, a 1ª SE começará no domingo da mesma semana.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>VLOOKUP(A3,Tabela5[#All], 2, FALSE)</f>
+        <v>Semana Epidemiológica do início dos sintomas</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>VLOOKUP(A3,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>VLOOKUP(A4,Tabela5[#All], 2, FALSE)</f>
+        <v>Unidade Federativa</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>VLOOKUP(A4,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>VLOOKUP(A5,Tabela5[#All], 2, FALSE)</f>
+        <v>Regional de Saúde</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>VLOOKUP(A6,Tabela5[#All], 2, FALSE)</f>
+        <v>Município</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>VLOOKUP(A7,Tabela5[#All], 2, FALSE)</f>
+        <v>Unidade que realizou o atendimento, coleta de amostra e registro do caso</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f>VLOOKUP(A8,Tabela5[#All], 2, FALSE)</f>
+        <v>Sexo do paciente</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>VLOOKUP(A8,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Masculino
+2-Feminino
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>VLOOKUP(A9,Tabela5[#All], 2, FALSE)</f>
+        <v>Idade do paciente</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>VLOOKUP(A9,Tabela5[#All], 3, FALSE)</f>
+        <v>Caso tenha sido fornecida a data de nascimento esse campo é preenchido automaticamente (considerando o intervalo entre a data de nascimento e a data dos primeiros sintomas), caso não, é preenchido com a idade informada pelo paciente</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>VLOOKUP(A10,Tabela5[#All], 2, FALSE)</f>
+        <v>Tipo do campo idade</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>VLOOKUP(A10,Tabela5[#All], 3, FALSE)</f>
+        <v>Se a diferença entre a data de nascimento e a data dos primeiros sintomas for:
+Menor que 1 mês: o tipo é preenchido como 1-Dia
+De 1 a 11 meses: o tipo é preenchido como 2-Mês
+Maior ou igual a 12 meses: o tipo é preenchido como 3-Ano</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>VLOOKUP(A11,Tabela5[#All], 2, FALSE)</f>
+        <v xml:space="preserve">Idade gestacional da paciente.
+</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>VLOOKUP(A11,Tabela5[#All], 3, FALSE)</f>
+        <v>1-1º Trimestre
+2-2º Trimestre
+3-3º Trimestre
+4-Idade Gestacional Ignorada
+5-Não
+6-Não se aplica
+9-Ignorado
+Se selecionado sexo igual a Masculino ou a idade for menor ou igual a 9 anos o campo é preenchido automaticamente com 6-Não se aplica</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>VLOOKUP(A12,Tabela5[#All], 2, FALSE)</f>
+        <v>Cor ou raça declarada pelo paciente</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>VLOOKUP(A12,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Branca
+2-Preta
+3-Amarela
+4-Parda
+5-Indígena
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>VLOOKUP(A13,Tabela5[#All], 2, FALSE)</f>
+        <v>Nível de escolaridade do paciente</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>VLOOKUP(A13,Tabela5[#All], 3, FALSE)</f>
+        <v>0-Sem escolaridade/ Analfabeto
+1-Fundamental 1º ciclo (1ª a 5ª série)
+2-Fundamental 2º ciclo (6ª a 9ª série)
+3- Médio (1º ao 3º ano)
+4-Superior
+5-Não se aplica
+9-Ignorado
+Se o paciente tiver menos de 7 anos é automaticamente preenchido com a categoria “não se aplica”</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f>VLOOKUP(A14,Tabela5[#All], 2, FALSE)</f>
+        <v>País de residência do paciente</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>VLOOKUP(A15,Tabela5[#All], 2, FALSE)</f>
+        <v>UF da residência</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>VLOOKUP(A16,Tabela5[#All], 2, FALSE)</f>
+        <v>Regional de Saúde onde está localizado o Município de residência do paciente</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f>VLOOKUP(A17,Tabela5[#All], 2, FALSE)</f>
+        <v>Município de residência do paciente</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>VLOOKUP(A18,Tabela5[#All], 2, FALSE)</f>
+        <v>Zona geográfica da residência</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>VLOOKUP(A18,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Urbana
+2-Rural
+3-Periurbana
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>VLOOKUP(A19,Tabela5[#All], 2, FALSE)</f>
+        <v>Caso de SRAG com infecção adquirida após internação</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f>VLOOKUP(A19,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>VLOOKUP(A20,Tabela5[#All], 2, FALSE)</f>
+        <v>Caso com contato direto com aves ou suínos</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f>VLOOKUP(A20,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>VLOOKUP(A21,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente apresentou febre</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f>VLOOKUP(A21,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>VLOOKUP(A22,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente apresentou tosse</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f>VLOOKUP(A22,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>VLOOKUP(A23,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente apresentou dor de garganta</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f>VLOOKUP(A23,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>VLOOKUP(A24,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente apresentou dispneia</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f>VLOOKUP(A24,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>VLOOKUP(A25,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente apresentou desconforto respiratório</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f>VLOOKUP(A25,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>VLOOKUP(A26,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente apresentou saturção O2 &lt; 95%</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f>VLOOKUP(A26,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>VLOOKUP(A27,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente apresentou diarreia</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f>VLOOKUP(A27,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>VLOOKUP(A28,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente apresentou vômito</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f>VLOOKUP(A28,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>VLOOKUP(A29,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente apresentou outros sintomas</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f>VLOOKUP(A29,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>VLOOKUP(A30,Tabela5[#All], 2, FALSE)</f>
+        <v>Lista outros sintomas</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f>VLOOKUP(A30,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>VLOOKUP(A31,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente é puérpera ou parturiente (até 45 dias após o parto)</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f>VLOOKUP(A31,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>VLOOKUP(A32,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente apresenta algum fator de risco</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f>VLOOKUP(A32,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f>VLOOKUP(A33,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente possui doença cardiovascular crônica</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f>VLOOKUP(A33,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f>VLOOKUP(A34,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente possui doença hematológica crônica</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>VLOOKUP(A34,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f>VLOOKUP(A35,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente possui síndrome de down</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f>VLOOKUP(A35,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f>VLOOKUP(A36,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente possui doença hepática crônica</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f>VLOOKUP(A36,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f>VLOOKUP(A37,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente possui asma</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f>VLOOKUP(A37,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f>VLOOKUP(A38,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente possui diabetes mellitus</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f>VLOOKUP(A38,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f>VLOOKUP(A39,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente possui doença neurológica</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f>VLOOKUP(A39,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f>VLOOKUP(A40,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente possui pneumopatia crônica</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f>VLOOKUP(A40,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f>VLOOKUP(A41,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente possui imunodeficiência ou imunodpressão</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f>VLOOKUP(A41,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <f>VLOOKUP(A42,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente possui doença renal crônica</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f>VLOOKUP(A42,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="1" t="str">
+        <f>VLOOKUP(A43,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente possui obesidade</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f>VLOOKUP(A43,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="1" t="str">
+        <f>VLOOKUP(A44,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente possui outro fator de risco</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f>VLOOKUP(A44,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="1" t="str">
+        <f>VLOOKUP(A45,Tabela5[#All], 2, FALSE)</f>
+        <v>Lista outros fatores de risco do paciente</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f>VLOOKUP(A45,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" s="1" t="str">
+        <f>VLOOKUP(A46,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente foi vacinado contra a gripe na última campanha</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f>VLOOKUP(A46,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" s="1" t="str">
+        <f>VLOOKUP(A47,Tabela5[#All], 2, FALSE)</f>
+        <v>Se o paciente tiver menos que 6 meses de vida, a mãe recebeu vacina</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f>VLOOKUP(A47,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f>VLOOKUP(A48,Tabela5[#All], 2, FALSE)</f>
+        <v>Se o paciente tiver menos que 6 meses, a mãe amamenta a criança</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f>VLOOKUP(A48,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <f>VLOOKUP(A49,Tabela5[#All], 2, FALSE)</f>
+        <v>Se o paciente tiver entre 6 meses e 8 anos, data da dose única para crianças vacinadas em campanhas de anos anteriores</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f>VLOOKUP(A49,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <f>VLOOKUP(A50,Tabela5[#All], 2, FALSE)</f>
+        <v>Se o paciente tiver entre 6 meses e 8 anos, data da 1a dose para crianças vacinadas pela primeira vez</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f>VLOOKUP(A50,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <f>VLOOKUP(A51,Tabela5[#All], 2, FALSE)</f>
+        <v>Se o paciente tiver entre 6 meses e 8 anos, data da 2a dose para crianças vacinadas pela primeira vez</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f>VLOOKUP(A51,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f>VLOOKUP(A52,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente usou antiviral para gripe</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f>VLOOKUP(A52,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f>VLOOKUP(A53,Tabela5[#All], 2, FALSE)</f>
+        <v>Qual antiviral</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f>VLOOKUP(A53,Tabela5[#All], 3, FALSE)</f>
+        <v>1- Oseltamivir
+2- Zanamivir
+3- Outro, especifique</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f>VLOOKUP(A54,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente foi internado</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f>VLOOKUP(A54,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f>VLOOKUP(A55,Tabela5[#All], 2, FALSE)</f>
+        <v>UF onde o paciente foi internado</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f>VLOOKUP(A56,Tabela5[#All], 2, FALSE)</f>
+        <v>Regional de Saúde onde o paciente foi internado</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B57" s="1" t="str">
+        <f>VLOOKUP(A57,Tabela5[#All], 2, FALSE)</f>
+        <v>Município onde o paciente foi internado</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B58" s="1" t="str">
+        <f>VLOOKUP(A58,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente foi internado na UTI</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f>VLOOKUP(A58,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f>VLOOKUP(A59,Tabela5[#All], 2, FALSE)</f>
+        <v>Data de entrada na UTI</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f>VLOOKUP(A59,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B60" s="1" t="str">
+        <f>VLOOKUP(A60,Tabela5[#All], 2, FALSE)</f>
+        <v>Data de saída da UTI</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f>VLOOKUP(A60,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <f>VLOOKUP(A61,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente fez uso de suporte ventilatório</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f>VLOOKUP(A61,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim, invasivo
+2-Sim, não invasivo
+3-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B62" s="1" t="str">
+        <f>VLOOKUP(A62,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado Raio-X de tórax</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f>VLOOKUP(A62,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Normal_x000D_
+2-Infiltrado intersticial_x000D_
+3-Consolidação_x000D_
+4-Misto_x000D_
+5-Outro_x000D_
+6-Não realizado_x000D_
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <f>VLOOKUP(A63,Tabela5[#All], 2, FALSE)</f>
+        <v>Foi realizado coleta de amostra na realização do teste diagnóstico</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f>VLOOKUP(A63,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B64" s="1" t="str">
+        <f>VLOOKUP(A64,Tabela5[#All], 2, FALSE)</f>
+        <v>Tipo da amostra</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f>VLOOKUP(A64,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Secreção de Nasoorofaringe_x000D_
+2-Lavado Broco-alveolar_x000D_
+3-Tecido post-mortem_x000D_
+4-Outra, qual?_x000D_
+5-LCR_x000D_
+9-Ignorado_x000D_</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B65" s="1" t="str">
+        <f>VLOOKUP(A65,Tabela5[#All], 2, FALSE)</f>
+        <v>Se for colhida amostra, resultado do teste RT-PCR ou outro método</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f>VLOOKUP(A65,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Detectável
+2-Não Detectável
+3-Inconclusivo
+4-Não Realizado
+5-Aguardando Resultado
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B66" s="1" t="str">
+        <f>VLOOKUP(A66,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado do RT-PCR foi positivo para influenza</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f>VLOOKUP(A66,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim_x000D_
+2-Não_x000D_
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B67" s="1" t="str">
+        <f>VLOOKUP(A67,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado do diagnóstico do RT-PCR para o tipo de influenza</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f>VLOOKUP(A67,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Influenza A_x000D_
+2-Influenza B</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B68" s="1" t="str">
+        <f>VLOOKUP(A68,Tabela5[#All], 2, FALSE)</f>
+        <v>Subtipo para Influenza A</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f>VLOOKUP(A68,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Influenza A(H1N1)pdm09_x000D_
+2-Influenza A (H3N2)_x000D_
+3-Influenza A não subtipado_x000D_
+4-Influenza A não subtipável_x000D_
+5-Inconclusivo_x000D_
+6-Outro, especifique</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B69" s="1" t="str">
+        <f>VLOOKUP(A69,Tabela5[#All], 2, FALSE)</f>
+        <v>Linhagem da Influenza B</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f>VLOOKUP(A69,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Victoria
+2-Yamagatha
+3-Não realizado
+4-Inconclusivo
+5-Outro, especifique:</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B70" s="1" t="str">
+        <f>VLOOKUP(A70,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado do RT-PCR foi positivo para outro vírus respiratório</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f>VLOOKUP(A70,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f>VLOOKUP(A71,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para VSR</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f>VLOOKUP(A71,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f>VLOOKUP(A72,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 1</v>
+      </c>
+      <c r="C72" s="1" t="str">
+        <f>VLOOKUP(A72,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B73" s="1" t="str">
+        <f>VLOOKUP(A73,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 2</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f>VLOOKUP(A73,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B74" s="1" t="str">
+        <f>VLOOKUP(A74,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 3</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <f>VLOOKUP(A74,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B75" s="1" t="str">
+        <f>VLOOKUP(A75,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 4</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f>VLOOKUP(A75,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B76" s="1" t="str">
+        <f>VLOOKUP(A76,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Adenovírus</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f>VLOOKUP(A76,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B77" s="1" t="str">
+        <f>VLOOKUP(A77,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Metapneumovírus</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f>VLOOKUP(A77,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B78" s="1" t="str">
+        <f>VLOOKUP(A78,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Bocavírus</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f>VLOOKUP(A78,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B79" s="1" t="str">
+        <f>VLOOKUP(A79,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Rinovírus</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f>VLOOKUP(A79,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B80" s="1" t="str">
+        <f>VLOOKUP(A80,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para outro vírus respiratório</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <f>VLOOKUP(A80,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B81" s="1" t="str">
+        <f>VLOOKUP(A81,Tabela5[#All], 2, FALSE)</f>
+        <v>Diagnóstico final do caso</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <f>VLOOKUP(A81,Tabela5[#All], 3, FALSE)</f>
+        <v>1-SRAG por influenza
+2-SRAG por outro vírus respiratório
+3-SRAG por outro agente etiológico, qual:
+4-SRAG não especificado
+5-SRAG por covid-19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B82" s="1" t="str">
+        <f>VLOOKUP(A82,Tabela5[#All], 2, FALSE)</f>
+        <v>Critério de confirmação</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f>VLOOKUP(A82,Tabela5[#All], 3, FALSE)</f>
+        <v>1. Laboratorial_x000D_
+2. Clínico Epidemiológico_x000D_
+3. Clínico_x000D_
+4. Clínico Imagem</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B83" s="1" t="str">
+        <f>VLOOKUP(A83,Tabela5[#All], 2, FALSE)</f>
+        <v>Evolução do caso</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f>VLOOKUP(A83,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Cura
+2-Óbito
+3- Óbito por outras causas
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B84" s="1" t="str">
+        <f>VLOOKUP(A84,Tabela5[#All], 2, FALSE)</f>
+        <v>Histórico de viagem do paciente</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f>VLOOKUP(A84,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B85" s="1" t="str">
+        <f>VLOOKUP(A85,Tabela5[#All], 2, FALSE)</f>
+        <v>País de viagem do paciente</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B86" s="1" t="str">
+        <f>VLOOKUP(A86,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para SARS2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="1" t="str">
+        <f>VLOOKUP(A87,Tabela5[#All], 2, FALSE)</f>
+        <v>Caso contato com outro animal, o mesmo deve ser especificado</v>
+      </c>
+      <c r="C87" s="1" t="str">
+        <f>VLOOKUP(A87,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B88" s="1" t="str">
+        <f>VLOOKUP(A88,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente apresentou dor abdominal</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <f>VLOOKUP(A88,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" s="1" t="str">
+        <f>VLOOKUP(A89,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente apresentou fadiga</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <f>VLOOKUP(A89,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="1" t="str">
+        <f>VLOOKUP(A90,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente apresentou perda do olfato</v>
+      </c>
+      <c r="C90" s="1" t="str">
+        <f>VLOOKUP(A90,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="1" t="str">
+        <f>VLOOKUP(A91,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente apresentou perda do paladar</v>
+      </c>
+      <c r="C91" s="1" t="str">
+        <f>VLOOKUP(A91,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B92" s="1" t="str">
+        <f>VLOOKUP(A92,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado da tomografia</v>
+      </c>
+      <c r="C92" s="1" t="str">
+        <f>VLOOKUP(A92,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Tipico covid-19_x000D_
+2- Indeterminado covid-19_x000D_
+3- Atípico covid-19_x000D_
+4- Negativo para Pneumonia_x000D_
+5- Outro_x000D_
+6-Não realizado_x000D_
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B93" s="1" t="str">
+        <f>VLOOKUP(A93,Tabela5[#All], 2, FALSE)</f>
+        <v>Tipo de teste antigênico</v>
+      </c>
+      <c r="C93" s="1" t="str">
+        <f>VLOOKUP(A93,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Imunofluorescência (IF)_x000D_
+2- Teste rápido antigênico</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B94" s="1" t="str">
+        <f>VLOOKUP(A94,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado do teste antigênico</v>
+      </c>
+      <c r="C94" s="1" t="str">
+        <f>VLOOKUP(A94,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Positivo
+2-Negativo
+3- Inconclusivo
+4-Não realizado
+5-Aguardando resultado
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B95" s="1" t="str">
+        <f>VLOOKUP(A95,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado do teste foi positivo Influenza</v>
+      </c>
+      <c r="C95" s="1" t="str">
+        <f>VLOOKUP(A95,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim_x000D_
+2-Não_x000D_
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B96" s="1" t="str">
+        <f>VLOOKUP(A96,Tabela5[#All], 2, FALSE)</f>
+        <v>Se influenza, tipo</v>
+      </c>
+      <c r="C96" s="1" t="str">
+        <f>VLOOKUP(A96,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Influenza A
+2-Influenza B</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B97" s="1" t="str">
+        <f>VLOOKUP(A97,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado do teste positivo para outro vírus</v>
+      </c>
+      <c r="C97" s="1" t="str">
+        <f>VLOOKUP(A97,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim_x000D_
+2-Não_x000D_
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B98" s="1" t="str">
+        <f>VLOOKUP(A98,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado do teste para SARS-CoV-2</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f>VLOOKUP(A98,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B99" s="1" t="str">
+        <f>VLOOKUP(A99,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado do teste para VSR</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <f>VLOOKUP(A99,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B100" s="1" t="str">
+        <f>VLOOKUP(A100,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado do teste para Parainfluenza 1</v>
+      </c>
+      <c r="C100" s="1" t="str">
+        <f>VLOOKUP(A100,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B101" s="1" t="str">
+        <f>VLOOKUP(A101,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado do teste para Parainfluenza 2</v>
+      </c>
+      <c r="C101" s="1" t="str">
+        <f>VLOOKUP(A101,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B102" s="1" t="str">
+        <f>VLOOKUP(A102,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado do teste para Parainfluenza 3</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f>VLOOKUP(A102,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B103" s="1" t="str">
+        <f>VLOOKUP(A103,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado do teste para Adenovírus</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <f>VLOOKUP(A103,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B104" s="1" t="str">
+        <f>VLOOKUP(A104,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado do teste para outro vírus respiratório</v>
+      </c>
+      <c r="C104" s="1" t="str">
+        <f>VLOOKUP(A104,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B105" s="1" t="str">
+        <f>VLOOKUP(A105,Tabela5[#All], 2, FALSE)</f>
+        <v>Nome do outro vírus identificado pelo teste</v>
+      </c>
+      <c r="C105" s="1" t="str">
+        <f>VLOOKUP(A105,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B106" s="1" t="str">
+        <f>VLOOKUP(A106,Tabela5[#All], 2, FALSE)</f>
+        <v>Tipo de amostra sorológica coletada</v>
+      </c>
+      <c r="C106" s="1" t="str">
+        <f>VLOOKUP(A106,Tabela5[#All], 3, FALSE)</f>
+        <v xml:space="preserve">1- Sangue/plasma/soro_x000D_
+2-Outra, qual?_x000D_
+9-Ignorado </v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B107" s="1" t="str">
+        <f>VLOOKUP(A107,Tabela5[#All], 2, FALSE)</f>
+        <v>Tipo do teste sorológico para SARS-CoV-2</v>
+      </c>
+      <c r="C107" s="1" t="str">
+        <f>VLOOKUP(A107,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Teste rápido_x000D_
+2-Elisa_x000D_
+3- Quimiluminescência_x000D_
+4- Outro, qual</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B108" s="1" t="str">
+        <f>VLOOKUP(A108,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado da Sorologia para SARS-CoV-2</v>
+      </c>
+      <c r="C108" s="1" t="str">
+        <f>VLOOKUP(A108,Tabela5[#All], 3, FALSE)</f>
+        <v>IgG (Imunoglobulina G)</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B109" s="1" t="str">
+        <f>VLOOKUP(A109,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado da Sorologia para SARS-CoV-2</v>
+      </c>
+      <c r="C109" s="1" t="str">
+        <f>VLOOKUP(A109,Tabela5[#All], 3, FALSE)</f>
+        <v>IgM (Imunoglobulina M)</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B110" s="1" t="str">
+        <f>VLOOKUP(A110,Tabela5[#All], 2, FALSE)</f>
+        <v>Resultado da Sorologia para SARS-CoV-2</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f>VLOOKUP(A110,Tabela5[#All], 3, FALSE)</f>
+        <v>IgA (Imunoglobulina A)</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B111" s="1" t="str">
+        <f>VLOOKUP(A111,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente recebeu a vacina da COVID-19</v>
+      </c>
+      <c r="C111" s="1" t="str">
+        <f>VLOOKUP(A111,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B112" s="1" t="str">
+        <f>VLOOKUP(A112,Tabela5[#All], 2, FALSE)</f>
+        <v>Data que o paciente recebeu a 1a dose</v>
+      </c>
+      <c r="C112" s="1" t="str">
+        <f>VLOOKUP(A112,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B113" s="1" t="str">
+        <f>VLOOKUP(A113,Tabela5[#All], 2, FALSE)</f>
+        <v>Data que o paciente recebeu a 2a dose</v>
+      </c>
+      <c r="C113" s="1" t="str">
+        <f>VLOOKUP(A113,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B114" s="1" t="str">
+        <f>VLOOKUP(A114,Tabela5[#All], 2, FALSE)</f>
+        <v>Data que o paciente recebeu a dose de reforço</v>
+      </c>
+      <c r="C114" s="1" t="str">
+        <f>VLOOKUP(A114,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B115" s="1" t="str">
+        <f>VLOOKUP(A115,Tabela5[#All], 2, FALSE)</f>
+        <v>Fabricante da vacina da 1a dose</v>
+      </c>
+      <c r="C115" s="1" t="str">
+        <f>VLOOKUP(A115,Tabela5[#All], 3, FALSE)</f>
+        <v>Esta com nome FAB_COV1 no dicionário</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B116" s="1" t="str">
+        <f>VLOOKUP(A116,Tabela5[#All], 2, FALSE)</f>
+        <v>Fabricante da vacina da 2a dose</v>
+      </c>
+      <c r="C116" s="1" t="str">
+        <f>VLOOKUP(A116,Tabela5[#All], 3, FALSE)</f>
+        <v>Esta com nome FAB_COV2 no dicionário</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B117" s="1" t="str">
+        <f>VLOOKUP(A117,Tabela5[#All], 2, FALSE)</f>
+        <v>Fabricante da vacina da dose de reforço</v>
+      </c>
+      <c r="C117" s="1" t="str">
+        <f>VLOOKUP(A117,Tabela5[#All], 3, FALSE)</f>
+        <v>Esta com nome FAB_COVRF no dicionário</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B118" s="1" t="str">
+        <f>VLOOKUP(A118,Tabela5[#All], 2, FALSE)</f>
+        <v>Lote da 1a dose da vacina</v>
+      </c>
+      <c r="C118" s="1" t="str">
+        <f>VLOOKUP(A118,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B119" s="1" t="str">
+        <f>VLOOKUP(A119,Tabela5[#All], 2, FALSE)</f>
+        <v>Lote da 2a dose da vacina</v>
+      </c>
+      <c r="C119" s="1" t="str">
+        <f>VLOOKUP(A119,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B120" s="1" t="str">
+        <f>VLOOKUP(A120,Tabela5[#All], 2, FALSE)</f>
+        <v>Lote da dose de reforço da vacina</v>
+      </c>
+      <c r="C120" s="1" t="str">
+        <f>VLOOKUP(A120,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B121" s="1" t="str">
+        <f>VLOOKUP(A121,Tabela5[#All], 2, FALSE)</f>
+        <v>Data que o paciente recebeu a 2a dose de reforço</v>
+      </c>
+      <c r="C121" s="1" t="str">
+        <f>VLOOKUP(A121,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B122" s="1" t="str">
+        <f>VLOOKUP(A122,Tabela5[#All], 2, FALSE)</f>
+        <v>Fabricante da vacina da 2a dose de reforço</v>
+      </c>
+      <c r="C122" s="1" t="str">
+        <f>VLOOKUP(A122,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B123" s="1" t="str">
+        <f>VLOOKUP(A123,Tabela5[#All], 2, FALSE)</f>
+        <v>Lote da 2a dose de reforço da vacina</v>
+      </c>
+      <c r="C123" s="1" t="str">
+        <f>VLOOKUP(A123,Tabela5[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B124" s="1" t="str">
+        <f>VLOOKUP(A124,Tabela5[#All], 2, FALSE)</f>
+        <v>Paciente fez uso de antiviral para tratamento de COVID-19</v>
+      </c>
+      <c r="C124" s="1" t="str">
+        <f>VLOOKUP(A124,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B125" s="1" t="str">
+        <f>VLOOKUP(A125,Tabela5[#All], 2, FALSE)</f>
+        <v>Se TRAT_COV == 1, qual antiviral</v>
+      </c>
+      <c r="C125" s="1" t="str">
+        <f>VLOOKUP(A125,Tabela5[#All], 3, FALSE)</f>
+        <v>1-Nirmatrevir/ritonavir(Paxlovid ®)
+2- Molnupiravir(Lagevrio®)
+3- Baricitinibe (Olumiant®)
+4- Outro, especifique</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1710726D-0BE6-4091-BBA6-4ED458250109}">
+  <dimension ref="A1:C125"/>
+  <sheetViews>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="59" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>VLOOKUP(A2,Tabela6[#All], 2, FALSE)</f>
+        <v>Semana Epidemiológica do preenchimento da ficha de notificação</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>VLOOKUP(A2,Tabela6[#All], 3, FALSE)</f>
+        <v>As Semanas Epidemiológicas (SE) são contadas de um Domingo até o Sábado.
+Se o ano começa em uma segunda-feira, a 1ª SE começará no domingo da mesma semana.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>VLOOKUP(A3,Tabela6[#All], 2, FALSE)</f>
+        <v>Semana Epidemiológica do início dos sintomas</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>VLOOKUP(A3,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>VLOOKUP(A4,Tabela6[#All], 2, FALSE)</f>
+        <v>Unidade Federativa</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>VLOOKUP(A4,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>VLOOKUP(A5,Tabela6[#All], 2, FALSE)</f>
+        <v>Regional de Saúde</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>VLOOKUP(A6,Tabela6[#All], 2, FALSE)</f>
+        <v>Município</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>VLOOKUP(A7,Tabela6[#All], 2, FALSE)</f>
+        <v>Unidade que realizou o atendimento, coleta de amostra e registro do caso</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f>VLOOKUP(A8,Tabela6[#All], 2, FALSE)</f>
+        <v>Sexo do paciente</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>VLOOKUP(A8,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Masculino
+2-Feminino
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>VLOOKUP(A9,Tabela6[#All], 2, FALSE)</f>
+        <v>Idade do paciente</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>VLOOKUP(A9,Tabela6[#All], 3, FALSE)</f>
+        <v>Caso tenha sido fornecida a data de nascimento esse campo é preenchido automaticamente (considerando o intervalo entre a data de nascimento e a data dos primeiros sintomas), caso não, é preenchido com a idade informada pelo paciente</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>VLOOKUP(A10,Tabela6[#All], 2, FALSE)</f>
+        <v>Tipo do campo idade</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>VLOOKUP(A10,Tabela6[#All], 3, FALSE)</f>
+        <v>Se a diferença entre a data de nascimento e a data dos primeiros sintomas for:
+Menor que 1 mês: o tipo é preenchido como 1-Dia
+De 1 a 11 meses: o tipo é preenchido como 2-Mês
+Maior ou igual a 12 meses: o tipo é preenchido como 3-Ano</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>VLOOKUP(A11,Tabela6[#All], 2, FALSE)</f>
+        <v xml:space="preserve">Idade gestacional da paciente.
+</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>VLOOKUP(A11,Tabela6[#All], 3, FALSE)</f>
+        <v>1-1º Trimestre
+2-2º Trimestre
+3-3º Trimestre
+4-Idade Gestacional Ignorada
+5-Não
+6-Não se aplica
+9-Ignorado
+Se selecionado sexo igual a Masculino ou a idade for menor ou igual a 9 anos o campo é preenchido automaticamente com 6-Não se aplica</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>VLOOKUP(A12,Tabela6[#All], 2, FALSE)</f>
+        <v>Cor ou raça declarada pelo paciente</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>VLOOKUP(A12,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Branca
+2-Preta
+3-Amarela
+4-Parda
+5-Indígena
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>VLOOKUP(A13,Tabela6[#All], 2, FALSE)</f>
+        <v>Nível de escolaridade do paciente</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>VLOOKUP(A13,Tabela6[#All], 3, FALSE)</f>
+        <v>0-Sem escolaridade/ Analfabeto
+1-Fundamental 1º ciclo (1ª a 5ª série)
+2-Fundamental 2º ciclo (6ª a 9ª série)
+3- Médio (1º ao 3º ano)
+4-Superior
+5-Não se aplica
+9-Ignorado
+Se o paciente tiver menos de 7 anos é automaticamente preenchido com a categoria “não se aplica”</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f>VLOOKUP(A14,Tabela6[#All], 2, FALSE)</f>
+        <v>País de residência do paciente</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>VLOOKUP(A15,Tabela6[#All], 2, FALSE)</f>
+        <v>UF da residência</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>VLOOKUP(A16,Tabela6[#All], 2, FALSE)</f>
+        <v>Regional de Saúde onde está localizado o Município de residência do paciente</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f>VLOOKUP(A17,Tabela6[#All], 2, FALSE)</f>
+        <v>Município de residência do paciente</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>VLOOKUP(A18,Tabela6[#All], 2, FALSE)</f>
+        <v>Zona geográfica da residência</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>VLOOKUP(A18,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Urbana
+2-Rural
+3-Periurbana
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>VLOOKUP(A19,Tabela6[#All], 2, FALSE)</f>
+        <v>Caso de SRAG com infecção adquirida após internação</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f>VLOOKUP(A19,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>VLOOKUP(A20,Tabela6[#All], 2, FALSE)</f>
+        <v>Caso com contato direto com aves ou suínos</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f>VLOOKUP(A20,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>VLOOKUP(A21,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente apresentou febre</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f>VLOOKUP(A21,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>VLOOKUP(A22,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente apresentou tosse</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f>VLOOKUP(A22,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>VLOOKUP(A23,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente apresentou dor de garganta</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f>VLOOKUP(A23,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>VLOOKUP(A24,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente apresentou dispneia</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f>VLOOKUP(A24,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>VLOOKUP(A25,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente apresentou desconforto respiratório</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f>VLOOKUP(A25,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>VLOOKUP(A26,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente apresentou saturção O2 &lt; 95%</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f>VLOOKUP(A26,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>VLOOKUP(A27,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente apresentou diarreia</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f>VLOOKUP(A27,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>VLOOKUP(A28,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente apresentou vômito</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f>VLOOKUP(A28,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>VLOOKUP(A29,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente apresentou outros sintomas</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f>VLOOKUP(A29,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>VLOOKUP(A30,Tabela6[#All], 2, FALSE)</f>
+        <v>Lista outros sintomas</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f>VLOOKUP(A30,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>VLOOKUP(A31,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente é puérpera ou parturiente (até 45 dias após o parto)</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f>VLOOKUP(A31,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>VLOOKUP(A32,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente apresenta algum fator de risco</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f>VLOOKUP(A32,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f>VLOOKUP(A33,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente possui doença cardiovascular crônica</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f>VLOOKUP(A33,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f>VLOOKUP(A34,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente possui doença hematológica crônica</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>VLOOKUP(A34,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f>VLOOKUP(A35,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente possui síndrome de down</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f>VLOOKUP(A35,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f>VLOOKUP(A36,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente possui doença hepática crônica</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f>VLOOKUP(A36,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f>VLOOKUP(A37,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente possui asma</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f>VLOOKUP(A37,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f>VLOOKUP(A38,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente possui diabetes mellitus</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f>VLOOKUP(A38,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f>VLOOKUP(A39,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente possui doença neurológica</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f>VLOOKUP(A39,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f>VLOOKUP(A40,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente possui pneumopatia crônica</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f>VLOOKUP(A40,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f>VLOOKUP(A41,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente possui imunodeficiência ou imunodpressão</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f>VLOOKUP(A41,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <f>VLOOKUP(A42,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente possui doença renal crônica</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f>VLOOKUP(A42,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="1" t="str">
+        <f>VLOOKUP(A43,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente possui obesidade</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f>VLOOKUP(A43,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="1" t="str">
+        <f>VLOOKUP(A44,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente possui outro fator de risco</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f>VLOOKUP(A44,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="1" t="str">
+        <f>VLOOKUP(A45,Tabela6[#All], 2, FALSE)</f>
+        <v>Lista outros fatores de risco do paciente</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f>VLOOKUP(A45,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" s="1" t="str">
+        <f>VLOOKUP(A46,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente foi vacinado contra a gripe na última campanha</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f>VLOOKUP(A46,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" s="1" t="str">
+        <f>VLOOKUP(A47,Tabela6[#All], 2, FALSE)</f>
+        <v>Se o paciente tiver menos que 6 meses de vida, a mãe recebeu vacina</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f>VLOOKUP(A47,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f>VLOOKUP(A48,Tabela6[#All], 2, FALSE)</f>
+        <v>Se o paciente tiver menos que 6 meses, a mãe amamenta a criança</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f>VLOOKUP(A48,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <f>VLOOKUP(A49,Tabela6[#All], 2, FALSE)</f>
+        <v>Se o paciente tiver entre 6 meses e 8 anos, data da dose única para crianças vacinadas em campanhas de anos anteriores</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f>VLOOKUP(A49,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <f>VLOOKUP(A50,Tabela6[#All], 2, FALSE)</f>
+        <v>Se o paciente tiver entre 6 meses e 8 anos, data da 1a dose para crianças vacinadas pela primeira vez</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f>VLOOKUP(A50,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <f>VLOOKUP(A51,Tabela6[#All], 2, FALSE)</f>
+        <v>Se o paciente tiver entre 6 meses e 8 anos, data da 2a dose para crianças vacinadas pela primeira vez</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f>VLOOKUP(A51,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f>VLOOKUP(A52,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente usou antiviral para gripe</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f>VLOOKUP(A52,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f>VLOOKUP(A53,Tabela6[#All], 2, FALSE)</f>
+        <v>Qual antiviral</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f>VLOOKUP(A53,Tabela6[#All], 3, FALSE)</f>
+        <v>1- Oseltamivir
+2- Zanamivir
+3- Outro, especifique</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f>VLOOKUP(A54,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente foi internado</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f>VLOOKUP(A54,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f>VLOOKUP(A55,Tabela6[#All], 2, FALSE)</f>
+        <v>UF onde o paciente foi internado</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f>VLOOKUP(A56,Tabela6[#All], 2, FALSE)</f>
+        <v>Regional de Saúde onde o paciente foi internado</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B57" s="1" t="str">
+        <f>VLOOKUP(A57,Tabela6[#All], 2, FALSE)</f>
+        <v>Município onde o paciente foi internado</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B58" s="1" t="str">
+        <f>VLOOKUP(A58,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente foi internado na UTI</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f>VLOOKUP(A58,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f>VLOOKUP(A59,Tabela6[#All], 2, FALSE)</f>
+        <v>Data de entrada na UTI</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f>VLOOKUP(A59,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B60" s="1" t="str">
+        <f>VLOOKUP(A60,Tabela6[#All], 2, FALSE)</f>
+        <v>Data de saída da UTI</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f>VLOOKUP(A60,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <f>VLOOKUP(A61,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente fez uso de suporte ventilatório</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f>VLOOKUP(A61,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim, invasivo
+2-Sim, não invasivo
+3-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B62" s="1" t="str">
+        <f>VLOOKUP(A62,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado Raio-X de tórax</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f>VLOOKUP(A62,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Normal_x000D_
+2-Infiltrado intersticial_x000D_
+3-Consolidação_x000D_
+4-Misto_x000D_
+5-Outro_x000D_
+6-Não realizado_x000D_
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <f>VLOOKUP(A63,Tabela6[#All], 2, FALSE)</f>
+        <v>Foi realizado coleta de amostra na realização do teste diagnóstico</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f>VLOOKUP(A63,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B64" s="1" t="str">
+        <f>VLOOKUP(A64,Tabela6[#All], 2, FALSE)</f>
+        <v>Tipo da amostra</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f>VLOOKUP(A64,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Secreção de Nasoorofaringe_x000D_
+2-Lavado Broco-alveolar_x000D_
+3-Tecido post-mortem_x000D_
+4-Outra, qual?_x000D_
+5-LCR_x000D_
+9-Ignorado_x000D_</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B65" s="1" t="str">
+        <f>VLOOKUP(A65,Tabela6[#All], 2, FALSE)</f>
+        <v>Se for colhida amostra, resultado do teste RT-PCR ou outro método</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f>VLOOKUP(A65,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Detectável
+2-Não Detectável
+3-Inconclusivo
+4-Não Realizado
+5-Aguardando Resultado
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B66" s="1" t="str">
+        <f>VLOOKUP(A66,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado do RT-PCR foi positivo para influenza</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f>VLOOKUP(A66,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim_x000D_
+2-Não_x000D_
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B67" s="1" t="str">
+        <f>VLOOKUP(A67,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado do diagnóstico do RT-PCR para o tipo de influenza</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f>VLOOKUP(A67,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Influenza A_x000D_
+2-Influenza B</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B68" s="1" t="str">
+        <f>VLOOKUP(A68,Tabela6[#All], 2, FALSE)</f>
+        <v>Subtipo para Influenza A</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f>VLOOKUP(A68,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Influenza A(H1N1)pdm09_x000D_
+2-Influenza A (H3N2)_x000D_
+3-Influenza A não subtipado_x000D_
+4-Influenza A não subtipável_x000D_
+5-Inconclusivo_x000D_
+6-Outro, especifique</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B69" s="1" t="str">
+        <f>VLOOKUP(A69,Tabela6[#All], 2, FALSE)</f>
+        <v>Linhagem da Influenza B</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f>VLOOKUP(A69,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Victoria
+2-Yamagatha
+3-Não realizado
+4-Inconclusivo
+5-Outro, especifique:</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B70" s="1" t="str">
+        <f>VLOOKUP(A70,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado do RT-PCR foi positivo para outro vírus respiratório</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f>VLOOKUP(A70,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f>VLOOKUP(A71,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para VSR</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f>VLOOKUP(A71,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f>VLOOKUP(A72,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 1</v>
+      </c>
+      <c r="C72" s="1" t="str">
+        <f>VLOOKUP(A72,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B73" s="1" t="str">
+        <f>VLOOKUP(A73,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 2</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f>VLOOKUP(A73,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B74" s="1" t="str">
+        <f>VLOOKUP(A74,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 3</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <f>VLOOKUP(A74,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B75" s="1" t="str">
+        <f>VLOOKUP(A75,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Parainfluenza 4</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f>VLOOKUP(A75,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B76" s="1" t="str">
+        <f>VLOOKUP(A76,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Adenovírus</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f>VLOOKUP(A76,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B77" s="1" t="str">
+        <f>VLOOKUP(A77,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Metapneumovírus</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f>VLOOKUP(A77,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B78" s="1" t="str">
+        <f>VLOOKUP(A78,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Bocavírus</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f>VLOOKUP(A78,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B79" s="1" t="str">
+        <f>VLOOKUP(A79,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para Rinovírus</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f>VLOOKUP(A79,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B80" s="1" t="str">
+        <f>VLOOKUP(A80,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para outro vírus respiratório</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <f>VLOOKUP(A80,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B81" s="1" t="str">
+        <f>VLOOKUP(A81,Tabela6[#All], 2, FALSE)</f>
+        <v>Diagnóstico final do caso</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <f>VLOOKUP(A81,Tabela6[#All], 3, FALSE)</f>
+        <v>1-SRAG por influenza
+2-SRAG por outro vírus respiratório
+3-SRAG por outro agente etiológico, qual:
+4-SRAG não especificado
+5-SRAG por covid-19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B82" s="1" t="str">
+        <f>VLOOKUP(A82,Tabela6[#All], 2, FALSE)</f>
+        <v>Critério de confirmação</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f>VLOOKUP(A82,Tabela6[#All], 3, FALSE)</f>
+        <v>1. Laboratorial_x000D_
+2. Clínico Epidemiológico_x000D_
+3. Clínico_x000D_
+4. Clínico Imagem</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B83" s="1" t="str">
+        <f>VLOOKUP(A83,Tabela6[#All], 2, FALSE)</f>
+        <v>Evolução do caso</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f>VLOOKUP(A83,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Cura
+2-Óbito
+3- Óbito por outras causas
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B84" s="1" t="str">
+        <f>VLOOKUP(A84,Tabela6[#All], 2, FALSE)</f>
+        <v>Histórico de viagem do paciente</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f>VLOOKUP(A84,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B85" s="1" t="str">
+        <f>VLOOKUP(A85,Tabela6[#All], 2, FALSE)</f>
+        <v>País de viagem do paciente</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B86" s="1" t="str">
+        <f>VLOOKUP(A86,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado diagnóstico do RT-PCR para SARS2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="1" t="str">
+        <f>VLOOKUP(A87,Tabela6[#All], 2, FALSE)</f>
+        <v>Caso contato com outro animal, o mesmo deve ser especificado</v>
+      </c>
+      <c r="C87" s="1" t="str">
+        <f>VLOOKUP(A87,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B88" s="1" t="str">
+        <f>VLOOKUP(A88,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente apresentou dor abdominal</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <f>VLOOKUP(A88,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" s="1" t="str">
+        <f>VLOOKUP(A89,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente apresentou fadiga</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <f>VLOOKUP(A89,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="1" t="str">
+        <f>VLOOKUP(A90,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente apresentou perda do olfato</v>
+      </c>
+      <c r="C90" s="1" t="str">
+        <f>VLOOKUP(A90,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="1" t="str">
+        <f>VLOOKUP(A91,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente apresentou perda do paladar</v>
+      </c>
+      <c r="C91" s="1" t="str">
+        <f>VLOOKUP(A91,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B92" s="1" t="str">
+        <f>VLOOKUP(A92,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado da tomografia</v>
+      </c>
+      <c r="C92" s="1" t="str">
+        <f>VLOOKUP(A92,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Tipico covid-19_x000D_
+2- Indeterminado covid-19_x000D_
+3- Atípico covid-19_x000D_
+4- Negativo para Pneumonia_x000D_
+5- Outro_x000D_
+6-Não realizado_x000D_
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B93" s="1" t="str">
+        <f>VLOOKUP(A93,Tabela6[#All], 2, FALSE)</f>
+        <v>Tipo de teste antigênico</v>
+      </c>
+      <c r="C93" s="1" t="str">
+        <f>VLOOKUP(A93,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Imunofluorescência (IF)_x000D_
+2- Teste rápido antigênico</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B94" s="1" t="str">
+        <f>VLOOKUP(A94,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado do teste antigênico</v>
+      </c>
+      <c r="C94" s="1" t="str">
+        <f>VLOOKUP(A94,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Positivo
+2-Negativo
+3- Inconclusivo
+4-Não realizado
+5-Aguardando resultado
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B95" s="1" t="str">
+        <f>VLOOKUP(A95,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado do teste foi positivo Influenza</v>
+      </c>
+      <c r="C95" s="1" t="str">
+        <f>VLOOKUP(A95,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim_x000D_
+2-Não_x000D_
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B96" s="1" t="str">
+        <f>VLOOKUP(A96,Tabela6[#All], 2, FALSE)</f>
+        <v>Se influenza, tipo</v>
+      </c>
+      <c r="C96" s="1" t="str">
+        <f>VLOOKUP(A96,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Influenza A
+2-Influenza B</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B97" s="1" t="str">
+        <f>VLOOKUP(A97,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado do teste positivo para outro vírus</v>
+      </c>
+      <c r="C97" s="1" t="str">
+        <f>VLOOKUP(A97,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim_x000D_
+2-Não_x000D_
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B98" s="1" t="str">
+        <f>VLOOKUP(A98,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado do teste para SARS-CoV-2</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f>VLOOKUP(A98,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B99" s="1" t="str">
+        <f>VLOOKUP(A99,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado do teste para VSR</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <f>VLOOKUP(A99,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B100" s="1" t="str">
+        <f>VLOOKUP(A100,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado do teste para Parainfluenza 1</v>
+      </c>
+      <c r="C100" s="1" t="str">
+        <f>VLOOKUP(A100,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B101" s="1" t="str">
+        <f>VLOOKUP(A101,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado do teste para Parainfluenza 2</v>
+      </c>
+      <c r="C101" s="1" t="str">
+        <f>VLOOKUP(A101,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B102" s="1" t="str">
+        <f>VLOOKUP(A102,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado do teste para Parainfluenza 3</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f>VLOOKUP(A102,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B103" s="1" t="str">
+        <f>VLOOKUP(A103,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado do teste para Adenovírus</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <f>VLOOKUP(A103,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B104" s="1" t="str">
+        <f>VLOOKUP(A104,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado do teste para outro vírus respiratório</v>
+      </c>
+      <c r="C104" s="1" t="str">
+        <f>VLOOKUP(A104,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B105" s="1" t="str">
+        <f>VLOOKUP(A105,Tabela6[#All], 2, FALSE)</f>
+        <v>Nome do outro vírus identificado pelo teste</v>
+      </c>
+      <c r="C105" s="1" t="str">
+        <f>VLOOKUP(A105,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B106" s="1" t="str">
+        <f>VLOOKUP(A106,Tabela6[#All], 2, FALSE)</f>
+        <v>Tipo de amostra sorológica coletada</v>
+      </c>
+      <c r="C106" s="1" t="str">
+        <f>VLOOKUP(A106,Tabela6[#All], 3, FALSE)</f>
+        <v xml:space="preserve">1- Sangue/plasma/soro_x000D_
+2-Outra, qual?_x000D_
+9-Ignorado </v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B107" s="1" t="str">
+        <f>VLOOKUP(A107,Tabela6[#All], 2, FALSE)</f>
+        <v>Tipo do teste sorológico para SARS-CoV-2</v>
+      </c>
+      <c r="C107" s="1" t="str">
+        <f>VLOOKUP(A107,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Teste rápido_x000D_
+2-Elisa_x000D_
+3- Quimiluminescência_x000D_
+4- Outro, qual</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B108" s="1" t="str">
+        <f>VLOOKUP(A108,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado da Sorologia para SARS-CoV-2</v>
+      </c>
+      <c r="C108" s="1" t="str">
+        <f>VLOOKUP(A108,Tabela6[#All], 3, FALSE)</f>
+        <v>IgG (Imunoglobulina G)</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B109" s="1" t="str">
+        <f>VLOOKUP(A109,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado da Sorologia para SARS-CoV-2</v>
+      </c>
+      <c r="C109" s="1" t="str">
+        <f>VLOOKUP(A109,Tabela6[#All], 3, FALSE)</f>
+        <v>IgM (Imunoglobulina M)</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B110" s="1" t="str">
+        <f>VLOOKUP(A110,Tabela6[#All], 2, FALSE)</f>
+        <v>Resultado da Sorologia para SARS-CoV-2</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f>VLOOKUP(A110,Tabela6[#All], 3, FALSE)</f>
+        <v>IgA (Imunoglobulina A)</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B111" s="1" t="str">
+        <f>VLOOKUP(A111,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente recebeu a vacina da COVID-19</v>
+      </c>
+      <c r="C111" s="1" t="str">
+        <f>VLOOKUP(A111,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B112" s="1" t="str">
+        <f>VLOOKUP(A112,Tabela6[#All], 2, FALSE)</f>
+        <v>Data que o paciente recebeu a 1a dose</v>
+      </c>
+      <c r="C112" s="1" t="str">
+        <f>VLOOKUP(A112,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B113" s="1" t="str">
+        <f>VLOOKUP(A113,Tabela6[#All], 2, FALSE)</f>
+        <v>Data que o paciente recebeu a 2a dose</v>
+      </c>
+      <c r="C113" s="1" t="str">
+        <f>VLOOKUP(A113,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B114" s="1" t="str">
+        <f>VLOOKUP(A114,Tabela6[#All], 2, FALSE)</f>
+        <v>Data que o paciente recebeu a dose de reforço</v>
+      </c>
+      <c r="C114" s="1" t="str">
+        <f>VLOOKUP(A114,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B115" s="1" t="str">
+        <f>VLOOKUP(A115,Tabela6[#All], 2, FALSE)</f>
+        <v>Fabricante da vacina da 1a dose</v>
+      </c>
+      <c r="C115" s="1" t="str">
+        <f>VLOOKUP(A115,Tabela6[#All], 3, FALSE)</f>
+        <v>Esta com nome FAB_COV1 no dicionário</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B116" s="1" t="str">
+        <f>VLOOKUP(A116,Tabela6[#All], 2, FALSE)</f>
+        <v>Fabricante da vacina da 2a dose</v>
+      </c>
+      <c r="C116" s="1" t="str">
+        <f>VLOOKUP(A116,Tabela6[#All], 3, FALSE)</f>
+        <v>Esta com nome FAB_COV2 no dicionário</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B117" s="1" t="str">
+        <f>VLOOKUP(A117,Tabela6[#All], 2, FALSE)</f>
+        <v>Fabricante da vacina da dose de reforço</v>
+      </c>
+      <c r="C117" s="1" t="str">
+        <f>VLOOKUP(A117,Tabela6[#All], 3, FALSE)</f>
+        <v>Esta com nome FAB_COVRF no dicionário</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B118" s="1" t="str">
+        <f>VLOOKUP(A118,Tabela6[#All], 2, FALSE)</f>
+        <v>Lote da 1a dose da vacina</v>
+      </c>
+      <c r="C118" s="1" t="str">
+        <f>VLOOKUP(A118,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B119" s="1" t="str">
+        <f>VLOOKUP(A119,Tabela6[#All], 2, FALSE)</f>
+        <v>Lote da 2a dose da vacina</v>
+      </c>
+      <c r="C119" s="1" t="str">
+        <f>VLOOKUP(A119,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B120" s="1" t="str">
+        <f>VLOOKUP(A120,Tabela6[#All], 2, FALSE)</f>
+        <v>Lote da dose de reforço da vacina</v>
+      </c>
+      <c r="C120" s="1" t="str">
+        <f>VLOOKUP(A120,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B121" s="1" t="str">
+        <f>VLOOKUP(A121,Tabela6[#All], 2, FALSE)</f>
+        <v>Data que o paciente recebeu a 2a dose de reforço</v>
+      </c>
+      <c r="C121" s="1" t="str">
+        <f>VLOOKUP(A121,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B122" s="1" t="str">
+        <f>VLOOKUP(A122,Tabela6[#All], 2, FALSE)</f>
+        <v>Fabricante da vacina da 2a dose de reforço</v>
+      </c>
+      <c r="C122" s="1" t="str">
+        <f>VLOOKUP(A122,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B123" s="1" t="str">
+        <f>VLOOKUP(A123,Tabela6[#All], 2, FALSE)</f>
+        <v>Lote da 2a dose de reforço da vacina</v>
+      </c>
+      <c r="C123" s="1" t="str">
+        <f>VLOOKUP(A123,Tabela6[#All], 3, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B124" s="1" t="str">
+        <f>VLOOKUP(A124,Tabela6[#All], 2, FALSE)</f>
+        <v>Paciente fez uso de antiviral para tratamento de COVID-19</v>
+      </c>
+      <c r="C124" s="1" t="str">
+        <f>VLOOKUP(A124,Tabela6[#All], 3, FALSE)</f>
+        <v>1-Sim
+2-Não
+9-Ignorado</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B125" s="1" t="str">
+        <f>VLOOKUP(A125,Tabela6[#All], 2, FALSE)</f>
+        <v>Se TRAT_COV == 1, qual antiviral</v>
+      </c>
+      <c r="C125" s="1" t="str">
+        <f>VLOOKUP(A125,Tabela6[#All], 3, FALSE)</f>
         <v>1-Nirmatrevir/ritonavir(Paxlovid ®)
 2- Molnupiravir(Lagevrio®)
 3- Baricitinibe (Olumiant®)

--- a/Organizando dados.xlsx
+++ b/Organizando dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projetos\Projeto-Analise-de-Dados-SRAG-2021---2024-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C430A57-9F60-4123-9E69-C0CC48E33608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8413F77E-EED8-4829-A489-5AE52B999F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{ED5AD74C-555A-40DA-A62E-D3459C7593AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED5AD74C-555A-40DA-A62E-D3459C7593AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Dicionário de dados" sheetId="1" r:id="rId1"/>
@@ -1611,7 +1611,35 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{15A3C35E-69DB-49C3-8782-A477CA4F7916}" name="Tabela2" displayName="Tabela2" ref="A1:E180" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
-  <autoFilter ref="A1:E180" xr:uid="{15A3C35E-69DB-49C3-8782-A477CA4F7916}"/>
+  <autoFilter ref="A1:E180" xr:uid="{15A3C35E-69DB-49C3-8782-A477CA4F7916}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="DT_1_DOSE"/>
+        <filter val="DT_2_DOSE"/>
+        <filter val="DT_ANTIVIR"/>
+        <filter val="DT_CO_SOR"/>
+        <filter val="DT_COLETA"/>
+        <filter val="DT_DIGITA"/>
+        <filter val="DT_DOSEUNI"/>
+        <filter val="DT_ENCERRA"/>
+        <filter val="DT_ENTUTI"/>
+        <filter val="DT_EVOLUCA"/>
+        <filter val="DT_INTERNA"/>
+        <filter val="DT_NASC"/>
+        <filter val="DT_NOTIFIC"/>
+        <filter val="DT_PCR"/>
+        <filter val="DT_RAIOX"/>
+        <filter val="DT_RES"/>
+        <filter val="DT_RES_AN"/>
+        <filter val="DT_SAIDUTI"/>
+        <filter val="DT_SIN_PRI"/>
+        <filter val="DT_TOMO"/>
+        <filter val="DT_TRT_COV"/>
+        <filter val="DT_UT_DOSE"/>
+        <filter val="DT_VAC_MAE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1CF15E86-3FDE-4FFA-9334-2AEBB16457FE}" name="Colunas" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{0CEBB635-FD59-43DF-B13A-7590569F95EA}" name="Descrição" dataDxfId="15"/>
@@ -2004,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831FF6EA-A12F-46F3-B86A-ED578ABDB804}">
   <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2051,7 +2079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2085,7 +2113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2102,7 +2130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -2119,7 +2147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -2136,7 +2164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -2153,7 +2181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -2170,7 +2198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -2187,7 +2215,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -2204,7 +2232,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -2221,7 +2249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -2238,7 +2266,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -2255,7 +2283,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -2289,7 +2317,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -2306,7 +2334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
@@ -2323,7 +2351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -2340,7 +2368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -2357,7 +2385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -2374,7 +2402,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
@@ -2391,7 +2419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
@@ -2408,7 +2436,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -2425,7 +2453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>410</v>
       </c>
@@ -2442,7 +2470,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -2459,7 +2487,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
@@ -2476,7 +2504,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -2493,7 +2521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>77</v>
       </c>
@@ -2510,7 +2538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
@@ -2527,7 +2555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>81</v>
       </c>
@@ -2544,7 +2572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>83</v>
       </c>
@@ -2561,7 +2589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -2578,7 +2606,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>87</v>
       </c>
@@ -2595,7 +2623,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>89</v>
       </c>
@@ -2612,7 +2640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
@@ -2629,7 +2657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>94</v>
       </c>
@@ -2646,7 +2674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>96</v>
       </c>
@@ -2663,7 +2691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>99</v>
       </c>
@@ -2680,7 +2708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>101</v>
       </c>
@@ -2697,7 +2725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>103</v>
       </c>
@@ -2714,7 +2742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>105</v>
       </c>
@@ -2731,7 +2759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>107</v>
       </c>
@@ -2748,7 +2776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>109</v>
       </c>
@@ -2765,7 +2793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>111</v>
       </c>
@@ -2782,7 +2810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>113</v>
       </c>
@@ -2799,7 +2827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>115</v>
       </c>
@@ -2816,7 +2844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>117</v>
       </c>
@@ -2833,7 +2861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>119</v>
       </c>
@@ -2850,7 +2878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>121</v>
       </c>
@@ -2867,7 +2895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>123</v>
       </c>
@@ -2884,7 +2912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>125</v>
       </c>
@@ -2901,7 +2929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>127</v>
       </c>
@@ -2918,7 +2946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>129</v>
       </c>
@@ -2935,7 +2963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>131</v>
       </c>
@@ -2952,7 +2980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>133</v>
       </c>
@@ -2969,7 +2997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>135</v>
       </c>
@@ -2986,7 +3014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>137</v>
       </c>
@@ -3003,7 +3031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>139</v>
       </c>
@@ -3020,7 +3048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>141</v>
       </c>
@@ -3037,7 +3065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>143</v>
       </c>
@@ -3054,7 +3082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>145</v>
       </c>
@@ -3071,7 +3099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>147</v>
       </c>
@@ -3088,7 +3116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>149</v>
       </c>
@@ -3105,7 +3133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>151</v>
       </c>
@@ -3122,7 +3150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>153</v>
       </c>
@@ -3139,7 +3167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>155</v>
       </c>
@@ -3156,7 +3184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>157</v>
       </c>
@@ -3173,7 +3201,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>160</v>
       </c>
@@ -3190,7 +3218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>162</v>
       </c>
@@ -3207,7 +3235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>164</v>
       </c>
@@ -3224,7 +3252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>166</v>
       </c>
@@ -3241,7 +3269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>168</v>
       </c>
@@ -3258,7 +3286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>170</v>
       </c>
@@ -3275,7 +3303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>172</v>
       </c>
@@ -3292,7 +3320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>174</v>
       </c>
@@ -3309,7 +3337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>176</v>
       </c>
@@ -3326,7 +3354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>178</v>
       </c>
@@ -3343,7 +3371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>180</v>
       </c>
@@ -3360,7 +3388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>182</v>
       </c>
@@ -3377,7 +3405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>184</v>
       </c>
@@ -3394,7 +3422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>186</v>
       </c>
@@ -3411,7 +3439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>188</v>
       </c>
@@ -3428,7 +3456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>190</v>
       </c>
@@ -3445,7 +3473,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>194</v>
       </c>
@@ -3479,7 +3507,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>199</v>
       </c>
@@ -3513,7 +3541,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>203</v>
       </c>
@@ -3581,7 +3609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>211</v>
       </c>
@@ -3598,7 +3626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>213</v>
       </c>
@@ -3615,7 +3643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>216</v>
       </c>
@@ -3649,7 +3677,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>221</v>
       </c>
@@ -3666,7 +3694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>223</v>
       </c>
@@ -3683,7 +3711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>225</v>
       </c>
@@ -3717,7 +3745,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>229</v>
       </c>
@@ -3751,7 +3779,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>234</v>
       </c>
@@ -3768,7 +3796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>236</v>
       </c>
@@ -3785,7 +3813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>238</v>
       </c>
@@ -3802,7 +3830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>240</v>
       </c>
@@ -3819,7 +3847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>242</v>
       </c>
@@ -3870,7 +3898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>248</v>
       </c>
@@ -3887,7 +3915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>251</v>
       </c>
@@ -3904,7 +3932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>254</v>
       </c>
@@ -3938,7 +3966,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>259</v>
       </c>
@@ -3955,7 +3983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>262</v>
       </c>
@@ -3989,7 +4017,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>266</v>
       </c>
@@ -4023,7 +4051,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>270</v>
       </c>
@@ -4040,7 +4068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>273</v>
       </c>
@@ -4057,7 +4085,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>275</v>
       </c>
@@ -4074,7 +4102,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>277</v>
       </c>
@@ -4108,7 +4136,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>282</v>
       </c>
@@ -4125,7 +4153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>285</v>
       </c>
@@ -4142,7 +4170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>287</v>
       </c>
@@ -4159,7 +4187,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>289</v>
       </c>
@@ -4176,7 +4204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>292</v>
       </c>
@@ -4193,7 +4221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>295</v>
       </c>
@@ -4210,7 +4238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>297</v>
       </c>
@@ -4227,7 +4255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>299</v>
       </c>
@@ -4244,7 +4272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>301</v>
       </c>
@@ -4261,7 +4289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>303</v>
       </c>
@@ -4278,7 +4306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>305</v>
       </c>
@@ -4295,7 +4323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>307</v>
       </c>
@@ -4312,7 +4340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>309</v>
       </c>
@@ -4329,7 +4357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>311</v>
       </c>
@@ -4346,7 +4374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>313</v>
       </c>
@@ -4380,7 +4408,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>318</v>
       </c>
@@ -4397,7 +4425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>320</v>
       </c>
@@ -4414,7 +4442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>323</v>
       </c>
@@ -4431,7 +4459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>326</v>
       </c>
@@ -4448,7 +4476,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>329</v>
       </c>
@@ -4465,7 +4493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>332</v>
       </c>
@@ -4482,7 +4510,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>335</v>
       </c>
@@ -4499,7 +4527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>337</v>
       </c>
@@ -4516,7 +4544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>339</v>
       </c>
@@ -4533,7 +4561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>341</v>
       </c>
@@ -4550,7 +4578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>343</v>
       </c>
@@ -4567,7 +4595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>345</v>
       </c>
@@ -4584,7 +4612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>347</v>
       </c>
@@ -4601,7 +4629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>349</v>
       </c>
@@ -4618,7 +4646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>351</v>
       </c>
@@ -4635,7 +4663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>353</v>
       </c>
@@ -4652,7 +4680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>355</v>
       </c>
@@ -4669,7 +4697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>357</v>
       </c>
@@ -4686,7 +4714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>359</v>
       </c>
@@ -4703,7 +4731,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>361</v>
       </c>
@@ -4720,7 +4748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>363</v>
       </c>
@@ -4737,7 +4765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>366</v>
       </c>
@@ -4771,7 +4799,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>370</v>
       </c>
@@ -4788,7 +4816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>373</v>
       </c>
@@ -4805,7 +4833,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>366</v>
       </c>
@@ -4822,7 +4850,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>376</v>
       </c>
@@ -4839,7 +4867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>379</v>
       </c>
@@ -4856,7 +4884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>381</v>
       </c>
@@ -4890,7 +4918,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>385</v>
       </c>
@@ -4907,7 +4935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>388</v>
       </c>
@@ -4924,7 +4952,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>390</v>
       </c>
@@ -4941,7 +4969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>393</v>
       </c>
@@ -4992,7 +5020,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>400</v>
       </c>
@@ -5009,7 +5037,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>402</v>
       </c>
@@ -5026,7 +5054,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>404</v>
       </c>
@@ -5043,7 +5071,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>406</v>
       </c>
@@ -5090,8 +5118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFEC88C-6AFE-43DD-B607-144D5438B390}">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10341,8 +10369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1710726D-0BE6-4091-BBA6-4ED458250109}">
   <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12106,8 +12134,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
